--- a/backend/app/iiko/products_head.xlsx
+++ b/backend/app/iiko/products_head.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/super_daneel/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BF6D7A7-FADE-1D43-B86D-1DEA07D7D5D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E802E22B-B058-F247-BD9C-EAE7411661CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet 1 - products" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1 - products'!$A$2:$M$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1 - products'!$A$2:$M$95</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="559">
   <si>
     <t>products</t>
   </si>
@@ -61,15 +61,9 @@
     <t>3ab21ddd-354b-4e2f-bd06-a6f58e343c4f</t>
   </si>
   <si>
-    <t>Тархун</t>
-  </si>
-  <si>
     <t>69a6c13f-982f-40f3-ae9b-69316bf920c6</t>
   </si>
   <si>
-    <t>Квас</t>
-  </si>
-  <si>
     <t>9437c6bd-3b24-484a-b69b-385798056e67</t>
   </si>
   <si>
@@ -247,9 +241,6 @@
     <t>6c846580-edcc-4357-81b6-866c6ed52032</t>
   </si>
   <si>
-    <t>Дюшес</t>
-  </si>
-  <si>
     <t>bef72c0a-40a1-42b9-92f5-c91bdb0d67a4</t>
   </si>
   <si>
@@ -259,12 +250,6 @@
     <t>Эль темный</t>
   </si>
   <si>
-    <t>dfcb1165-5351-452d-83af-32b93aec355f</t>
-  </si>
-  <si>
-    <t>Селтик Марчес</t>
-  </si>
-  <si>
     <t>ad856a99-8f98-47da-b491-5efc46f0e5ac</t>
   </si>
   <si>
@@ -283,9 +268,6 @@
     <t>7442ffc4-02c3-48fe-a1c7-cbb8db0026e7</t>
   </si>
   <si>
-    <t>Говядина</t>
-  </si>
-  <si>
     <t>Закуски</t>
   </si>
   <si>
@@ -295,87 +277,48 @@
     <t>7698943b-ff15-489d-b538-208b73cc19c3</t>
   </si>
   <si>
-    <t>Индейка</t>
-  </si>
-  <si>
     <t>f7a21753-ddc1-4b98-bac0-420e2f7a7fb2</t>
   </si>
   <si>
-    <t>Колбаски с беконом</t>
-  </si>
-  <si>
     <t>b13990fb-333d-4334-911c-d86a959cf49b</t>
   </si>
   <si>
-    <t>Колбаски чили</t>
-  </si>
-  <si>
     <t>5d58d243-7281-4929-b171-c6f0a64baa43</t>
   </si>
   <si>
-    <t>Курица</t>
-  </si>
-  <si>
     <t>edaf597f-e324-48ee-90d2-034b6f56a94d</t>
   </si>
   <si>
-    <t>Оленина</t>
-  </si>
-  <si>
     <t>d8a27a92-78ef-4113-867a-1569065d99fd</t>
   </si>
   <si>
-    <t>Арахис Бекон</t>
-  </si>
-  <si>
     <t>Орехи</t>
   </si>
   <si>
     <t>ca2e923f-cc40-49ed-8fbf-2b4a8b0c42ce</t>
   </si>
   <si>
-    <t>Арахис Сыр</t>
-  </si>
-  <si>
     <t>bbd3a91d-c957-4f0b-9e0f-4dc980bdb67c</t>
   </si>
   <si>
-    <t>Арахис васаби</t>
-  </si>
-  <si>
     <t>597fa0c9-4605-4efb-9618-0033bc99ae9e</t>
   </si>
   <si>
-    <t>Фисташки</t>
-  </si>
-  <si>
     <t>Рыбные</t>
   </si>
   <si>
     <t>b9ad08e0-44d3-48a7-9bfa-eb6d4b4488fd</t>
   </si>
   <si>
-    <t>Икра воблы</t>
-  </si>
-  <si>
     <t>911995b9-aa04-4a01-91f2-967f87980982</t>
   </si>
   <si>
-    <t>Соломка горбуши</t>
-  </si>
-  <si>
     <t>a9c0fb94-45be-43c9-ac48-ac12c78ac90d</t>
   </si>
   <si>
-    <t>Соломка кеты</t>
-  </si>
-  <si>
     <t>506e951e-d7e7-44fc-8baa-91a9bca476f0</t>
   </si>
   <si>
-    <t>Сыр охотничий</t>
-  </si>
-  <si>
     <t>Сырные</t>
   </si>
   <si>
@@ -439,21 +382,12 @@
     <t>0c725f9b-c4f2-414a-8521-6c270c6fdd4c</t>
   </si>
   <si>
-    <t>Косичка</t>
-  </si>
-  <si>
     <t>f121dc6e-5aa2-4dc8-ba23-fa769fa89950</t>
   </si>
   <si>
-    <t>Юкола горбуши</t>
-  </si>
-  <si>
     <t>79c6c13b-577f-476b-bd74-412494466e5f</t>
   </si>
   <si>
-    <t>Лосось</t>
-  </si>
-  <si>
     <t>country</t>
   </si>
   <si>
@@ -496,12 +430,6 @@
     <t>Пиво темно-коричневого, почти черного цвета.</t>
   </si>
   <si>
-    <t>https://s2.wine.style/images_gen/207/207369/0_0_prod_desktop.webp</t>
-  </si>
-  <si>
-    <t>Сидр золотистого цвета.</t>
-  </si>
-  <si>
     <t>Пиво золотистого цвета с плотной пеной.</t>
   </si>
   <si>
@@ -1120,9 +1048,6 @@
     <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUREhIVFhUXGR0ZFxcVGBgWHhgYGBgXGRgaFhcaHSggGBonGxUdITEiJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGy0lICYtLS4wMDUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAACAgMBAQAAAAAAAAAAAAAABgUHAQMEAgj/xABOEAACAQMBBAYFBwcJBwQDAAABAgMABBEhBRIxQQYHE1FhcSIygZGhFCNCUnKxwSQzYoKSstElU2Ois8LS4fAVNUNUZHODFkST8XSjw//EABsBAAIDAQEBAAAAAAAAAAAAAAADAgQFAQYH/8QAPxEAAQMBBQQJAQQJBAMAAAAAAQACAxEEEiExQVFhcYEFEzKRobHB0fAiFEKy4SM0YnKCkqLS4iQzUsIVQ/H/2gAMAwEAAhEDEQA/ALxooooQiiiihCKKKKEIorBNQd90hRTuRqZGPdwz5jj7KXJKyMXnmik1hcaBTtRN70ggi4vvHuX0j/D41FNZ3Ew3rhxFH3E408uX6xzRuW0Q3xGHA4zTsEjH6z6H9UGq5nkd2Rd458mjHvTWxt1NeHuVsTpHLKcQW5Iz6xydO/TT410iO8fiyoNO4efDNK+0usa3j07YuRpu26ae2SXAPmopbvutBm/N2y+c8jy/1V3VFKNT2nk8w0f01Per0dhnd2Y6cf8AIjyKf7jZUn/EvgvmxPuy4rhm2XbcGvl9mPdo1Vvc9YV4fUMMf2IU+8g1i26W7Vkz2c0jY47qAAfsjHOoFsWo7yT/ANgrH/jpg2857QONKf0keKsePZNrvZF6PHQfHWu6LZmvzd8DnkGI+56rXZ/SfaJZxJdSoUAOCi5yTpoy+dcydYV8pIZ45MEj04Y/7oBrl2ImgHdUeTiuNsMxJAeDSh258WUVtC1vk9WVXHmDn9ofjWRtq4j/AD0Gn1gCPjqKray6zWU/OWkZ8YWaE+7LDNM+zOsi1fAM0kJ+rOokH7SekB4mu3SOw9w53h3PA8ClvsU47UYPAf2k+ScrXbcT6ElT+kNPfwqSVwRkHI8KgI5IZxvbiSD+ct2Dj2hdc+GDRHaOBvW0u8BxXTPkQdPfimtnmbg4B3DB38pz5FUHRMOWHHEd/umKioO125ruzIUYc8HHtHEfGphHBGQQQeYqzDPHKPoPLUcRokvjcztBbKKKKcoIooooQiiiihCKKKKEIooooQiiiihCK4tpbRjgXec+SjifIfjXHtzbawDdHpSHgvd4t4eFRNvYY/KLslmb1IuLMeQ3f7o0HOqstoobkeep0bx37gnMjwvOy8Tw91lTcXeWJEUHjkDHw3/PQUT7Qt7SPfUoq8DNLn0jzEaj0pT4KMeNLvS/p0keYl3JJAcdmDmKPH86R+dcfVHojnwqrdpbSluHMs8jOx5tyHcoGijwAAquAGG9m7ac/wDEbhjwK1rN0e+YVf8AS3Z8z4nDYCE6bc6xmJPydSTylmAYjxjh9RPbvGkraG0pZ2355Wc97sWx5Z0A8BXLWaiTX58rxzW5DZ44uwOevf6CgWK6bWxZwSNFX1nchEXP1nOmfDieQNerOFcNLKSIkxkDixOd2NP0mwdeQDHlXqw2ksknaTpmOLSKBB6Kls64JwdFJJOSxIzmnRwlzS45eJ3LO6S6WZZPoaKu8BvOvLvUjs/ZcB4tK+eG4m4D9kuC5XxKoO41OLdkKEhh3VBwuMekPpDTiOeajG6WWzEho5RnQgBDveZ3h7tK2y7bDDdjDKcau+MInPdUZBOuPM0qRhBFW0+eK8vJLbOkDjiG46Bo9KnTMra+0E3XZ19NUIzpmQIpcqo8FGT9oeVQb2UT4eOf0XJ/OKVIzrxUMDrpqVOnCvMy708OG9HOMHkJMg5PMkNk95JrR0dOUaMnDKc+w8R5aE05sUdwkZ4eo/PwUxa7Z0eA0YYUxAIoNnAkhSbdFZSm/E6SjuQnPsyMfGoJ0IOCCCOIIwQfEcqb9i3eGKsvD6QJyMcQcffgjFc/TazAKTrwbRiMasMnOnMjP7Iqq6rXXStjonpmS0SdVNSpyIwx2fPVLtneSROHikZGH0kYqfeOVPOw+syRSBeR9oP52PEcg92FbyOPM1X9FTrot6Wzxy9sV8+/PkvoTZu14LuPeRluIxxxpJH9pOPtHHHOvHYSwDtbd+0i5rx947/Ea+FUNY3skLiWJ2Vl4Mpwf8x4HQ1aXRPrBWZhHcFYZzoJgMRyHkJVz6LHv4eXCuOYHkHGoyNceR14Or+8MAsa0dHviBMeLdn5a8W8wn/ZO2I5hp6L80PHzHeKlKWLywEjbyDsrgelu5wH/SRvx9/fXVsjbO83YzejKNNdN4+XI/fyp8NpIIZLmcjkDu3O3FZEkIpeZzGo9wp2iiiryroooooQiiiihCKKKKEIqG6QbXEC4XWRvVHd4n+HOuva+0FgjMjceCj6zchS9smJsG8nG+zEdmmNSx0XdHwHcNaqzymtxmeZOwbeOgTY2DtHLzOz3Xuxs+x+fnHaTufQTTOeOSTwxxJ4KKr/AKa9NixaKB8scrJMudRzjt/qx8i/FvLidP8ApczF7eJ8sfRmkU6H+giP82PpH6R8ONfVXwaLrfm87Xb9MhqvQWGw1/TS56D54DmdiyTWKKKgtpFFZooXF7285VIIRw3O1bxeUnGfKNUHtbvqKgnKnIPs/wBedSfSIZMEvJ4VX9aImMj3Kp8mFcNnZlzpWuwtbECcqL59a4pbRbXxgVcXHD5uWdnj08n/AFoadDZoYt3eAOhbxONfdnhS7s63jRmkJO8gyqkes3LhyHH2CuntpEGWJIbjnl41QtDw994Zeq9N0NA+Bjo5RQB1TShFcAK8M9caHRddpaBXQ7y+spwOPrCoWWfsZyRw1B+78KkbS7AdNMDeGWOgA3hUVtC2LSPIGBBY44YxnTFcsxHWEvwFFDp9gnaI4W3jgcBkMfegTMJw/podcg5HlxHf/mRXdtiYyWbFsFlYEleHdqORw3tpCtbx4zofYeHs7jTXbbTARTLkCdCWAxndLMoySOJKlhppnPOpWiz3RXQfKLy3R4kZaWuY0uoQaDOgOOCgaxWyZADhWBHI4I94IGta6rL6MMkVmsUUKSfOhXTfsgttdszQg/NyDO/CeRB4lPDkO8aVZd3aCcAEr2u7vRyL6sqcQQRzwfZxGlfPFPXV/wBL+yxaXLHsWPoPnWFs6EHkhPHu499dIDwWuFa+PzQ6cFkW2xf+2LAjMeo9Rk7jnauw9rFj2M2ki6An6WOIP6X31PUt7RszIM8J4wDkab6jgy+P46d1SOxdo9qmvrrow7/EedNs0zmu6mQ1P3TtAzB/abqOawJowRfbzGzhuKk6KKKvqsiiiihCK8k41NeqWeme0CsYgj/OSnGBx3c4PvOnvpcsgjYXnRSY0uNAuFX+W3JYnFvD38x58t7GfIVA9YPSrs1xGSskikRY0MUJ0Mng8nBe5Rmp/aDx2dt2Tn0UXtZyNC2uFjHi74QeANUhtXaD3EzzyHLMcnHAcgo8AAAPACqOLR9XaOJ4+zchvrqFtdH2YTPvnsty3/MzuwyK5TWKKKgvRoooooXEVmsUUIXTBuuht5GCgnejduCSYAO8eSOAATyKoeANe9ib0EpR13XUgMrD/XI6HnXEy5r298+4EbDBcbjH1kA+ircSmvqnIHLFO6ysZjPJZclkuWoWpo3EbR7+af5ZYdDga8wBpS3tV09Vc6sNT3a8KioNqk+iSNe9go97EAVvlsp3A3UVh9ZJYX/dc0hkUjnKzJbIIYyS4ndifdM9pZQtHvZHDjwxUXta1iXRW1x51GLeOhMbeiRxGQfiNK03F6AO81L6gVbbaI6X75IOi0JYKzNI5KQpjfYcScaRx54yEcByGp0FeJrgyyNIQFzgKo4IqgKijwCgD2VpeR5N0OxKpkIvJQTk4HeTxPE1uVcU2SUuaG7FkWKxNZI6WnaJPivVYrNYpK10UUUUIRWaxRQhWx1adJjMq2kjfPRDMDE+soHpRN34A932abrs9m63MQwGOHXub6QPu94r5/tbl43WWNirKQysORGoNX9sHasd3CkwGEnG5Ko/4c3D4n+4edD2dY2gNDhjsIyPod2P3Vg2+z9U/rGj6TWo8xzGI31pmmSGYOoZTkEZFbagdhyFHa3bkSV/Ee0a++p6r1mm62MOpQ5EbCMCO9YcrLjqd3BFFFFPS0UlbMlW4u5bp8dlCPROuMDO78AW8yKm+ll72VrIQcFvQXzbjj2ZPsqFhiWGzijc4EmZpT/RIO0f+qFX9aqkxvSBv/H6ueTR34p8Qo0nbh6lIfWZtgsVt+DMRNKO4sPmYz9mM5x3vSFUhdTSXdwz4BkmctgsFGWycbzEAADQZPIVJp0F2iRkW7Ed4eM/ENVehOXz55r1kPV2aMRucAeIHH24AJcopjfoLfjU25A72eMfEtUBNEUYo2hUkHBDag4OoJB1HEVwgjNPZNG80Y4HgQfJa6KYYOhV86h0t99TqCskbcfJq1X3RG8hQyTQ7qqMks8Y08BvZPkK7ddsUftMJNA9v8w91B0VNbL6LXdwgkhjVlOQMSRg6Eg+izAjUd1dp6vtojU2p/8Aki/xUBjjkEOtMLTQvaD+8PdLFBFMp6BbRxn5MSPB4z9zVF7R2Hc2+s1vIg+syELr+n6vxoLXDMLrZ4nmjXA8CD6qKeEGtRtB3V01I7K2LPc57CMNunBG+inXhozAn2VwV0XJGRgVdQeChVtgOFbVhFNP/oPaX/KN+0n+Kua/6KXkCGSWEKqjJLPH8F3sn2Cu3XagpTXWYGgc2vEe6hAKxUlsnYVxc73YR727jI31U68MBmBPDlUmegW0f+Ub9pf40BrjkE508TDRzwDxCWqKZf8A0FtL/lW/aX/FXRa9Artd+S5heOJI5JHcPGT82jMoADE6sAOHDNduO2KDrXA0VvjvBSlRW22gaRhGoBLHABIUZP6TEAe01PL0FvyMrbkjvV4yPeGqIBOQTHzRxmj3AcSB5pcopjboLtADJtyB3l4x8S1QNxA0bFHADAkMAQ2COOqkg+w10tIzCGTRvNGOB4EHyWunrqp2yEnazkPzdwMD9GRRlSO4kZHmB3VCW/Qu+kUPHBvqQCCrxNodRwbSsy9F762+feLs+z9IMzxjBXUEDeySCOABroaRiRh6JE74JmGO+2p/aGB01V0bSDAJP9NDuP5rwPkf7wqfhkDKGHAjI9tQmzrpbmFJRwuIg2PqyKNR5jh+pXR0dnJQoeKH4H/PNdhPVzlujh/U33bQleXlbVmWLfI4U5OqFMUUUVoqok3pmTLcW1qOZ3iPtHdz7FDGojrO2juQT7p49nbrjl/xpfeAi+2pS1+d2s55RLp+qoT95zSB1nXe8IE+t2s5/wDLIyr/AFIqoHG+7afAYeZWrYY708bTpj/29B3pEeMHiobzqwuopQt5dKBgGFTjyf8Azqv6sDqPP5dcf9gfvrUrOTeotXpZo+zk61C9ddwBvIcgEiHIzyy8n8KSdk7IlupVgiTfZvdjmzH6Kjv/ABxVmdYuwJr3aMUMI4QqXY+qqmSXVj7NBxPvrq6S7Fk2bs8iw4k/lM3/ABSuMbykeqoJxp6oOe811zCXlxyCTZ7UyOzxxNpfdtyFScT6DM8DjDSbRttixG2s9yS7f89Lj0VI5DvxnROWpOuhry8unlkaaRi0jHLOxyT7eQ7gNBWomilPkLs8lo2eyMgxGLjmdfyG4LjvbdNxiEGcd1fSnSw52Xck65tmz7Y/86+cL3823lX0d0m/3VN/+Mf3KsQk3CVkdKNaJ46D5VfPNlLJA2/bSyQvxzGxXOPrAHBHgavTq16TNtG0YXCqZY27OXQbsgIBDbvDUHBHDIPAHFUdFEWYIqFidAqgsSe4Aamrd6MBNi2DSXRAnmYyCIEbxOAqoPIDLHgCx8Mxs8hxqcEzpezs+kMb9ZOAGqr/AKfbLjtr6WKLRPRKr9XeUMV8gTp4EUsy26nJKjNd+1doPcTSTyHLOxY44DuA8AMAeArkPA1XvY1GC1mRkRNbJiQMeNPmK+geqp87JtPsEe53H4VQd4o7WRgACWJJ/WNXz1S/7ptfsv8A2r1Q1yfTbzP3mrNq0WP0MBfkPD1XNJbq2pUE19BdU8mdk2hP1WH7Mjj8KoIVfHU8f5Itf/J/bSV2zE48kdNtAawgalUhtUYuJnRmUmRzlGZTq7dxqb6O9J5lS7t57qV42tX3VlYv84zIoClskejvaZxXDe7HuGlkIt5zlmOkbHOWPcKzc9HZ4rdriZXiG+qKJEZSxZXYkZxgKE7tc+FIEj6HNX5ILM4NbgDhlSvz0UPIgOhAbzp96jlC386gYzb5x/5F/jSFT71Jn+UZh/0x/tY6nZyb6h0s0fZ3O1wXT14qDc2+QDiPIzyy5/hSLsvZUlzIsMSb7Ny5Ac948lHM1Z3WVsCa9v4IYVziEFmPqqpkfJY+zhxNdO3tgybN2c3yH1zj5RNj5wpjUp9RQeQ4Ak8cmh7CXlxyHzBV7NamR2eOJtL7u4YnF3tmeahmvrbYsTW9qElvX/OyfRQjgvjjOi+1uQqvL26eaRppXLyNxdjknw8B3AaDlWonvrFKfIXcFoWeyMhxzcczr+Q3BW91UbQ3rJ4icm2lDD7Lan4iT305Qns7tl5OCR7s/eDVV9Tlzi8khJ9GaJhjxUgj+qTVmXRwbeXmAFP6hwfxqEzrrWv2EHuN0+Dh3LFtsdLQ9v8Ay9RXzBTJRRRWxcKxKpA6OP8AO7QuOYDke1pGH7oquOsST8qWP+ahhX/9asfi1P8A0fB+R37Hiy658Q/+Kq86xP8AeVx4Mo9yKPwrMJrGD8xJ9lv9Ft/1Dv3f7QlyrA6jx+XXB/oB/aLVf1YXUcPy25P9Cvxf/Kp2ftq90v8Aqx4hdnXLtm5SaKGGZohurL6B3Szh5AN5hxA3QQOGTnXTDB1d9Ok2ghtrgKtyqkOhA3Zlxqyjhw4r7RpwVeu0flkX/YH78tV16SsskbFJEIKOpwQRw1pgmuvIdkqLej2z2RjmCjqd+J8U4dYfRI2U2+gJgkJKHjuniUJ8OXePI0oVcHRLpbBtaBrC9AW4K4I0AkxqJIu5xjOPaNMgVt0n2BLZzNDLqOKuNAy8mH4jkaVNHdNRkr3R9rMg6qXtjxG3379qg7z823lX0ft6Xs9myPuo27b53JAWRsINHAIJHtr5wvvzbeVfR3Sdf5LmH/Tn4JTIOwT8yVHpYVnjHzNVv0J6wUjuRFc29pCkmFWW3i7Pdbl2hLElTwzy05ZIZetvo32sQvIx6cIw+PpR8c/qk58i3dVMSxhhg8Ksrqt6d7u7s29bIPowStwI4CJyfcpPl3V2NwkbcOaLVZn2SUWiHED5Q6qt6DTX1h9FjZTkoD2MuWjP1frIfLl4EdxpTPA1UIINCtyOVsrA9uRV+9Un+6bX7L/2slUPcj028z95q+uqgfyTafZb+0eqGvB84/2j+8atWrRY3Q3al5eq1Cr46n1xsi2/8n9tJVDir76oxjZFr5P8ZpKLLry9V3pzsM4lU/ddJL5ZX3b+5GHYAGQsAAxxoa6NqdKpbqxiiuJe1lE8hJKhSEUKsed0AHJL+6ofbGk8w/pG/eavWxrA3FxHbqwUyNu7xGcDBLMRzwoJ9lJ6x7hdJrVXvstnZdloG3cfBcNPnUmP5RlP/TH+1jpFPhw5cqfOpIfyhOf+m++VP4VKz9tQ6V/VXclKdc217hJIYIZmiUqJMod0l1c7u8w1wMZx3666VM9XPT1b5fktzurdKMEHAWZQNWUcN7HFfaNMgLnXcPymH/tf32qtjkMroxR0IZHU4Kkaggim9ddkIOXkqEfR7Z7GxzRR1DzxKcusboibObtIx8xKfQ/QbiUP3jw05Un1bnQ3pjDtOFtn7QCicrjuE2NQ8f1ZBjOB3ZHMCu+lXR6SynaF9V4xtyZeRHceRHI+GKVNHdNRkVd6PtbnjqZe2PEbeWvftXV1dT7m0rY97Ff2lZf71XVtNPmz+jKw9hy341RPRFsX1qR/PRf2iCr72j6ko7pFPvVarzCsDuB/DX0VbpKgtDOHqR6lbf8AaVZqD7TxNFVf/JSbVn/Z2qO6OrizvV7h+Dfwqt+sUfylc/aB96qatPYtvj5dDjiGA9naD8arPrLT8vL/AM5HE49sar961db/ALY7u4uCu9GH/UO4f2lLEBTeXtC4TPpGNQ7AeCkgE+ZFOfQ/pTs+wkkljiv3aRQp30gUAKc6ASZ+NJVFSZJcyC1bTZBaBdc402CieulPSvZ1+6vLFfRso3AVWEjGc6gvnn30l3YQO3ZFin0S4CsR+koJAOe41prFce+8a0UrPZhCLocSN+i8yJqGUlXUgqykgqQcggjUHNPVr0thv7f5HtQ9lcICYbkLkEgfSCjQngcaHwIFJFFSbKQLpxChPY2yODwaOGoUhbLYlNyc3hY5BEEcW7jJwVeRwTkYOqjjVi3/AFp2csEkBtrwI6GMkCHIDLu5GZONVVRXWy3RQBLm6PbM++9xqMssPBSO1PkeAbZrkHOqzJGumDqGRzk5xpjvqLmjDDBr3RSq41GCuNjo26414p36O9L4p4DszazHGPmbo6kEervn6w+tzGjd5Woo7WN5UnedwpwrWyIysPrb0jLjywajc0Ux0l6hIVSKxdUHBjyAdMMOHH5tVodHusyytLeK1jtr1kjG6CwhydSdcSAc6StpzWD77wG7V8lgs0cO7knOCyvkD2GoSih8pdmFyz9HsgdeY445712bNe29L5T8p5bohRGz35Z3GPYDVidHusyytLeK1jtr1kjGAWEOTqSScSAcTVX0UMluDALtosDbQavceGFB4Jnn2hsh3eR4tqekxYgLbYyxJONc41pg6PbQ2TuztaQXC3EVtLIr3HIBN07uHIBO/jQczVcV6jYqSVYjKlTgkZU8QccQe6utlA+6FCSwue271jqYYE4URFuBwJC4TPpFFDMB+ipIBPmRTl0R6T7PsJXmSO/dnTcO+kCgAENoBJnOR30l0VFj7mICfabMLQKOcQNgp/8AU99K+l2zr9leWK+jZAVBVYSCCc6gv+NJV4Iw5ERdk+iXUK3AZ3lUkDXPA1prFce+8a0XbPZhALrXEjYdF5dM4IJVlOVYHBUjUEEcNae7LphFfQfIdqnclAzBdBcgkDTfA4E8DjRh3HBpHozXWSFou5hRtFjZK4PrRw1CmOiqfl9qAQfn4tRnBxKuoyAcc9QKvnafqS/9xf3Fqj+r2339pWy9z7/7AZv7tXftNvm28ZT8Bj8KVN/sOPH8NPVZ3SX6wwbh+L8lFbtFSn+zTRVH7DJsVH7Q1cVkm5tGVTwkU/1grfgarjrTtCvyWT9BoT5wSMB8Hq0dtjcuIZvYfYdfg3wpZ61Nnb1rKQNYpFmH2XXcb2b2vsrRbm9mxx7iA4eRCnYXhs8bjrQc8W+oVMUUVmor067NnQ27Bu3u+wwdN6GV8jHHMYIFOO0+rlbe3N1NejsgFOVidzhyAuFBzqWFV9cn0G+yfuq9OnDfyHnvig/eiqxG1pYSRksm2TTxzxsa+gcdgwxpqCq/2P0KjvEZrG/imZPWR0kiYd2QcnHjjFLe1dmS20rRToVZeIOuQeBUjQg94qa6ry42rblM+kJFkxzTs2OvhvBfbiprrnuke7jRcFkjw5HIsxZVPiBr+sK45jerDhgpQ2idtqMDzeFK1oARxph4KvqlNibAuLttyCJmx6zcAv2mOg8uPhXvotsRru6jt1ON7JZvqRr6zeeoA8WFOHWTtdLZV2XaDciVQZd3ixYZAYjU6ek2eO8KgGYXjkrM1pPWCGPFxxxyA2n0Hil2XYNnEd242pCrDitvFLcYPMFkwM1J7J6EW12CLPacUrgZ3GjMbe1Sd4DxxSRk99YGQwkRikinKupwykcCCK610eRHioSQ2oCrJcf3W09T4qd6RdE7mzPzyZQ6CRTvKT3b2MqfAgVBVeXV30jG0rR4blVaaP5udSBiRWB3Xxw9IA58VPDSqr6a7C+RXbwjJQ4aMnjutnGe8ggrn9GpSxXcRklWG3OmcYpRRw8duG1QNMlp0Om7MT3EkVpEeD3Dbhb7CesT4aUz9W+wI4rd9q3K7yxhmhUjlHnMmDxYkYXyzzGEfpBtqW7maaVssfVHJV5Kg5AfHiajdDQC7uTftDpnuZDQBubqVx2AZcScPWRi2TswtunawU95tZQv7bYGPGpi46sJjGJrS4iuUIyNxsbw/ROSp/aFIhNTPQ3pPJs2cOpJt3I7eLiMHTfQcnHxxjykzq3GhFEq0NtcTb7H3qaFrfQAqLurZ4naORGVlOGVhgjzBrbs+KFiRNcGADGCYpJQ2c59QHGPxq6usTo/HeWhuEAMkadojr9OPG8VzzBGo8cd5qis/fUXsuOxxTbLavtUVW/SRnr3V0PurDseq8zwrPDeI6Ou9Gdx13sjTO9qufEUhXVu8btHIpVgSrKeII4g1Yuy+l7bPXZiy5NrNZxCT+jbebEgHd6WGHMAdwBmuszokLmP5bbgNKqgsE17RAMhlxxYDh3jTkKbJCLtWLPsnSUnWBtoydkaAU7qYHLuVOwBSyh33FJ1fdZ93x3V1NNuxehKXccktvfxOkfrkpMhXTe1DIDw7qT6e+rSci12x4QKw8zFOD9wpUQa6tRvV7pCSWJgcx1MQKUBz4pP2jbxIQIpxKCMlgjxgHuw4BPniuWjnWKWr4BAoTXu9KBPnU7ab16ZCNIombPcWIUfAn3VaF0M9inNiWP67Z/Gk7qlsClnNPj0pXES+SjGR7Xb9mniMb1zgcIxj3DH3muStvMDNtB3mvgG+S85bZa2l7tG+g9ypqiiiti+sSijNu2+/Ce9df4/A1xTRLPCob1ZEaF/JxgHzzg/rVPMuRg8DUDYpuvJbsdG9U+PHPuwfZWbO0tmDh94U/iGLe/EK1E6rKbMeRz918839q0UjwsMMjFW81OD7NK01YHWzsYrIl6BgSehL4SxjH9ZRkfYJ51X1KIAyXr7PL1sYftz46+K13HqP9hvuq9ekYibYkfbu0aGK33nVO0I1ixhARnJ08M1RV16j/Yb7qvTplH/ACDgcoYPg0VWIew75oszpIE2iAA0x9Qorofs+0MMjbIuo3uiu60k6HfRTySPA3BvAakMCQOOBVc9JNlXNvMy3KsHYlsk72/k6sH+lk+3vxUfZ7QktpUu4TiSI732l+krd6kaGrp61Yo5dmdtj0lKNGeY7TCkfstw8B3UODXx1GFFFj5LLagx/wBQeRjrsz3bMkudRkQM1454qkSjycys37i+6lfrEB/2lc73HeHu3Vx8MVI9UW2Vt79opCAtygRSf51CSg9oZh5kCp/rj6OsWW+jXK4Cy4+iRorHwIO6TywvfXXisQI0XIZOr6ReH/ewHhTyoqsoooqqtxOvU7OU2lug6SwOpHipRgfMYI9td/Xo4FxER6wgyfLffd+Oaz1N7LPyiW9f0YoozGGOgLsVZjnuVF1+2KV+nu2Re3csi+pjs4/sjIB9pJb9arRIETQfgWLGwu6Qe5n3R4kUp82FWp0otez2CYo+CQQjT6oaLePuzVHVe3QLaEe0NlrE5yRH8nmXmCq7mfDK4YHx8Kprb2yJLSd4JR6QOh5Ov0WXwI/EcRRaWmoK50LIA18RzBr5Dwp4qOoK50+tRXpAeABJ4AAZJJ4ADmSdMVVW2aa/PgV8dWF2ZNj27P8ARR4z9mJ3Qf1VFUIeHsq5NqTjZexo7UkCd4ym6DnDyZaZh4KXOveV76pqU4V/Jvuq1aD9QCxeh2UZI/QnDlX37029NIvyXZeRxsY/uU/jUx1T9NOwZdnXT/NscW8jfQJ/4TH6pPq9x04EY5usWDctdlDutVX9lIv40iSoGGDXDJclOxdisrbTYmA540PMqyOtDoV2Ra8t1+aY5lQD1GPMD6hPuPgdIboE2Lba3jbJ/wD0H403dWHTQXKf7OvSGmCkIz6iePGqtni4HHvGvI1p2l0SNhFtN4zmCWFOzyclCHbeQ8yBvjB7vEUwxgEvblQqoLS8sFmm7Qc2m8Vy5eKqo16jQsQqjJJAAHMnQAe2vNO3VRsTtrrt3HzduN7J4GT6A9mCf1R31Ta28aL0E8whY6Q6fB44K1tj7PFtBBBpiCPefHN8HJ9rFjXTsGI4aQ8WP+Z+J+Fc19KSoGPTlOcfo8EH+vGpq3iCKFHIf/dMj/ST10aK83Zf0+JO1ePlJDPqzJ/M+NVuooorQVVFQnSCEjdnXimM+WdD7/vqbrXKgYFSMgjBHgaVPEJYyz4DoVON9x1UtbbsY7yAo2iTgDP83Mv5tveMHvwBzqg7+zeGR4ZF3WVirDxHd3jmDzBFXpbnsJntZvzUvqtwxn1WzyOmD4gGlnrG6NNNGZ1GbiAATAf8WEZ3ZVHMgcfb3CqLSXjHA6jfqOfaHF2wV2+j7QIn9WT9Jy9P7TyVZWttDIGEt0sGmMNHPIdRxAjQjHmQatbavTXZc9k1mbxkzGqBzbzkApukHG53r31UNGaYyUNFKLRtFh654eXkUywGCZLTZOzQwM+0VePOqRRTszj6uSvoZ7//ALrt6edNje7sMSFIEOQGxvMwGAWA0UAE4AJ457sJ2axUTJhdaKBNbZf0glkdecMsAAOW1YdMjHtBHEHkRVjdGOtJkj+T7SiMyY3e2QBiy4xiaM+tpxI49x4mu6K7HK5mWS5arFHaB9We1PW1Nn7FnJkttorb51KSo2B4KGCsvvI7qi4tmbNjOZr8zgfQtYXy3h2r+gv+tRSznxNYdscfceNF5pODfNLEEkbfqmNOAr34+6bOkHTIyQiztohb2qjAjU5ZxnPzjeJ1I5knJalSvOT3bv2v4Ubh+sfZpUXVJqSmwhsbbsTDTurvxNTxopHYG2Z7Kf5RbNqdJI29WRe5h39x4j2nNhXnTXZW0YlS/SS2lHqsVLbpPHs5UU5X7QAOOFVX2fi1G6eTH2601stBdOIVSex9Y/rA0tdtBHrTzTbddHtng5j2vAV7ij7wHkpOT7BXRszauz7H52ASXk49SSRDDEh71RvTLeY8itJZlI9bSvVQLg01A9U1sLpWlskhI1FA08HUx7iKru21tea6lM0zbzHTuCjkqDko/wDvJ1rRa28Um8styINOLRyycc+qI0PDxI4j2aKKgDjU4q26P6LjMNMhhwVhdNds7OvUto4r3szArL6dvcYYMEA1CaY3PjSDcIFYqrhwDoyhgG8QGAYe0CteaxXXvvGtEuzWfqGBgcSBlgNteKwQchlYq6kMjKcFWByCDyORVnN04F9si5imIW6jVA68O0UyIO0QeOdQOB8CKrKs7vOpNlLWlqjaLGyWRsmRBB400XuGJmYIoLFiFUDiSTgAeJJq/ejexVtLZLXTex2lww7zxHloFHgtKHVd0Y3B/tGdTnhAp4sTpv48eC+09xp2vWYkQDWRzmQjhnkvko+6oOcI2VOunHIfxH+mp2LM6RtHWv6puTczv/x/FwqujZg7WVpyNBov4e4fE1O1z2luI1CDgPieZroq7Z4jGyhzOJ4nP25LCkfedhloiiiinKCKKKKEKJ6QbKFxHgaOuqHx5g+B/hUJsm+aUCJju3MOdze+mo9ZG7+GD5A8jTjSx0o2Iz4uINJkwdNN4Du/SHx4d1VZojXrG56jaPcZg8k+N+Fw8t35KsunnRUJm8tkIiLYlj5wPzBHJSTpyGRyIpGq+rDaAuQWUL8oC7ssLaLOg0IIPPlk8M4Ohqu+l/Q4IrXdmGaEE78ZzvwNzV147o7+XiNaQReF4fN/uNDuXoLDb6/opc9D6HfsOupqkmis1ilrYRWaxWG+r7/LuroCg910VQTn1fa38Kyi44e/nQB7q32dq8rrFGu87sFUd5Jx7B412ugUAwD6n4nwHDYN+a01iu7bezzbTGFnVyQrAxklSHUMpBIBOjCuGuEEZqUcjZBVhr8+eqzWN7lXmSTkOP3f50Rrj/XCu3cKlK64ukuMFaZnZ+fzavZGdK8RHSvTH38qwgwKPuqWBmw0GPeKeqzWaxRUU5FFFFCEU59X/Q83b9vN6NtGcsTpvkfRU931j7OPDHQjoQ92e3nzHbLqWOhfHEL4d59g14Ww7xxxqAgSFABFEBjfxwYjko468eJqeDRed83nWniTgFlW63Xf0UXa1OzcP2vwr3dXQRQ+7jAxDHjG6OG8Ry04Durp2LYlBvv67d/EA6+81o2VZs7dvLxOqg/A45DuFT1Ts8Rkd1r/AOEa/vHedBoF5+V4aLjeft8zRRRRV9VkUUUUIRRRRQhFFFFCEq9JujZdvlNsdyZTnA03z3g8m++o/Zm1hO+pEF4voneGFmA+hIvf8Ry7qeqgOkXRuO6G96koGjjn4OOY+Iqu+Ig3mcxt9imtkBF13f8AMwkHpJ0HSdma2QQXIyXtmwFbvaBuGD7vs1Wt3bPG7RyIysujKwwR5g1cUl7LAVt9oxl0B+bmUnfQjg0cmhPv3u/PCuzaGzYrqIduou4hok8QAmi8HUetx5DzWklrXZYHX8x6jBbFm6SfFRsn1N0OvLbwOOlVRgrzH39+v8KetsdXUoUy2Trcxdy4V18GQ8T5YP6NJBiZfQdGV19EqwKsPNTqKWWkDFa8c8czxcNcDx0zHCq800bB2ewtpJYmTtpMwrvSxxmKPA7R/TcEMwO4McAznupXoFRBonSx9Y27XUaVruzHPHLBMnTuwZJU3goBhgUYZGOUgjB0ViR5nQ8s142NPG0HYbwDFZd/MYIwVUpM0n0FiClscdMDJaoXaV/JM4Zyu8FRMKuPRjQIu8cnXCivCXDIjxDjJjfO76RVdQuc6JnBIxqVXupwONfnksuSMmINoQRQE1A5drEiuWB3YphEG7cRpIirbuGtUJKO0RYaNLu53Jt91kbzI4DA8WdgvZLE4w8jSyuQAWjhtUk3gueBaQSLx4xDOlRG1NpySrhwi6l2KDV3KhS7a+sQo4YHHTU1uuduTvMLlmG+BjdCjdOQVYEHIIfeYt3l276HFpUYY54wW5YVOlKVocaHPE1BJoMCpfYWzo9+K5jLj0pIyshVirdiWUqyqoIIJ5ZBXnmlcV2ptmUMrIsaLGWIRA27vOu6zHeYszbuBqdMDGKjcHP+tK45tdU+GYtLjcONKDXN2Z1zpXdTSq20VjdYkKMljoqIuST3AcSadej/AFa3k4D3DC2j4kuPTI8Fz6P6xHlURGXZKxLbWRdsEd3ofz3JPihZmCIpYk4CqCST3ADUmrN6KdXSxhbjaHH6MC6ljyD44/ZHtPEU29H9h29on5LGM4w1zNz78HTI8FAXhWxr4l92ANJIdDKw1A57i8EX3VF7mR54k5a14DN34dp0WZP0jJKLsQujU6/4/i4YrpvboIB2igYA7OAYwuOBkxp5Dh99etn7NaRu3uNSfVU/DI5Dw99dGzNjBD2kh35OPeAfbxPjUxTIrO6Q35uQ9XbTsGQWQ+UNF1nf7fMUUUUVfVZFFFFCEUUUUIRRRRQhFFFFCEUUUUIXPd2qSqUkQMp4hhn/AEaUbvojLC3a2EpQ/UJ4+GTow8GHtp2oqD42vzz26qTXluSrw7dAcC9gkhm4dtF822O8jPpr7x4VIzW8d2mHW3v1HDeCxzKPDuPluU13Vqki7siK69zAH76W7/oTC3pQu0TDh9IDyycj30gskblj4H2PMJoew7vHu1HIpP2r1fWR1Saa0Y8BMvaID9o/46g5+q284wzwTL3o+6T7CMD9qrDFntOHRZFmTuJDe8PhvYCa0fLSDmfZ6q3NkDRHTnvAa++luka3ttpyPmL3krbLRNo8n+KvmQfFVfP0B2hH/wC2k/UKv+7mo09GL1Tg2d1n9GJyD7d2rhXpBbj6d2h7lkD+4OTW+PpHAeF3cj7UcZ/uVESREVvV7vWnknOtUuFGAU46/wA3zaqbXonfHja3P/xSf4a64ege0H/9tL+vup+9irgO3Iv+bn9kcY/uVrfbsP8AOXT/AKyoP6uDXDLEPveLfzUxapKU6sc7xrxxCr616p7xh848ca8wz72PYgwffU5s3qxs0I7e6kmb6kK7oPgd3eb+sKZ4r9XPzdoX8XLyfAg/fXYsd6+gCxL4YX7skVFs4cPoBPAEjxujnokvmlzJu9wPDC8eS87P2dDbL8xbw24xjfkwXI95Zva1eJtoIWwoe4flvD0R9lB+I9tdUHR0Z3pZGc+0fE5JqXtrVIxhFC+X4nnU+rnkz+kb6OPd2RxxO8qq6VgNcSe7xOJUGuyppiGncqvJRj4DgvxNTlpaJGu6igD7/M866KKsxWdkZqMTtOJ7/aiQ+VzsDlsGARRRRT0tFFFFCEUUUUIRRRRQhFFFFCEUUUUIRRRRQhFFFFCEUUUUIRRRRUm5oKUul3A0gN61FFZlqzKuwZKRt6aujfH/AF4UUVVsnbTJ+ynGiiit5+azQiiiioLqKKKKEIooooQiiiihCKKKKEIooooQv//Z</t>
   </si>
   <si>
-    <t>https://www.pet-beer.ru/images/product/9945.png?1656935789</t>
-  </si>
-  <si>
     <t>https://beer-ayinger.ru/assets/images/ayinger-brauweisse.jpg</t>
   </si>
   <si>
@@ -1396,15 +1321,6 @@
     <t>Пиво хорошо сочетается с классическими закусками, его можно подать к большинству блюд и мяса, рыбы и птицы. </t>
   </si>
   <si>
-    <t>Сидр отличается очень сухим, терпким, яблочным вкусом с приятным, длительным послевкусием. </t>
-  </si>
-  <si>
-    <t>Аромат сидра приятный, фруктовый, с яркими яблочными тонами. </t>
-  </si>
-  <si>
-    <t>Сидр употребляют охлажденным, с большим количеством льда. Он хорош в качестве аперитива и дижестива. </t>
-  </si>
-  <si>
     <t>Пиво демонстрирует яркий, насыщенный вкус с изысканной горечью и хмельным послевкусием. </t>
   </si>
   <si>
@@ -1510,9 +1426,6 @@
     <t>https://moresnekov.ru/thumb/2/b4PNafWkAnKo-PDENjkWDQ/750r750/d/ikra_vobly-chernaya.png</t>
   </si>
   <si>
-    <t>Барбарис</t>
-  </si>
-  <si>
     <t>Ayinger Jahrhundert Bier (0,5 л.)</t>
   </si>
   <si>
@@ -1633,9 +1546,6 @@
     <t>Straffe Hendrik Quadrupel (0,33 л.)</t>
   </si>
   <si>
-    <t>Straffe Hendrik Brugs Tripel Bier Wild (0,33)</t>
-  </si>
-  <si>
     <t>Engel Bock Hell (0,5 л.)</t>
   </si>
   <si>
@@ -1669,45 +1579,9 @@
     <t>Ayinger Brauweisse (0,5 л.)</t>
   </si>
   <si>
-    <t xml:space="preserve">Straffe Hendrik Quadrupel </t>
-  </si>
-  <si>
-    <t>Boon Kriek Boon</t>
-  </si>
-  <si>
-    <t>Litovel Premium</t>
-  </si>
-  <si>
-    <t>Black Sheep Stout</t>
-  </si>
-  <si>
-    <t>Ayinger Lager Hell</t>
-  </si>
-  <si>
-    <t>Ayinger Brauweisse</t>
-  </si>
-  <si>
-    <t>Steenbrugge Brown</t>
-  </si>
-  <si>
-    <t>Steenbrugge Blond</t>
-  </si>
-  <si>
-    <t>Barbe Ruby</t>
-  </si>
-  <si>
     <t>La Trappe Tripel (0,33 л.)</t>
   </si>
   <si>
-    <t>Henry Westons Vintage</t>
-  </si>
-  <si>
-    <t>Cernovar Svetle</t>
-  </si>
-  <si>
-    <t>Blanche de Bruges</t>
-  </si>
-  <si>
     <t>Barbe Ruby (0,33)</t>
   </si>
   <si>
@@ -1727,6 +1601,105 @@
   </si>
   <si>
     <t>Самарское Фон Вакано (б/а 0,5 л.)</t>
+  </si>
+  <si>
+    <t>Барбарис  (0,5 л.)</t>
+  </si>
+  <si>
+    <t>Тархун (0,5 л.)</t>
+  </si>
+  <si>
+    <t>Квас (0,5 л.)</t>
+  </si>
+  <si>
+    <t>Дюшес (0,5 л.)</t>
+  </si>
+  <si>
+    <t>Говядина (80 г.)</t>
+  </si>
+  <si>
+    <t>Индейка (80 г.)</t>
+  </si>
+  <si>
+    <t>Колбаски с беконом (80 г.)</t>
+  </si>
+  <si>
+    <t>Колбаски чили (80 г.)</t>
+  </si>
+  <si>
+    <t>Курица (80 г.)</t>
+  </si>
+  <si>
+    <t>Оленина (80 г.)</t>
+  </si>
+  <si>
+    <t>Арахис Бекон  (100 г.)</t>
+  </si>
+  <si>
+    <t>Арахис Сыр (100 г.)</t>
+  </si>
+  <si>
+    <t>Арахис васаби (100 г.)</t>
+  </si>
+  <si>
+    <t>Фисташки (100 г.)</t>
+  </si>
+  <si>
+    <t>Икра воблы (80 г.)</t>
+  </si>
+  <si>
+    <t>Соломка горбуши (80 г.)</t>
+  </si>
+  <si>
+    <t>Соломка кеты (80 г.)</t>
+  </si>
+  <si>
+    <t>Сыр охотничий (100 г.)</t>
+  </si>
+  <si>
+    <t>Steenbrugge Brown (0,5 л.)</t>
+  </si>
+  <si>
+    <t>Steenbrugge Blond (0,5 л.)</t>
+  </si>
+  <si>
+    <t>Barbe Ruby (0,5 л.)</t>
+  </si>
+  <si>
+    <t>Henry Westons Vintage (0,5 л.)</t>
+  </si>
+  <si>
+    <t>Cernovar Svetle (0,5 л.)</t>
+  </si>
+  <si>
+    <t>Blanche de Bruges (0,5 л.)</t>
+  </si>
+  <si>
+    <t>Косичка (100 г.)</t>
+  </si>
+  <si>
+    <t>Юкола горбуши (80 г.)</t>
+  </si>
+  <si>
+    <t>Лосось (80 г.)</t>
+  </si>
+  <si>
+    <t>Straffe Hendrik Brugs Tripel Bier Wild (0,33 л.)</t>
+  </si>
+  <si>
+    <t>Straffe Hendrik Quadrupel (0,5 л.)</t>
+  </si>
+  <si>
+    <t>Black Sheep Stout (0,5 л.)</t>
+  </si>
+  <si>
+    <t>Boon Kriek Boon (0,5 л.)</t>
+  </si>
+  <si>
+    <t>Litovel Premium (0,5 л.)</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAsYAAALGCAYAAABGaFe1AAAABGdBTUEAALGPC/xhBQAAACBjSFJNAAB6JgAAgIQAAPoAAACA6AAAdTAAAOpgAAA6mAAAF3CculE8AAAABmJLR0QA/wD/AP+gvaeTAAAACXBIWXMAAA7DAAAOwwHHb6hkAACAAElEQVR42uydd5xc1Xmwn3PunT7b+652tUUVCRC99w4GjDHGdmLHuMROYjvJF9cElyQ4tmM7+Rznc3ABuQRXML2aXgVCCCHUy2p3tb3N7E6fe8/5/rgjrVa7KyQQRiudh59+SFPu3HnnzrnPPfOe9xUYDAaD4aDw+NewjikvDrvFpeGAIuxqK2xBUEjX7yphCwuJllIobQspbbSWaC2V9NkAUuUdhFAIobRSjpbCQSilXZQltaOVlXMhYwk3lZWkrLFY6rWRsdT5/4xrom8wGAxvHWFCYDAYDBNiu6S5qdKPqBWuqMaS5SBLQZUKIUpQohyhykGUCigFUaoEUQlBpVRYShl4J/ZbKZWVUqYUZKQmATqmIQY6hpYjSD2itY6DjIGK4aoRbemBHLpv3Y7OISPWBoPBYMTYYDAcIay8GXteYG6DdmmSUs7RWI1C6lqBqAWqtaZao2qFkOUSrCMpNgpcrdWIQPYJwQAwoNF9Wok+gdullNopLDq3Zju6T/oUjjmaDAaDEWODwWA4hHn9q/ga5zQ3Y8t5CGueRs8VqCahRZOSeg7I2iNNeN8OgQbVp6FTKtmpBTsFogPtbsVRW7t27tix9F/Im0gZDAYjxgaDwfA2s/Jm7BZf43wL30IpVBtCtgjNPCTzlJJzpcQ2UXoHxVnhSKk6UGzVgq1o1a603OaS39Se79piZpsNBoMRY4PBYHjTAhw4SkiOEpolWnAUWi14p3J4DW9VmlUWITcLzXotWKcV612y640wGwwGI8YGg8FQIP6DunIdDh4nhF6mhDxWaHkcUi2QSL+JzhEgzKgcSm7WQq2WWq3RWrwqUpnVJZ/pHTHRMRgMRowNBsNhy+BPG+v8wj5eS+t4BMdJ9DKlxFwpkSY6ht2yrFBS6g6FeBXNaqHcV3LaeaXq4129JjoGg8GIscFgmHV0frc+GC0LnGAJfSpCngKcKoRsNJExvFm0Vl3ACrR60dViRWI0u6rpcz0ZExmDwWDE2GAwHFLEbmlqEfhPF5JTQJ+qhD7WpEMY3k4UKie1WANihVa8qMk9X/qxznYTGYPBYMTYYDD8SRlc3rTQp3xna6nPkkKeI6DJRMXwTqOhU2n1lFDimbzMP111Q+cmExWDwWDE2GAwHFSGb21ZasE5QohztJZnS0mNiYrhUEcp+oVQT2utn3LhqYqPtr9uomIwGIwYGwyGA2Lwp411fit4sRDqIgUXSK9DnMEwu0UZ3SfhMa3lH3Nu5hGzoM9gMBgxNhgMU+j/79JIMFx+tpbiItAXS+QSExXD4S/Kah2IR4TSf8ykRp6u+XQsaaJiMBgxNhgMRyDxW1vmYckr0eIKrdSZpnmG4YiWZKWyQspnEfp+XHVvyUfbt5qoGAxGjA0Gw2HK41/DWtY493Qp7SuQ+l1mVthg2Icoo9ahxH1KOfe/2tXx/Pn/jGuiYjAYMTYYDLOYwZ+WRH1WxRVSiCuBS0FUmKgYDAeKHgYeUlrfm3eH76/6eDxhYmIwGDE2GAyzgNgPm0pFwHelFuJaJBdLCJmoGAwHBwVpFI8Ire/Q2fy9pX/dGTNRMRiMGBsMhkOInltqKsNEr5GWuEYpdb7JFzYY/gSSrFRWSvm4cvWdKRJ31n+sf8hExWAwYmwwGN4BYj+pL0OG3iuEeL+Gs6XENlExGN4pScYR8LTW+jeo9O2ln+gZNVExGIwYGwyGt5He79SEQ5WRK9HyA6AuNTPDBsOhKMkqC/IhhPp1eih5b93n+1MmKgaDEWODwXAQWHkz9gJ/60VK8AEL3o2QRSYqBsMsQatxF+6Sml9vzm3/40mfwjFBMRiMGBsMhgNkdPncY9H2DQj9QUvIKhMRg2F242o1iBa/QjjLy27oWGMiYjAYMTYYDPsg/oO6cqLRP0O4NwjkcSYiBsPhiUatRlvLSSRuK/lM74iJiMFgxNhgMAC/vQZ56ZWtlyC4QQuulMigiYrBcGSgUBmhuRfN8ofu3f7w9XeiTFQMBiPGBsMRx8iPWhotv/yE1voGKeUcExGD4QiXZKV2CiGWuzn1k/JPtneZiBgMRowNhsOaG29EfK6t6WKE/5No9S4ppM9ExWAwTBJkrfIIeR8696Pvbut85Kab0CYqBoMRY4PhsKH3hy1VoZD4qBR8AmSbiYjBYNhPTd6mND9Jp/WtdX/dPmjiYTAYMTYYZi3x5U2nCHyfVVpfa2oOGwyGN63HSmWlEHdo8v9VckPniyYiBoMRY4NhVrDyZuz5gdZrJfwdQp5qImIwGA4qWq1Q8H+3ZLffYeoiGwxGjA2GQ5LuH9VWRAKRvxRa/5UQstFExGAwvK1+rFWXFuJ/ktnkjxs+2TdsImIwGDE2GN5xhn/assSyrL9F8WfSImwiYjAY/pQolxSS21zX/X7Fx9vXmYgYDEaMDYY/OSO3tJwhpPyi0OIKKZEmIgaD4R0VZIXSQt+vlfp2+cfanzMRMRiMGBsMbys33oj4h7a2q9DiC5bkdBMRg8FwKOIqnkfof//etm33mHJvBoMRY4PhoLLyZuwFgfl/poX7eYlcYiJiMBhmAwq1TmjrO5uzW24zC/UMBiPGBsNbovO79cGS8vBfIvkHAU0mIgaDYTaioRPF9+IjqR83fa4nYyJiMBgxNhj2m+4f1YaiwcintBafl1BnImIwGA4HFPQKob+TyCRvbvhkX9pExGAwYmwwzEjvd2rC4YrQX2lpfU4iak1EDAbD4SnIuk8o97up4fT/1H2+P2UiYjAYMTYYpgox9uelpMZExGAwHBGCrOgXON8xgmwwGDE2GLwc4rLQX2shvmCE2GAwHNGCrPW/x0fTPzQ5yAYjxgbDEcbKm7Hn+9puEFJ/xXSpMxgMBg+tVZdW4l+35LctN1UsDEaMDYbDnBtvRHyurfV9Ush/ARaYiBgMBsO0bFZaffW727b/ztRBNhgxNhgOQ+K3tl4G3CSkPN5Ew2AwGN4YrdQrwI0lH93+oImGwYixwXA4CPHyplO08P27RJxtomEwGAwHjkI/LXT+CyU3dL5oomEwYmwwzEJGl8+dK4Xvm1pxvZRIExGDwWB4C3KsUELyW6XzXy67oaPDRMRgxNhgmAWM/Ki52ApYX9KIv5MQMhExGAyGgyjIkBbo/+tm3W+Vf3LHmImIwYixwXAI8vjXsI5vnfeXuHzNlF4zGAyGt1mQFf1Y/PMr27f++Px/xjURMRgxNhgOEeK3tl6m4btSyqNMNAyHEv5jPoC780Xcke0mGIbDVJDVegGfMwv0DEaMDYZ3mNhPGtq0HfxPS4grTTQMh9Tgagexms9CljRBJo7btwZ3eIsJjOGwxdX6XuFk/r70E93bTDQMsxWzIMkwK+n9Tk04vrztX/AFXjdSbDgk0QqdHgU0OjcO+aSJieGwxhLiSnyB1+PL2/6l9zs1YRMRw2zEzBgbZh2x5a3XC/iO6VhnOOQHWGnhW/ZhVPdKnP7XTUAMR851oVZdGj5fesP235poGIwYGwxvA8O3tiy1pfVfAs4z0TAc6siiOqzWCxG+AELYqMGN5Hc8aQJjOLIEGZ5wlPvZio+2mytDgxFjg+Fg0PudmnCosujroP5OCukzETHMBnyL3gXhaoSUCGEjEGRf/Tk6nzLBMRxRKK3yIP9vemj863Wf7zdfAMMhjckxNhzSxH/acnmkqmidFHzeSLFhViH2Gl6FmHqbwXAkiIaQPin4fKSqaF38py2Xm4gYDumh24TAcCgy+NPGOr/l+74Q8joTDcOslIHSuVgt5yMsCyFsdLyT3OYHTGAMRzxaq9/n3PzfVn28q9dEw2DE2GDYBzfeiPhca8tfS2ndBJSaiBhmtRxHqrHKW9CZMZzBDSYgBsMEMaXcG7+7vf2HN92ENuEwGDE2GPZi+NaWpT4hfoKQp5poGGa9FFfOx6o+GmfDXVhzTkUGouS2PmICYzDsiVYr8lp/wizOMxwyY7cJgeGdZuXN2LFb5/+TJcVKI8WGwwVhBSBYCkIggqUQKDJBMRimfFHkqZYUK2O3zv+nlTdjm4AYjBgbjmhGf9q0bEGw9SUp9U0SGTQRMRgMhiNNRGRQSn3TgmDrS6M/bVpmImIwYmw44tj8ffzx5W3/Imz7RYE8zkTEMFvxFte9+aFU2H4TRIMBEMjjhG2/GF/e9i+bv4/5YhiMGBuODOK3zD25uqT1FSHEVyTSDH6G2Tl4hkuw5ixDRGvQWk26zwqVIsOVewlwCKu0aapE+0JYc07AKm82QTWY7xXSL4T4SnVJ6yvxW+aebCJi+NNfoBkMfyJe/yq+xpa2f9FafE5Kk0tmmKWDpu1HNByDCJeh2legM+Pe7ZYPWbMEWdEGvkhh3kHivPpz7LZLsMqaUVqh8yl0vAPVvwaVihVsQGLNOQkRjKK6X0Ulh02gDUc8SuEIob/b1b7tq0v/hbyJiMGIseGwYfinLUtsW/zSpE0YZjMyWgENx4LW6O3Po50sAFblPETtUoQvDNLGKz41gxi7OcAF7aJHd6C6XkS53jnfaliGKJuDHtyC27/JBNxgADRqtePoD1V8vH2diYbh7cYyITC8ndx4I+LejzT/g7DsX0tEo4mIYfbZsICSOkTNfERliyfF7Z4UCyGxmk9FVMwDy0YIa4/udgIQqL41yPJ5yFApGg3aBTQIkMFSKGtGJ/rAyaDH+5DhEiidgyipQfgD6GwClGs+B8MRi0DUCSlv+PJVxRn76NiKp582MTG8ncebwfA2MfLTuU2W7fuZgPNMNAyzb3QUUFYHFY1gBRFaIKQFHau8FAghsFvPglCF91hpIaRv/2eMUQitUShwsrjbnkCnRhBSItvORvuDgEI5ORjvhYF2cHLmczEc0Wh4wnXyHyn/eEeniYbhbZkLMSEwvB3El8//C9v2rTFSbJiVREqgZRlUt0AuDaqwuC7WvTsv2G46AcJlB2kktrHmnoawfGilUN2r2d0LLDMO0WpoPRFROcd8NoYj+3oVzrNt35r48vl/YaJhMGJsOOQZ+VFzcfzWeb8RQv8M09LZMBupqIe6+WD7IdbnnYqlBOWi+7d4J+fSOiipP7ivawcQDcsA0Kk4jPd7tweLYGCr9/fyOdC4GCyTBWc4oikVQv8sfuu834z8qLnYhMNgxNhwSBJf3nSK7ZOrheR6Ew3DrKR6DpTVeDI8PgSpMQh551091ocu5PqKmsXsXybarmlftX8DcnEdMuRdT+qBzRPDdLQSejd62wsWwZxFRo4NRzxCcr3tk6vjy5tOMdEwGDE2HDLceCMi9rO2L2vsZ5Cy1UTEMCspr4GiCu/v+TT0bYfKwnpRrWGkyzsZlzeCHdovKXZ7ViEAp+sFcLP7caYXyNpF3rOzSS+NAiBSBrksjPR4//YHoH6+l9tsMBzRFiNbNfYzsZ+1ffnGG826KYMRY8M7TP/ypprPt7U9LBH/JoX0mYgYZiXhCJRV7vJZ6Nvmyag/NCHK+YznrqX7l+erBjeghzZjL30fVnEd+c33g9qPxXORCoTlfZV0Ymji9opG9FAX5JLevwMhqDaFXgwGKaRPIv7t821tDw/c3FhrImIwYmx4R4gtb7okoP1rhBAXmWgYZi1CoKvq2Z0aMT4C2TSUVE08Jj3mPVRaECh6Yyke2Y7qeQV74RXgj2A1nY2wQzhbHgH9BmkVQiJKG7y/x/v3EOZSbxcH9liMHy2BUMR8hgYDIIS4yO8PvBpb3nSJiYbBiLHhT8Zvr0HGl8+7Ce1/QEpqTEQMswbf1IaLurwSCjO0XspEIV0hVDRFjCmq2qNO8QzEu1Edz2PPvxQCJbtl12q7ELSL2/HMROrxTCf4Ik/KdWasUPcYrwxcuATS45BN7bH/03wFpQDb5CAbjkCpkdSg/Q/El8+76bfXGMcxHDimLa/hgOhf3lQTFP5fCzjPpDcaZhs6HETEE5NvjO6xqD2bAicP/iDIPcRyV9vnYMmuLXkNOXJZcLLec1QW7TiowY1YredAuHKy7Eof9rxLya/5BUo7ECpDWH6w/Wjb76VPWD5Pav3RiSc6OfB54i7Cpehk3JvVrijMKvsDEApBOj3xPqMRxFjCfOCGI1WOJfBPl1497/T+q3IfqLmhs99ExWDE2HDQGbml+WyprV8LQb2JhmF2mrFAR8KIpDfjqiNFkwU4XZDJ0B6y7Oa9WsYA8W6I70Rlk2jbhwyUgC9c+BNCRIqw7GNQPa9iRevBCk56eTW4DhEqR5S1gpNGO2lIj6Jz4+jcOCqbQvr8CP8es9X5FPgKQh4spE2Mj0D5xNdQF5UhdomxlOhAEIERY8ORjYDzAtr3ysgtzR8o/9gO0y/PYMTYcPAYXT7v8wL1DSmEWWBnmL0nykwat6ICqyDGRKKTH5AqVIFwczDUCam4N4scKkGESyBYCoEo0l+EcDIQ24moPgqkb1LnO+HmcdufwGq9xKuBDLjDm1ED67AWXQ22D1DIXZ3vhrdBPo1d0Qz5JDo7joyUQSaO6lnnVZ+IloFVGLIdxxN2q/BLcXCiSoYqKQbXMR+2wQBIKerR8tHR5fP+qeyGrd8xETEYMTa8JWI/qS/TdujnluBKk5JumPXkHG9GtSiCGE+i/QFvyZ1yIZvwJFgI7992AEpqobgarABoURBTG4SFjnejBrdhl88D/+TrRVl/Au6Op1A7n8eaezY62YPb+QzW4veAHcRrCT2BGt4K2TGsimbwh73XjpQDykvTGOvxco3Tca9+sevC2BAUlXribVmebCsXolHE0JD5rA2GXd9Hr2LSv48ubztLOOm/KP1Ez6iJimHGCRQTAsNMjNwy9xhbWHea2sSGwwlVU42wfYjubnTdHEQyAckxCBd7JdrCxSD9Xm7vjjVQ2QSVLQgtELvFWHozxskRELZXzs3JgZtG53MIN4PO51BOBqtqIXpkG1qD9Ie9bftCnvz6Q54oC8AKIEIlYEm0ctEoQKGSo7BjJVQ3I0prvSYj2XFIjsLYiLegsLgMxuPocAgdDiG7dnoLCQ0Gw14DgNruaPea8o91vGaCYTBibNhvYrfMvU4K61akjJpoGA4ndGkxFJchYqOQyUBxGTpcjPAFAKtQdcL2hsd4n9d1DonIphCZhJfekB6bJJ5CCIQ/4uUZ24GC7EoQPk+mlQsqj3azkM+BmwIng5vLTNk/6QsiwuXocDGEilHSD/GdUFSOsP1orQDHe32Vg0TMS/lIp1FzGiGXQfb2mQ/aYJhZjhNKux8t/VjH700wDEaMDfvkxhsRn5/X9g2txBcLK3sNhsMLvx9dW4dGgLCR/Ts9WW0+akKM8w5kEp5wJmOgvNrDwvIjImUQLEaEShD+KNhhT4T3yDH2yrFJT6ilRAgbISRKK7Sbw0ulUAjtovIpdC7pzQJn45COo9MjqD2lOVwEkXJEqAjtD4FwC6XlumF0EN3YgkaD1IixMcTIiPmcDYZ9ujFKSP3t72zd9k833YT5ecVgxNgwldHlc0sQ9m0W4goTDcPhjJ4zB235QFjI+Kg3FEZLIZXwKj7kCh3qgiGIVnil1QJFCH+YXTnG0ioIsJZeXvKbEuPC4rvCjPKu27Vy0U4GcuOo5IiXNpEa9WRYWlBc6jX80Arig+jKWrQAcJB9PZDJmQ/ZYNgPXPT9aOfPym7oiJtoGIwYG3YzdEvjYr8VuAtYYKJhmLVIUVg8p/bZRENXVnql2lyNTKdgLObNGstC9YdImddMwxeaENw9c4wB6ebQubRXyi2fKeQZZzyhVQ44OZR2EVojRGG/LD/CCoDt90q5+UOFxXYhhB0EXwBsC63URI6x4+ClTjiIdAydHIXEEOTy3sK7ohJ0pBjt94GbRXZ1vXGMEIACZQ4ZgwHYnHOz7678WNcGEwqDEWMD8Z82Xymk/CVSlphoGGYlts+TRNfxKja8EX6f1zQjWahCES2GojIIFnkzvtje9qQNSkM2jcgkEdkEOh1D79F5buqoKpCWrzB77PO2rxVa5UG5KCe7b2+1fV4jj1AphIpQdsirOoFCaGcixzibgsSItwDPcQrvyQ/J5H7GzPben5sD1xiy4QhHqbhW6kMlH99xrwmGEWPDkSzFtzb/g5b2tyWY/rGG2YevMMuaT0E+f8BP1yVlUOq1hBZC4n0NpDd7nBqHVMxrB73H7LOQFiJc4nXBCxSBLwJ2BOEPIXzBQlMPwcypFFlwM4WOeWl0PoHOJnbnF6t0zKs8MUnkgxCtQISL0YEwSO2lVWjHE+7UOKK/+63FMJs09Y8NR7YbgyuU88WSj+74nomGEWPDEcbKm7HnB+b9UAo+YaJhmHUDly+ACBajsinIJd/0dnRJKZRXAxYil4FEwpuF3XPWORSBSAUiWIoIFXtd7oTv7csx1gqdT6KzY5AeRSWGvUWAu6pgCAGRYi/lIxTyXiqTQPR2vbWYhrzKHDoxMlXMDYYjSZA1P9mS3frXJ30Kc6VoxNhwJBD7SX2ZsMK3C8n5JhqGWTVgSYkoroN82luU9laREkrKIB7z5BS8dISicgiXQqgELD9TcoyFhZQS8llPdPN5cHMIlUcrx0ttUIU/wsvpFdJCi0L6gu2lWgjbj7YDYPm8P9LL/Z1Ux9hxQOcgM4ZIjaDHhyGbnhjBo8WeyKeSByXGsti7UFBjveaAMxyxaMXj2k291zQDMWJsOMyJ/7h5vrKtey0pFppoGGYTVkkd2vKhRnd61RhmNDtRWFum2e8iTP6CDEdKvQVxe+YYI0FpRDaDyKe8smqpMXRmvJDve/CQ/hAiVAahYnSwCAJhFBbgMCnH2ElDMu7NbqcSBzbiC+nFbx+xEbYfUdqASI/hJofNwWc4InGV3iQd98qSv9yxxUTDiLHhMGT0p03nWrbvdhAVJhqG2YIMFiFK56BjO1GZ8X2Ys+W1bHbyu+sOvyHRInRJBQTCEznGwkuBIJeBdCHPODn2zgXAFyzMYJcggmG0KIjyrhzjfAaRjMPwwAFcZRRilc/ts0OeLKrymo0Mt6McUwLOcCSih10n/96yj3c+aWJhxNhwGBG/pe1D2tI/lUi/iYZhdoxOAlm1EKHyuEPb9mHOFoSiXsm0XPbATnmlFVBWAcJGaA2ZNCTGJjX1OOQIRqC4HEJFhdJuDuRSiO6ON7GtsFc5Ix2fcQZZSAtZvQCyKdzRDnNcGo44FConXPHxko9t+6WJhhFjw2FA7GdtX0aJm0wnO8OsGZjCZcjK+eiBjajMPmZri2u8PN7Em/y537bRVbWIxBgkxvc5ezrJxf0hCFchQuWIUAVEqpCBIpA+hNhV4MX1hlgh0dICUcgjRhcW1o2gc2OQHUdnx9CZuLfYLhPf7/0gEPKafeSzEHuTOddCQFGVl2O9jzjK4lpEyRxU3+vofMYcpIYjS44VCqlvLP3Itm+aaBgxNsxSfnsN8tKrWv9LCPk3JhqG2YJduxRt+XF7Vs8oiDJaCeFi1EiXlzoxo80VKka4b77KgvAFkSUNEK33RDhY7DXkkD6vFbQvCoFipBTokUHU0Cg6mUSnM2jHQSiBsiwvb7eoGCIRZEQighrtprw6wtoFNAiBQKBzCVRqBD3WA2M7Uem32JTLZ3sLAveVVxyIIErq0GP96BlSVoTtx2o4HjXWgxrtNAer4YhDa/X/Hrpn+2evv9O0xzFibJhVdH63PlhcHrpNSvEeEw3DbEDaQaymU1GjO3BHd0z/GF8IquZBcgAV7595Y5YNkSKvekP2wGY3hZCI0kZERRuyYh4iUAJOFu1kQTmo3nHcjhhu1xjOzjHUSBqddiDngC0QtvQqtaG9RW6ORudddNZFp3Ko8Qw65yCCPqz6YqzqKLIqglUdRtYUYc+twGquRgUjICxwUpAYRI91e3/i3W9uxjYU9TruJUb3nVdc2Qx2CD2wecaybXb9MWCHcbteOugLEA2GQx2l9B/GRtJ/1vS5HvPTiRFjw2wg/oO6clUUuduCM000DLNCiovrsGqPxel4Dp2dfrbSqp6PDhahu9ei3fzMQlxW583Cxvr3uyqFkBairAlR1owoboRQKfjCSAfya9pxNnbj7hjC6RxBxzKoZA6dzKJdjQwHEEUhRDiACFj7L8Z+GxH1I8M+CNgIvwTLQkgBlkSUF2E1lGO3lmIvrkBENKg8WrteTvDYTtRw+4FJsrSgrMb7+0jvjIIsgkXIuqNgdCdubPrGIbKkAVlzNO4+PjOD4XDFhWflePLqks/0jphoGDE2HMKM/HRuk7DthyzEYhMNw2zAqluGDFfgtD/lLSTbW8BCJcj6Y1DxbtTQ9hmET0Jlk1eDeGCHV21hfzyxqBpROR8RrfHqFUsbNZAjv2YAZ8sIamAMHBdcF51z0DkHMs7bL8YIryJdXqEzOXQqhywPYh9dhf/kOuyF5d57tmxIjaAGNqGHO/Z/9jYUhfI5XuOQ0RnqFQuB1XAMwg6hdq6etpW1CBRhtZyH7nsVN2ZSKwxHmhzrDdpxLi3/eIc5+I0YGw5Fhn4yd5HPth4RQjaaaBgO+cFHSqyW8yGfwOlcMb241hyFLJ2D6nxx5jzbsnrvz3AHxAf343UtRPUCZPVCsCOg8qiBFNlnusi/2o8eyyECPvD5ELblye0hIMY6mUGlHIQUWI1F+E6bQ+D0uViL6sAfQGcS6J61MLAJlUvv3+hfOReiFTDQDsnp+xjIkgZk3VJU3zpUbOfUzVg2VtvFkOjD6XnFHNiGIwqtVVfecS+u/ETHRhMNI8aGQ4jYrc0nSuSDSFlpomE45AceXwjf/MtQw5tx+l+fer8/jGw+HZHP4nY+j55m8ZwIFaNrF4OTgd71+16EB0jbh6hbiphzvNe4I50i+9wO0g9sxlk7gIj4sCJ+RMi/W4ytoiKKv/AVYl/53CElxiLqQ4f9iJCNNacE/6kt+M9qAb+CXAJGO7wc4fR+1F8ORqDuKEQ+B/0b0flpZob9EazmM9CZOGrny1Nzj4XA13YhKAen/Un0/lbVMBgOB5QaUqjLSj+642UTDCPGhkMAr3GHfTfIYhMNwyE/6ARL8S24HHfnCtyRqakRVlkTovFk9OBm3N7XpjFciaxdDMXVqL5NEOvZ9+tZPkTtYmTNIgiXoBOQfngd6T9uwu0Zg0Tea5YX9U8R48i11yN8PpK/+cWbEmP/8ScifCF0KoUaS6LHkuR37MTp2HnQxJiAD/w22m9hLygndHY9Vq2/UMZuEN23ccYqE3ueCUTVPER5Iwx1TJuyIoREzj0NES5D7XgOlZo6w2w3n4kIVuBsvn/atBiD4TC24zHXca42jUCMGBveaSle3na1EOLXEkImGoZDfsCJ1uCfdzFO+5O48a6pYtV4MqKyDbXjOdxpyoHJaBXULwUng+5ave+FZ0Iiq+dDRQvCH0EnNcnHOsm+1IMeT6NTOUjmZhRjEQxS9On/Q+L/fQ/tOG96xrjytnvIb1jH2De/gYiUELrmWvxLljDy2b/HHe5Fhn3YbS34lx2HO9SP29mOiscPWIyVFKBctOtizYkQvrgRX0sRoNHjA+ie9V4TlH0gw6Uw5zhwHfTO1ejs1HbTdv3RiOqjUDtX4Q5tnXr/nJMQpc04G+/xKnkYDEeKGkNaa/2Bshu23W2iMXuxTAhmL/FbWz+M4H+lEAETDcOhjiyux267GHf747hjk3NVhe3DnncxsqgWZ+sfUWN9k+8XEqtxGaJmIcR3orpWezOiM71WWQNi7klQVIVKKZL3tZO4axNOZxzyClwFedf7k1MIAcJvIf0WwmchbAtZUkp+7WqEJfEffzKhK69FJxK4Pb3oXc/VIHy2J9I+G2FLb8Z395SDJvLBj+Bs20r6gftxe/vJPPQoRX/z1/iWLCb90IMIn4VKJQhdejlFf/0PuNu24Pb1oB0XgSB4zgWowSHU2Dg6rxBCIPwW+CyET4JtgSXRQhTaRCvc4TSZ53vJbY7ha4hiVVegK1u9xXrJEWYq16HzGYh1IYpqkHVHIYVAJyc3/VDjA4hcCtl0BiIQRe91gaPGepB2AKvxdHSsHdy8OfgNR8aFP/hAX/vlq8s6vnX36BoTkVl6rjIhmK1SPO+zGrlcCukz0TDMBim2Wi/AbX8cd2xy+S8ZLMFefA3SFya/8d4pIiZDJVgLzveaT+xcjerdMPML+cPI+WfCnGMBH8kHdzDyvVfIrO5DO/tXsUEIgW/+IgJnnEPgtLPwn3w6TucOrMoqAmecfeBv3udH71ElQ2uNOziI3TR5jaw9tw01OkzmmcfQhdbWWimslhaqHnyEyIc/jFVddUAvnds4wsCNKxj90euo8TzUHwVLL4WimZciaNdF7XgRBrchahZjt52FtCd3kndH2nG3/hFZ3oa96EqEZU+63+lZjRrejL3wXQh/xHwBDEfOWCekTyOXx2+d91kTDSPGhj8Ro8vnfV5Ivm9aPBtmhxTXYrdegOp4BhWfPFMsi+qwFl0NTpb8xvvQudTk+yvakG3ngZCorU+j4r0zv1D1PFh8IUTKyLw2xMA3XiL5dI83u3sABM45n7Lv/oDAKaeTfuR+Mk8+ituzk7H/+218i446oG0J2wYp0bkJMZbRCHZrC7l16yeLcXMrbkf71PiFIyAlqd/9DnfAq7rhX7aM0EWXIMPh/dqP5COd9P3N4yQe2g6BYlh0LjQeA9bMPxq6/RtRHS9CqBi54GIvjWUP1Hgfzqb7EIES7MXvRfon74vb+yp6eCv2gssRvrD5IhiOnDFPIoXk+6PL533eRMOIseFtJnZL2z9agn83kTDMigEmUondegHuzpemdLOzKuZhL7gc0iM4m+5Du3vUHhYC2XQKsuF4yMRwtzyByiSmfxFfEBaeC00nohIOw//vVYZ/UpghfRNknnyM3No1+JYc44kt4F96LCo2SuqO3yDE/i/NEH4vy8mqqyd43gVErr+e8pt/SPbJpxn7xrcm4lRSiigtw9kxzaK3aBTyeXRmIj849+qr2HMasee27Pe+qGSe2M/WMvivT+N0jnml2uadBtGymZ8T78Pd+jQoF9lyllfibg90ahRn4z1g2dhHXYcMTd6W0/MKerwbe+GlCNtkfBmOLCzBv8duaftHEwkjxoa3ifitbV+XlviGiYRhVgwuwWLstgtwB9bhDm2afMKoPQar9QJIDOBsfmBS+S9h+7EWXIosb4F4F862p2budFdSA0edDyV1pF7spvvvHiO18o073gmfj+L3/xnh88+f9v7cKysRwSD2Aq9Pjv/k07Eb5pB55qkDK0Xm91IQ3Pbt5Fa9TPqBBxj6879g+K8+gzs0tPthdkubJ5LTzBiLcAQ1NrmGc/jKq0jdfw+5DesO+HPJt8cY+M6LjD/QDnYQGo+GmjaYQfh1Zhx362OQGUPWHYs999RJj9XZMZyNdwMK31HXIKPVk+W443nIjmMtuAQhzbIWwxE2DlriG/Fb275uImHE2HCwpXj5vJuEFF8zkTDMBoTtR7adjzveg9vz6mQprluG3XQmJPrIb75/Urc2GSjCt/hdiHAFenAzTseK6dsWCwF1C6D5BFA2wze/TN+/Po07tn8d74LHn4gsLib1+OPTi/Fqrxyp/+hlCJ8fq6kZ37ITDjwOhRljlUqixuKo8enLptktrQWJnDpjLCMR9NhEPWLfvHmo8XHcgYHdtwWOP5mKf/w3Kr50E0VXX0/oxFP3uV/aVYw/1sXA/6zDGc5CeT00L4O9col3P97J4W59HJ3oh/IW7PkXTcor1tlx8hvuAtfBt/BqZFHNZDne9pj3XuZdYL4chiNvPJTia/Hl824ykTBibDhIxG6d9x0h+CcTCcPsOAlIrNbzIJ9C7Xh2shTXHovdeBo6OUB+032TpThSib3oCrQvgu5djds9Qxc1y4a5x0J5I05Pgp6vP0/84W1vuF+BBUcRXHYiAOkXX8AdHZ3xsU77NnRslOBFlxE872Lyr63GXxBjq7IKq3L/+uiIQKAgjvsuW2a3tIHWOJ07pm4jEkEVxFj4fATOPoPMk0/svr/4439D+de/Q37HVoa/dSPjd/8Wd3iQkvd/6A33L9+TYvDHm0m9Mgz+MLQcB+GS6eVYK9xtT0GsExGt9hbW+YKT5XjTPaAdfAuuQEYn5FgrhbvlEfAXYTefbr4khiNvXBT8U+zWed8xkTBibHirUvyztv+Qks+ZSBhmzaAy93TwBXG3T047sKoWIRtPQ2fiOBvvmpQ+IYtqsedfCrYftXMlbt+6GUQzgmg5HkLFJF8ZpPd7q8n37Lt5hV1TR8Xff4XKr/w7uU3egje7uga3r3efz8uteQVZVkH2+adI/eE3uF0d3nMXLCR46aX7FwxfYQY2ve8WzXZzK6q/F51JTyPG0d1iHL7uPaR+f8fu+yJXvYfIez9I5rknGfvVrRP73r4NX9t8AgsWvuEuqpzL6L07Gb2rC4QFc4+Gstp9XDQ8hx7eDsFSryLFHlUnVDpGftO93uc971JkuGJCjvMZVPtT6JIGrNol5otiOPLGRsnnYj9r+w8TCSPGhjcvxd+WiL83kTDMmgGl7mhEtBq147lJzR2s0rnIpjMgn8bZeBfKnahBLIsbsOddDNLC7XgRd2Dj9BuPlHrSZvuJPdzN8O/a0dn9qDihFOkXn0GWlFL0ng8AEDj6WDKrV+1bjFevAinxHX0cAIlf3OIJXipJ4NRT3/BlRTCEr5CjLMJhZEnJPsV4uoV3MJFK4T/2WJxNm1HjiULciin6y8+gkwniN//nNDsgCZ974X5/dok1o/T/eAs6q6BhEVTPnVmOO55Hj2wBfxHWoquRe8pxcoj81kcQ0sKafwkiUDQhx8kh6F2DqFqELGkwXxjDEShd4u9jP2v7tomEEWPDARJfPu8bEvEFEwnDrBlMShqQlfNR/etQyaE9xK4Cq+Vc0C7O5vtQe5Rkk8UN2G0XgZS4O1+cskhvN8VV0LgEtGTw1+3En+ufPvd4Ookb7Cf1/JPkNq2j6Jr3Y5VXYFVUoVOpfYvxGk+c/ccev5fF+vCfdNLuihUzks+TX7ua0b/5KLnXXkVEptbzFX4/4auuQUQiuIMDiGnKp4lwBO042PPnk121evft4cuvREQiJH5/Gyoem/K8wNJjscrKD+gzzHSn2fmf63FGc1A/HxoWzBzXHc+hR7Yj/BHsRe9G+ieab6r4TpzOZ8EKYM+/BLFH7rI7sBk93otsPAG5hzQbDEeQHH8hvnyeWUhvxNiwv8Rubf2qEJgSL4ZZg/CHkY3HQWoYNTAht9Ifwp53IUgLteNpdGqieYeM1mDPuwSkjbtz1cwzxaU10HgUOqvoXb6V1Oaxfe6Lv7kFX8Ocqd+rn/0QEQhS8ucfJXr1tdTdfjfRa987o+C6Q4O43V27c4tlcQnBc84ncNrpJH/5S0QwuM/90K6D092Fs30r+Q3rcHt6pj4mlyN1z50MvvsSsk8/hqycXNFB2Db4/dhz55K+667J4nvyKZDNkrr3D1O2G1y6DLuuHndo4IA/SyeWZ+e3XyPXnUTXtMGcRTM/tv1JdGwH+KPYi65B7lGSTQ1tRg9ugEAR1ryLJ5W5U50vgZtHNp+CEOY0ZDgCx0zBP8Zubf2qicShh6mdc8hJcduXpJRm9aphFo3wYLWdiZB+1Pand+cOCyGxF1yC8BfjDryO2z+RNyxCZfgWXQnSh9u/Brd39T6lWCXz9P5kE/mBrNdtWYNQgKvB0eicItjcQtl7rqHyox+n9Or3kHj4XtAuQgqEELiDAwTaFhI++3yS99+Nr6GRyLuvIXrN1ZDJ4LRvQ1hid0toEQrhP/o4ZGUluA6yqITcqpfJPvEE2edeQCfT+2wJHZ5fhX/ZPHxHt+Jrq8Bf7EMPjuMmcuAqhCURhRbU2s2jhvvRqWRBIEVh236Cp55J7MZ/xO0fnNQSOnrDR8mtX0v6iUemtIQu/evP4Zszl9H/+S/y3b3onPIq2PmtQjtpibCENzVS8FWtdz8dlXGJP91LZGkFVn0FQkoYH5n2I1Kj7YiiOmS0GlnahBrauHs2X43txCquQ0SrEYEiVKyz8GIKMjFEZSsiEEbHe833yHAEyrE474tXlWW/dffosyYaRowN0xC/tfkfpLRM8w7DrELWL0WW1KN2vopKTsiTNfdUZHEDKtGP2/7MxMnAF8K3+D0IXxA9shWnY4ZzQkklunUZejxP9/9swInlELs8bi8xDrYswC4pJf7gAyQevAd3eICiS64g8+rK3WIshCC/fRvRy69BjcUZ+MuPkl+/kcBRS4l84HrCV18NuRzkc5BJIauqcda/RvJ/b8HZtB6nfTs6lQZHed308u60YhyoCxG8tBU5rx5ZWYZVFEUU+RA1YawlZUjpkt8enyTG2LtEVU4SY7J5Urf/DjU0AnlnkhiHLrmY7Csvkd+ycZIYB446mpIb/obchnWM/uSH6Lw6YDHWrkZlXGJPdBM5phxfdbFXDSQRm/aj0qPbkGUtiFAFIlqDGtq8x9V+B7JiPiJaBW7WyzMGdC6F8AURZY2QHUdnE+bLZDiyZhQQCCkv/NK7yxPfumvkBROTQ+ScZkJwaBBb3vZpIe3vmkgYZtXQHi6F8rmQGESNdk4MLBWtyLJmdD6Nu/3JPWZIJL6F70L4o+jEAM726esIEy1BtxyDyrh0/dfrOLF91ycuOuccEi++tPvfieeeYvTWH055XL5rB8k/PkDozHPwH30sqUceofdd72boIx/D7e4h/N7rsZvmoh0Ht78Pp7vrgOLhq/NjnVcN4QBCWsiiqsLFQAAZKQNLYJ1YReiK+rcc+/QTj0Pemfx5+AOUfeZL4LqMfP+tr+9RSYcdX19FtisJJVVQ3TS9GCuX/Kb7IJ9CFjfiaz57Yhtu3jsGtIusPw4ZnuiOp3rWQj6NqF86KQ/ZYDhcRRghC3/E7kY5QojvxpYv/LSJkRFjQ4H4LW0fQovvm0gYZtc4LxCNy0Ap3M6JCg8iWISsPx7QqI69qlO0XYgIV6FzCZzN903fRS4UhqYlaAe6vvcazui+awD76xvwVVVNlTXXRUaiyEh08vftF7egs1nKPvt3u2/LPPUMgx/5C4Y+eB2ZZ5488FhYXqUz+7QikBJZ2kDg4v+D78Rrvbtr5hG84ov4j/IaXFiLi/AtCr+lETh19x+QFRXIULgg3z7K/89XsOvmMPydr5M9wK54vqrpS7S543nav72OfH/Gk+OKuunlOJfE2fZHT4CrFiOrJ0qyqUQ/un89CAvZctbuvGKtFap7DUgb0XCM+U4ZjggRnnT/xJ/vx382/0Mmbu88JpXiHWbk1rarhNS3SSlsEw3DrLqqrl8M0WoY3I4e798ty3br2eCPoEe24w5OLMSzao9B1hyL0C7OxrtR0/107vND42Kwg3T913qyO5NIS3i5v4LpUynyioav/ysqPoavuoriiy6k/CMfp+qzX6D0w5+k5No/RxYVk3nlRUCgE0mkP0j4wkuQoRB6NI4aGED4LWQhtUHYFliWl1tLIcfAVV5usNZYjQHsYyPYp5dgnx1BhCzsKj9WYwgZKiN00RcR4VJEIIzauR6rcQmyrAGrYQlqpBN3uB1KQe3M4f9wOdb8ELI2iAzbyLRCO97LojQ4hbSNvVIptC3Jr19D4ORTCZxwMtF3vx+VGGPkP/6V9CsrwdVoV+13KkXl+z9Gvr8XJxZDuxrtFJ6nNMrVpDaPU3x8KbKkCNwsZDNT5Tg7Dm4WWTIXUVQH4z3oXNKT4/FeRGkDIlCEDIRR8e6CUKcQoRIoqkLkU+jMuPlyGWa5CIv9EeFJjxdSCK151xeuqVjz7buGN5l4GjE+Ihm9teU8KeWdUoiAiYZhVp0CglFE/RLIZVA7J2aLZd1SREkD5DOo7U8V7M7rame1ng/CQnU9ixvrmGajAuYsgGCEnl/uYHz1CNInpxXjsguvwh0bQ8XHUakM7niKhq99ldIrryRy6ulIyyazdjXpFc+g4iNEL76S/LZNXmqEAhkIokbjjN18M/nN271t70OMrYDAWlSMdWI5vjPKkQuCiCo/IioRfoG7KotvcRBZFMCuOxpf04mwq0JDZhzZsAjh88qZCa3Jb30WHXBxX08jF4eQJT5kWQDREMY6qgS7tQhZFoCUixrLTivGFHKTnb5u8ts3k3r+STIvPosbG0ErfUBiXHzupVR/9LNETziVxMrncUZjk8QYW6DzikxXmpLjShDFxZBKgJOfKsfJAWSoFBEqR5TUo4c3w65mLuP9iIpWRLAE0qMTecWpEURZE0TL0CNd+12Kz2CYrSI88fiJ24WUFsJ69xevqXr+23cO7jAxfmcws5TvELGftJwkpbgLCJloGGYddUsAge7fuMt9EcFiZOV8ANTOl3a3exaWjd12AVpIdKwDp3+Gn/hr50IwxPAT/Yw82osVmX54Cs0/CpXLEl6yjHinN+s49MtfEr/vIfy1VTA2hEqPYQUspM9C2JLKfJ7AoqWkX3zec9VXV5F8+BFI7jt32W4tQc4vQlbYoPIoN48VqcKeewpO1xpyOwttq2MuFKq3Ob3rSN/zFWTlAqz6pZDP4O5YjU7HybevxBmaON+JMgtSCkrAV3M0dsOJuN0v44gOrKIwckEl9mgOd90I+WfbUSnnoH+UJRddRe1nbiTf30PHP32GwNx5pLdPf07OdKXpub2bhj9rgPoW6NgI7tQmK077E9hLKsEfxmo9H2fzQ540Z8dhYANUL0bOOR698SG0ctH5LGKkEyrnQu0i6FlnvmOGQ1CE2Ut+p7l/n48XkycCpnmshBCCu2I/O+rC0o+sX2ni/qfH5Bi/Awzd0rhYWuIBkMUmGoZZR0kdBKOQiqHH+icGk8bjQQh0vAc1PnG7NfdM8EUhn8Td/sfpt1leA9ESUtsSdN26fZ8vn96ynvhTDyMsC7t8ouVwvq+P9Lp1OCNTy4plX1uF0z9REkyNz/xzvbAl/hMbCH1gKfaZDYjqMMhdi2QkkYu+SnDZB4he+U3sqnkFgxYTFwjSQla2YtUuwqpuA62RVS3I2oXYTcciS/bI5XU1SIGMVBK54GsEFl9F+LyvIAITedGyJIDvtDmEP3smkeuXYVVGDtpHWXr5tdR+9ivkejrp+MLHyfX3MPb8U/t8zviGBIN/HERbEt3QOu1jtHJxtz0KykUU1WHVLp14y33r0NkxsALIhqMnPpOBLeDmoLgGAlHzPTMcAiK8vznCcobHy+m3MdPtu7csii3bfmDslqMWm8/BiPFhz+iPG5tty/dHpKw00TDMvnOFhKpW0BrdN9GQQ1a2IkJloBxU9x6pFaVNyNK5gMbd8TTanfrTO8EwuqwaN+HQ/oPtKGf6n9EDjS1Y4Qlhij/2ACUXXT7pMVZREcUXXzrluVZNHalnHtv3YGhL/GfMI/zR07BPbESEfdM8SCKCxbtPX7LYW4gmqyQUXNuqP4bAeZ/FXnw+oqyhINsBrIaj8J98PcFTP1AwQY0echERibAC3uo9AMuH9E/TEc5nYR/TQOSz5xO67mSs0rcmyGXXvJ+aT3+JXOc2ur70l+SHB/d/HFsRI7E+gQ6G0VXTL8ZTqSFU/1ovPnXLJrWGVt2vABpR2oQMl+yyafTANu8Yq1tkvmuGQ1+E91t4xRuJ8KT/Co+v1H77j6O/OLrZfDZGjA9b4j+oK8fvf1AiG0w0DLOSyrlg+dDJEXR6rODKFqJmoSc8g5vRjpeeICwfduMp3u2j21HxndOciwS6di4IQecvd5IbzU/7sr6KKqrf91F0fiL1QStFctWLRE8+dfdt7vg4vsZG6v75W9hVXhe5yBnnkXn5BVQqOePbCp7YQuQzF+I/rRURmDnDTLsOmZXLUYl+8tufIb9jhfc2Wn242719d7tfRfVPrJ1RA9txB7Z5/8hnyL74G+/vvQ6izoYAuGPdZF77DSrWSfa13+CO76PhhRTYC+uIfPx8Ihcu8+ogHyDl13+Iqr/6B7JbN9L5pU/ixEYObANa0//gAE48j66sg2B42oe5Pa9AJgbSxmqZKOGmE0Po8T7vp+P6YyduH+kCJwOhYohWmO+b4e2V4BllVeyfCM+4jTclwlMeL6XVYFv2g/GfLyg3n9mfDrP47k9E53frg/6yyIMW4ngTDcPsHC1sqF/szWx2v+797A3I+qOR0SpwMrgdL048vOkUZLQanCzOlke8zhF7+1VtEzoQZuSZEYaeGELnNSiwbIn0S6RP4ispZu6Xv0nRaedSdvG7QSsy2zZD3sUZHCJ6wqlkNm1BZ/MIS5Bbt4aSd7+H8o9/Gqu0jNTzT5Df2THROEPhVZjIu9jFYYr+/Cz8p7UhiyNYFY2QT6InykIACoEC5aK1wh3aQvb1u8i+9gSqM4HemkHvULj9QGOIfNhHcuc6ZNCbCR3etALHyeGLljPy2A/JDm5HOzmcBwcgJ5AZ0Erijm4g1/UEangLCAuB5S3I0YUTsxYIJMIO4Jt7LNLnR5QH8C1tQaRzOCPjuzt0TLf4TkQi4JNUfvwvqfzUZ8lsWMvOGz+Nmxzb5bqTGnzsvfhO+iTClmB7iyGVgnRXhpITytFFxYjRGWack4PIygUIf3hSgw9SI8iKFvAHIZPw8o+9Kx5PikNRGO023zvDwRPhvRe+zSjCb7xQbv9u3x8RfsPtVArhP/OvThe/+s9Hxh3zWRoxPiz47TXIJcfX/NaCi000DLOW6mYIl0IqBiNe4wth+xFzliGkhepZi07HPFmOVCAbjkcIC7f7ZVRiGmkKR9GVtWR7M+y8rRuVU9OKsRUMEHvsPnI72wktWELJ+VdQdsm7QSmymzeR2bCR0suvJL1mLcLyBC7xxEOM/f4XZF59CZ1J7e58t6cYh0+YT/g9pyOKg0h/gPClf4tv3unYDcfg7FhREPm9xHg8h7txnPzj/SQf7GP762Os7U7zwkiSp8ZiPLuuj3BLCWkpGdq5icGtrzHuakZjffRteprRxACjToZHHt/Bw+0jbE5m6enNktiRxbc1R6AjBzmN8NsQ9nmCvJcYh877BL5F52A3H48a3I5WWXzzG/FVl5Hv6EXnnWnFGJ9N7de/Rtmf/wXpV1+m+8a/xc2kZux890ZijBS4SRdcTXhBGUgQiam52zqfxgqWQKgMES6HoS3ewkw3j/BHEKFiCBajh3d4T8iMQWkdBAKQTUI2Zb57hoMjwnvff2iK8B67Wfi3FE3+4siS41Tf72/fiCnZYsR49nPLF1t/IIX4sImEYfaOFBaibqE3ZPRtgrzXdEM2HA2hUkQ+g9v1ysTDW8/xypOlR3E6V0xz3hKopnmAZOdt3eSGc2hHTyvGqDxCaLKd24g9cDvZjq2E5h9FyUXvouzKa9GOQ7a9AxkI4I4MY/kthE8ibem1Xd6jJTQIpM9H0bvPIHBsqye+SmGV1+NbcLq3a/4wTtcrhfq7nhCzc4z8832MPtnLq+sHeWJgjEfJsV667NQuMeWS0xonr9nx2gDFpSGiFaVIyw/SAu2AdogPxFhxz3p2bo2hgITW9DsOW9MZXo6Ns344QawniX97mnBnCpRGRANe+biCGAdPeZ+3TSHQ8X7csX6EZWGVFuGfPwe3bxg3npwixiqfJ/3aK4SWLKH7a59DZzOT6hiLQAiVz08rxmUXnAcoVDoxSYwRgnR3hqKjipFVpcixEXCmmdQa70FWLgDLj/BHULFCR8HUqDdrLG2Em0Wn44UDSELEqwPNaK/5/hmOLBHeM1+5kMohkYvbljRUfuuOngfM523EeFYTu7XtS1LKL5tIGGb1aaeyCcIlkEvDYLt3my+AqD8ahIXuXbdbamTlPER5C0II3B3PonNTZ/x0VS2Eixh+eoT46rGCiE0vxnvWMQbIdbYzev/tZLdtIzR/MSWXvYuiM84guGAB8fvu9WY2ZxBju7KEoveei11ZCqogvUpBbhy7fgEiWIQa3EZ++zPguKjtozhPdrLl5R4e3dbPIyMxtuVyjGk147SNUprOTQNsfbmdseExYgOjdG/YyauPrWHts9tJjs3cyS/tKnams7waG2PD0DiqK0Hp2iFkKocoiyAD3iyyVd2GTgyT2/gkWrkIy/JOyJbAv6AOcnny3SNT6hhr7ZBa9QKl73kfmY1r0ULjq6qm9tP/RK6vm/xg/xQx9lVVM/dLX6LiiqsYefButFSTxFhrSG1LUHpqBfiDiNjw1M9bK+9ziNZ6FSfGdnodEZULvqBX1zgYRY/s8J6QGYfSBoRlI7IJyGXMl9BwhIiwZKb8ZiHEyV9+T0P2m3d0P2uOASPGs5L48uY/B+sHQiBMNAyz9xwkEHXzQNowtAMy3iI22bAUgiWQz6J2rvYeKi2s5tNB+tCJPlT/+qnb8/nQc1rJj+bo/kMvOqenFWMraBNqacZfUYFKe7O3u04VWmty7dsZveN3ZDZsILhgMeETT8Dp7ye3ZeO0YhyYV0f08lORoSBCM1mMtYvTsRKn42Xy257F2TpA9pHtrF3TzV3bunlpJM5I3jmg3zBdx2W0b5T+9j6GuofIvEHN5L1JuS7bUmlWJ5NkuseoWNGJnc6jfDGc9hXk21eBdr0TZkGMtVIgNPbcKqyIn+zm3ikNPlAOuf4uKv78Y0ROOp3qv/wcg7f8J6kNa6ekUpSedR4Lb72VUFsbo488gF1RQap90yQxBnCSLjJoEWwuQuZn6IqXHESUtyIsHyJUhhoplOVLxxEVzWDZCDfvXWBpDYGwN2PsD0B8wHwPjQgf4iIs972dvXObZxThfe+jRp7/5ffWb//WHd2vmePi7cE0+HibGP1p07layFukMJU/DLOc0lpPipWzW1CE7YOiKk94RtonTiA1R4HlBzSq59VpN6dq5oAQ9D804OW+TkPl5e+i/mMfIzx/AVg2Kp1ifMWTDP5+ObmOyXWOx558nNH7Hqb4rHPJbpi+MURoaROhM49GWPuoOKEUbnsHuSc3sb0vxuPDowxkc+94+DNK8XwmxSsITn1mMyeu7CR83Yn4jmvb5/P8S5so9lvEbpuayuKMjjB6929p+Jf/oPumfyCzZfIFjPT7qf/Ml6i6/oPk+/vZ8NG/ILF2JTJoQWD66/yBB/soWVaEqKhGjse9C45JAdbogXWIhhMgVIosrkON9aKdLHqsD0pqobwRhgtdEYc6oKgCAmEIRnZfkBmOFBHmLTbTeDO3T4jwtK81Q1OOmSYUpt/nt7aPUiAV1i2jvzl5Z9n7X3rSHCsHHzNj/DYQ/3HzfOmzHxHIIhMNw6yn1pvlY3wIEl5ZL1HZhoiUg+ugu1YDGmHZWE0ne6kViUHU4Kap2woGceubSW1LMPT4kFf4wWXSjHHpSafgDPTR+/MfMfiH28h17yDY0kr0uFMpu+Q9qPE46c3rEAqvQYaj0TlFdss2dCY1Jcc4fHwLodMXez/LCwnIqTPGjkvumY0MP/Aa9/UO8tRonOQ0Hd3eSRxgh1RsdPOUbRkgMpzAbq5GBAOTZ4xRgAalEMUBfA2lZFd3obSe1BJaZ9PEHr4Tp1BNYtfiu0DTPFq+dzMlZ55D7InH2fiRj5LasW3axXe7T9oaVF7hjDsULY4i0Ij0NCk0qRFEWbP3WYRKUcOFMna5hNcS2rbRmXHIJcF1ENEysP1eRZTxEfNdPKxF+O2aEZYc2IywnP6xQrL/aREzNP84SGkXQghLauvKL11be+e37ugxXwwjxoc2sZ/Ul2nb/5gUotFEwzDrCRdBaZ23cK1vK7iON3bXL/VmX8f6dne/s+qXIiKVgEB3vojOp6dsTjV45dl6frsTd9yZVoyLjzue8RdfQPolQiiynVuJPXInzvAA0aNPoOiMC3AGe8ls2TRJjHE1whKTxDhyYjPB0xdiRcoItJ2BCERQiZFJYqyGE6RufZK1Gzq5IzXOQP7QroiUFrDOzZMaTlC/rQ9fbTmyoniSGPvqj8K/8JxC2kkc/9xS0mu6wSd3i7Ent4VzsRBorSm74r00fe272MWldH/vW3T86zdwUulJVSnCCxZScvIZpHZsniTGWmlSHSnKTipGFgWQibGps8aAlAIRrQHLB9m4V6bNySGKa8H2oS0/xHs8F5DeIjxsH8QGPHM3GBHep/DuW4TFlP8kbz0/+O0V4Wm3L0RYSHnxFy+uv+1b93abJPyDiEmlOIisvBlbWOHbpWShiYbhsKC0xvt/Po3OFkS3IDAAenBbQWBsb8YPID2CSk0ziREKoSMlxF+Lk+nPTJt476+qItTcTGzvmUalGHn4ThKrnqPxy9+h9pOfY/zJx3GzYzPuenBxHYFTvZbN4VM+hIh4DSN09neoIa/ZiNM+yOiPH+FxJ806+eZmiCvqy6hqqqa0ppyiimICoTCW34ebd8mmsyRGxxjpHqB3Sw9jI2MH5WPRwKpMmq6uPq6+42nqzj+ewEletzgZKiFw3DXeAF+3mPxAO3ZznpIPHEfsrrXTbq/k0vcQOf40oqedS3bHNjq++gUS6zZMekygrp6GT32aYHMLzvgo8VdfIL9XYxCtofvuAZr/vBpdVo4YnJob7A5uxqqcj7D8yJpFqIIEM7ID6o+CUAn4gpDPoOP9iMpGTx5KqmC0z3wnZ60Is5+pEQeaunAgaRFvfjtvV2rEW9u+XChK5O0rbz7ukpM+tdrUODZifOgxP9h2s4DzTSQMh8e5TELIywbS43tUGigtNG5Mj+2uOCFrFoL0ZFkNbJp2c6rcy0keemLmhVQ6n6f+gx9k+I7f4qZjU+7PDw3Q8eVPMvffbiZ64mnEH3l42u3455QSOW+BV1tXSESoZOJtBb33lF3TTt9vnuQeN8mA3P+ZyGhphHnHz6V+YQOVc6oIhIOFobQwmyMshNz1by8/QWkHoRXJsQS9W3ay6cWN9Gx562XIBvIOv+zq58rHVrEgliBw7jEg5WQtEN6/A/MrKbpkPslnO6ZsJ/7oPZRe/l5G77+dnv/+Ls741DQIZ3yMzu/+K67MI/2CsnMvYeTZP0553OiqMeqvKCNQXIQYGYa9U1K0hlgXVLRBsAhZVI0aH0DFupG1C7zjrrIFejeAUujUmPfLRXG5EePDWYTflvzg2S7CYh+P937psYR1/qLy4puBj5vj7uBgUikOEvHl8z8nBV80kTAcNpRUQrTUk72B7Z7g+AJQ1ebJVqzLa/YhQDaegJA+cLK4O1+Zuq1gAFVdx9iGJKOvxL0fBTVTUinc8TSVF11CzfveT/yFp1GZ5KRybQLAcch2bMNf20h6/etTUin8lWFKrz8OGfQXJFGic0msomrUcAf5bSvJPL+OHfc+z+3JcUbFG0uxELDwxGbOuu4kTr7iWOrn11NUXoxl+xFy4udNjSCfdbB99qSTmkYh0Pj9FmV15cw/sY35J7URDPsY2jmCctWb/pgcrdkYTxAaT1E5Oo41pwTyCYSQZDc+Qb5vS6HUhMKuj6JSOZzR9KRUCpQiufYVsp07yPZ2T9vgA+2A1NgVZdR/6FPUfuCTjD71AG46uTuVQrka19G4SUXp0RGwJCI1TYOOTBxZ2ea9tj+EHi3UNQ4Xgz/i5RWPdBbOUoV0CmlBYtRL5zEcYhK8r7SAfbVXPlRLp73dqRFyhu3PlN8sdovwnn92PU9IefwX3zc3+a3fdTxvjkcjxocEI7e2XSUkPymcZgyGw4OqOZ4IOzkYLvzcXdHkNfRAeG2htUKUNyHLGgGBGulAj/dP2ZSuqEIHw3T9rg83o2YUY53XpLZuY87HPkblldfgjI6Qad88SYwFIIMh1HiCfG/fJDGWPknFXxyHVRpGWBZIiRAWanyAfOeruP1bSb+4ie2PrOQPo6Ok9qMA29IzW7ngw6fQdvxcIqWRiROSkDh5l/72Qfq29ZKKJ3FdTaQkuseM8WQxZvfrafxBm5rWahafOg/Llgx0DL7pFFoNbBtP4UtmqBoZw6qC/M41OMOdoPRuMUZq7LnFOF1xVNaZ1ODDiY2SG+ifsfOdv6KM+o9+ktavfoeiZaeQeH0VOp8jtX3TJDFWjibVnqH6nBJk2IcYi0/dYeUgolUIfwjhC6Lj3V4nPDcPJXXeBU1mzKubnUtDWW3hjSpIjZvv5qEgwrOzvfJBEmHJwa5RPO17nUGEp32vggu+fF3zq9/8/Y5N5hg1YvyOMnRL42KfJR8QiJCJhuGwQUqonOMNwIk4JGPe7XULvJSJzDiMenm6suFYhN87/HXXSrSbn7wt20JV15DucRh6LubVFd6HGGe6e8h1tlNx6eWUnnMhxSedgTM8QL6/8HpCUHzmRYw//fiUxXclVy4gOL8KIeUkMRbC+39ubTs7/riaO/oGyb6Bhda1lnPJDacw7/hGfAFfocC+RCnYuamfVx5+lcGuYWpbqmlY2ERJdRmhaBghvdfLpXOM9g8z1DXAQGc/w10DxAZiJOJJ8pksUgpsv8SyLOrbqpl34lziA2OMDSfe9Me2I5nGn8pSFUvib61Bo6aIMRYE5kbJbBxGC96wJbQVjVL/qU8x79v/SfHJp5NYu4qO7/4jvbffSqCuEZVN4yQSk8RY5RTSJyheGAYNIpOZXq9K6rwDQQj0+IAnweWN3vFn2xDv93YqUub927IhPmi+n4eCCE83YzzrRfgNFvTNdDHwlmsUvwkR3mv7AimFlld86b31d3/z9q4hc9y+eUyO8Vsg9sOmUmn57wKKTTQMhxXR0sLgzu4SbQTC3qIoDSS9cVcEIhAqHP7ZcVR2mhJdxSUgJH2P7n+ThuGHHyLb3U7T332O4tPOpvlff4AzOkRm2ybcsRj9t/7XlOcE2koJHVMz4zad9l56HnuVO3v69ynFQgpOu2oRC09qQoiJuQPlajrXdvLyA2uZe3Qjp777ZELRqJeSgECjGewcoOO1djrW7WC0742rKIUiQRoW1DJnUT11bZVcdMMZrH9uCy/e++Zr9z8xECOg4RjLJnTB4unfY5Gf6FkNjD27c+p9lk2otZX0jk5qPvxn1N7wUaziYsZfWUnvrf+PsQ2rkH6BVVREzbV/Qfzl5+i+7eYp2+l7IkbDFaXooiJEbHTqcRHrgoZjQApEcR30vO5JcCYOkXLvuBLCuy0dh0DQW/Tp80M+Z76jb6sIc4jUEH7z25l24d5Mf/+T5x9PiPABvVfeYH8siqUVuCt22xmnlP7ZczFzLBsx/pPy22uQMui/DVhgomE47CgqLdiLhlShkkLJHtIZ9xaOiep5uwdrFds57aZ0NIrKKpI70l75rf0k3b6NrV/6DKGGOqLLTsAKBcl2tZNetwat9OTTmyUoflfbjOcNd3ic4QdXcWdXP6l95POGi/xcfMMyyutKvfdV8OeR3jhP/e4VwtEQl33qPKKlRVCQZuVqdry2lVUPvUJs4MDORelkhq2rd7B19Q4AauaW03bCXE6/5lhW3PMayn1zuRV/HIoRfXU7bSVBAsc1TfsYf2sJ/u2j5Pomz1Br16H04stpu/JarJJSxletYud/f39Sgw9/ZQ1zPvUFBu78JcPPPjLt9rMjDiNrkpQfG4VgEPaaNdZao8cHESXVIG1k2RzUSBeM9XtibFkQLYfxYUjGCxVShHdsjphOeEaE90eED5WFeG+TCE+7HblAhu3bfvtbrrz+epQ5vo0Y/8m49Oq2m4DLTSQMs38UsMDZq3KAP+j9P5+dqB0bKfP+72S824WAaHXBcvDKbU0xzTDYPoaeG0O7evck9IGQG+wn9uRD3q+JM5wqii9sxC72Ty/m2TyJB1Zxf+cAo7mZF26VVIa47GPHEikJ75EJrNnwfDsv3vc6Z77neOaf3IYUcndIhnqGePa3zzHUfXBq7Pd3jNDfMYIQ4AvY5N7kQjNXwwMjY1z/xHrqqqLYdUXTnlwjp9WSu3PrlLtijz9M0Sln0vX3/4eRp56GgMQKT8yeu6kE2//9i4W6yft4P8+OUX5sFFVahuybWoVDx3d6YgxQOgdGumB8AGoXeR90cbUnxpmEl+MBEIoCe4mxLcExDnD4iPC+qzEcmqXT/lQiLN7wdom4/HL/JTfBw/9ojvcDxywWexPEbm17n1bCVKAwHCZi7NtLiv1e8wWAQjk2Yft25xGT9H4Wl6V1ezxuHJXPThWfoqgnkCumr98bmX8UdiQ6/W5Fi2j8uy9TfvFVSH9g5t0v8xM+uhIrUk7xuX9F0Vl/iQyXFnZAk352Ays6BtmRzOxTii//+LGEiydex3UVz/3hddY8vplr/vY85p/UvPtE57qKlfe/wl3/cS81rbUsOGn+AYV80akLqGmpnvF+rSGXeWvVF1JK8dBYgvjtq9BpL/VA+IIUn/e3lF35HYKtZyOjPsLHVU55bnrzRgb+9+fEn3t2evFOJdH70RkwtjaFM+56M8bTnPN1vGeiCUioBOEPe9VPcl77ZxEumrjw2nV8BaZZzmH7zfd4nyK8K09VHmCOsJwhh3d/bp8Q4SnNNKY8Xk6/jZlyeCfl2Mq3sO8cpO1PiPDMOcJyP7Y/3f68USOTvbdRqJCjrS+O337Z+8zxb8T4bWfklrnHSPQtUprYGQ4XMZ78w5GOlu5hSIWf2Yv2kKd0IV+0dM7Ec8YHpj0f60CIXMwhNzq95JWfcSEqn5/2Picxzs7//g7Blnks+t+HqLjy/dM+rui8OrAFkZPeT2DuifjmLCO05DJvG+1DdL7WxYrB+IxvPxT1cekNRxGMTlwgOHmXJ257lf4dw1z9t+dQWjOxjCCTyvHQjx9nzRPrAFj3zHoaFs6hqGL/OsCX15ZTXFlCf/vbnw7Q6zi8HE8wft96zynnnoiv9ihkqIzwcR/w3v/CYqR/6nA2fN9d02uWlEQWHUPlxddQfeUHKT3l3BkvXJSrGV6d8BbXhSPTXABo9B7NYERFIe0jU6g8IX2IQNj7+678dSEhFNnnMWxE+BAT4SnCK99mUT2URFjuW4RnWrg3U8z2cx+lRCLFLSN3XHyM+U4c4CnRhGD/if2wqVQK606kjJpoGA4LLGvqTF5oj8M7483cES6emMpMjCCkNbHoDtCjnVOlJxwGKRlaOb2U+ssrqb3uBqoufx8Dd/+Onl/9L+n2nsnbcBx6fvQf6GwKlZm6sM9XE8SeEwEF2plYkKWVi87mGX9sPX/sG91not1FH1pIeI80DCfv8vj/vs7YcIorPnUG4aLgRDgSWe77n8eJ9U+eAX/u9mc5+/3n8tjPH0XvY2GfbVsce+FxPPWrx/9kH/HKfJbm13biX1aLPWdCQlWhrJ7wW4SPr2Ds+X2LuhCC6ms/SO2HPoavciLfXLsOTmyELd/8EiMrX5w6mbAmSc05JejiYkQyOfU4GetHhAppOtHCBVhiGEoLM+pF5Z4UZzNQODR1pBiRntiWtuRMP0IfISLMW0yNeOOf56dtMHFYd5Wb/juw/zF7M/nBb30fJ4m7RdSn7Dtjt11xQumf3R8zJzwjxgefsP1zkK0mEIbDBR0KInKTZ2y1P+DVkx1oh10yWuiAh5vzGiyUNUxUrXByqNRU+dWFFImRV5LTvnbxcafRefO/U/2u66n/0Ceo/+BHGXr0j3Qv/xnptasnPTY/PEj8yYembCNycuXuk1Xy5d+C1gg0mfUPkl65g1UDcYZz+05JePR/N3P02fW0HVuL5fPx+K/WMdw9zlWfOZ1Q1L/HNUKO+29+ikxiaspILpNn3TOvc8rVp7Hirplr7J/+3jNZ/cdVKKWnCLPjuG/LZ6yAp0Wed9+9Dl9LCePP/A9WSTXZ9qcnLlKaw4iXJaSn3wdh28z73n9Tevb5aMch9tyjxF58ksS6VWQGehG+IFWXXkeyo4N8R/ek545vz+AkXKw9LjAmHSfxHkTNosKOhCEQgeTIRG57uBTYCbF+r8lIRe3UdAohj6A844PYXnmm24/I9sr7KcIHdaHcwRXh6R4vLFqtKD8HrjZnPCPGB5XY8tYvSuRVJhKGwwqfH1LpiX8Hgp4Ud++Y6DAmpdd1DLxFUAD2HpKTmSFNIeDHTSkyg3ms4DQ/1T9+H9pR9N3xK4qWnkTNuz9A5YUXUXnJpaQ2bKD/9/9L/JlHEJZG2DYqn5t0yrDLfPjqJvZDZcYZf+EXWP4AOpln5OVOVo5MVFyIlvo45bIaqpuiWLZNalzRvyPFxpf6efH+Hax8qINoWZDESIarPn0q0dLQ7qoUTt7hkVufI9Y/xpnXnsDrz2whNjB51rh3Wy+1bXU0LW2m8/UdzFnYSPOx83jhD0/jOi6LTjuKoZ1DxPqnTtzMO7GF2ECcvu37X6O3tCrEopOrqW2OEi62cB2Xwa4ELz3cQ2J08sVOr1BsiSc5dm0f+F+FXhf0HhJsC8JHlzD+0vSLCOf8zWcoPvl0epf/DwP3/ho3HUNbEz8rq2yGntt/TvlZl5LYS4y1gtj6FBWnFqODAURm8oWFzmcgn/GORbQnx9kk5DJe/vueOfDxYe9XjNqm3R23vSunnHdB56SNCL8ZGTPtlf9EFSPefhGebvtCcNXYXVd9sfjd93zbnPSMGB8URpfPPQf4VxMJw+GGti3EnpUFLAuxs92Tppq5EB/yRCSfBeFAz0bveYPbEIEQlDahk8PTCLeNtixiG1J72Mter71HykF81QpGn30eX0ktde97P3XXX0/LV7+BE/8cidUr6f/Z1LrFoWNLZzw3pV7sZGU8Sa7wGkLA3EVRhrrT5HNQ21JEUXmQ4oowC06soXfHOC8/0snQzoS3AG+P7WrghbvXMtjl5VY3LKwnnciz6uGptYZXP/IKC05ZzGnXnM3Sc45DSEHj4mae+OXDREqjrHrwpWn3t/XYJpLx5H6JcVlNmBMvbqa2uQghFBqX1FiW/o4x4oNp5i4uZv0Lw1O66L0kHNqe3EZgaRUiPHW7/pYQYuU052HbpuKSS1n/oWvJ9nagAwLpnz7wvrKKaW8f25LxxDgSmSLGADodA1819G6C8UIMdr4Oc4/xJBm8FuVSwugAorfDW3BXqGcs8g4qEkakZrsYv0E1hllZOu3tFuEDrVF8+Ivw9NuR/zp+5xUriq65/ylz5jNi/JYYuLmxVgjfryX4TDQMh50YW3vN5KaS3rjaMA+CxaAcT4wtG/q2gXKhbiHEB1Dd65CRKq/u7F6osGdeo+sPTFSyvT20f+979P74h1Rd/S5qrv8zpN9HbqB3Uqk3aYF/zvQ/zat4muG1vbyemHjtEy+uZNGJZWgksYE8m14aJhl3WHhyDdWNxdS1lPCuTy6j4/Vhnr9nC3f/YAWnXb2EhSc2sW1VF5tXdgBQVB4GpYiUhKd97aKKIpaefSyVjbXsmtIsKi/mir95N+uffQ0pxZQ0CiEEJVXFREqC+4yNL2BxyuXzaDm6CiEUaG+GeOPKPsJFNo2LimlcEEVKTShq8fIjk3OGx4RmYzLLSZuHCCybWolCBiWB1jCpTZNTX/w1NfTc+lPS7du9OsYzULz0eIIN09dMHtuW2X1cyOFpZqWTQyAlaqTT63wnBAx3QqwPgoWFdpFSb9GdZcPQ5Fx08nm0fzYO0YdjDeEDlcA3uhjgLdYoPhxFWOzjGJl+G1LgE8L368QdlxwfvfbhPnP2M2L8pnj8a1j+gO/XEupMNAxHDDVNiFDUm3H0hzwRkRY6GfMW3BXXIaLVsO15dPdr6MzUUmw65OWAxje9uRk8lcsx9MA9pLeuI1hXO+X+wIIowp6+MEz61V5eS6UnLbhrXhIF6bWTLq8LUVEfxXEEHevjbHxpkKNOq6NyTiktx1TTsLCKFfdt4fk7X6djbR+97RMz4pZt0bt9kPGRiYWAgXCAaGmUseExrv3C9fgCUwVXWIKlZx9NSVUxz//hWYoqiuje5KUc+II2XZt6ESgsS+JO04CkeWkNp1wxn2DYAu0y1JNgwws91M6Nctq7mrBsgdYuaIXWLi1HFU8RY4A1To4lL+zEv7QcMY3jBudNFeP80BD54ZnrNFvhCNVXfID693+CtX93w7SPcZIu6Z4sgTn+ySkQu46X5BAkBhHBKLp6vpdLHOuBxCgUVey6MvBUrrTaS7+I77FPWu9DLo0IvzMi/OYW9M2uZhoHW4QP7oK+KTEQso5A5NePf+2sC8//52dcDEaMD5QTmttuEkKcayJhODy//RZTyjWEo4iaZehkx8SAGy4GJ+fJR1Vz4bl+RPU8VN+maTetfTZu0iUXd/CF3nxlw0xXB/n+LqRv8jYCzdPP2OqsQ3JVNxvSEz/Xl1X7CISnWqDtk8xbVknr0VVsf22ELasGOeacuRSVRzj7uqNpXlLHM7evndR9TrmKhSe3kk7mWf3o61TOqeCKv74c2+fjd9/8PcnRBKW1nhg7uTz5XA5/0L97trt7czcXfPgCKhrKeP3p11lx90uU15Sy8MRWlMrzzO8n5zL4/BZnvGcpc5dUgVYkYknWPddFeU2I069qQVqgcSdqARfwhyWlVX5ig5NbJ8e0oiOeIto9jq9panEdq9KH9AvUHtkOKpvFV16OFY6glTfzK2wf0SXLKD/vCsrPvgQZitD9qx8ztm7NjJ9loj1DYI4fHfAjMrm9PjfvQkO2noQWEoQNVc3o/u0Iy/YuzvaoaSsbT0IlHwPHeePZRiPCB1mE9+PvB7Cgz4jwwdvH/YmBQJx70sk1NwFfNidBI8YHRPyW1ku1Fl8QwsTCcHiibR9CTZ40EPWLEdI/MaHnuhCMonMZL39hjxJtFNfCdGJcWKw3vn1itnjJv3yfbd//Om4mcUD7GDnqaDJb103eR5/ALpt+6MptH2VLOkt2jwTbirrAPl/DsiXzT6im+WjBxpd6cR3NkjNbaTqqmvf8/</t>
   </si>
 </sst>
 </file>
@@ -1920,7 +1893,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1943,9 +1916,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3145,10 +3115,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M96"/>
+  <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3170,21 +3140,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
     </row>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -3203,22 +3173,22 @@
         <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>6</v>
@@ -3231,8 +3201,8 @@
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>495</v>
+      <c r="B3" s="19" t="s">
+        <v>526</v>
       </c>
       <c r="C3" s="4">
         <v>250</v>
@@ -3242,7 +3212,7 @@
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="5" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -3259,3461 +3229,3420 @@
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="9">
+      <c r="B4" s="14" t="s">
+        <v>527</v>
+      </c>
+      <c r="C4" s="8">
         <v>250</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="10" t="s">
+      <c r="F4" s="10"/>
+      <c r="G4" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="9" t="b">
+      <c r="M4" s="8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="9">
+        <v>12</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="C5" s="8">
         <v>250</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="10" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="9" t="b">
+      <c r="M5" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="C6" s="8">
+        <v>360</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>496</v>
-      </c>
-      <c r="C6" s="9">
-        <v>360</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>17</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="9" t="b">
+        <v>143</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>497</v>
-      </c>
-      <c r="C7" s="9">
+        <v>16</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="C7" s="8">
         <v>360</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>17</v>
+      <c r="D7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="L7" s="11"/>
-      <c r="M7" s="9" t="b">
+        <v>146</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="L7" s="10"/>
+      <c r="M7" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>498</v>
-      </c>
-      <c r="C8" s="9">
+        <v>17</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="C8" s="8">
         <v>360</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>20</v>
+      <c r="D8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="9" t="b">
+        <v>351</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="L8" s="10"/>
+      <c r="M8" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>499</v>
-      </c>
-      <c r="C9" s="9">
+        <v>19</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="C9" s="8">
         <v>370</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>20</v>
+      <c r="D9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="L9" s="11"/>
-      <c r="M9" s="9" t="b">
+        <v>352</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="L9" s="10"/>
+      <c r="M9" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>500</v>
-      </c>
-      <c r="C10" s="9">
+        <v>20</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="C10" s="8">
         <v>250</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>20</v>
+      <c r="D10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="J10" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="L10" s="11"/>
-      <c r="M10" s="9" t="b">
+        <v>149</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="L10" s="10"/>
+      <c r="M10" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>501</v>
-      </c>
-      <c r="C11" s="9">
+        <v>21</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="C11" s="8">
         <v>600</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>20</v>
+      <c r="D11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="K11" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="L11" s="11"/>
-      <c r="M11" s="9" t="b">
+        <v>150</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="L11" s="10"/>
+      <c r="M11" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>502</v>
-      </c>
-      <c r="C12" s="9">
+        <v>22</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="C12" s="8">
         <v>360</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>20</v>
+      <c r="D12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="J12" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="L12" s="11"/>
-      <c r="M12" s="9" t="b">
+        <v>353</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="K12" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="L12" s="10"/>
+      <c r="M12" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>503</v>
-      </c>
-      <c r="C13" s="9">
+        <v>23</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="C13" s="8">
         <v>330</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>20</v>
+      <c r="D13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="J13" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="L13" s="11"/>
-      <c r="M13" s="17" t="b">
+        <v>354</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="L13" s="10"/>
+      <c r="M13" s="16" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>504</v>
-      </c>
-      <c r="C14" s="9">
+        <v>24</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="C14" s="8">
         <v>450</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>20</v>
+      <c r="D14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="L14" s="11"/>
-      <c r="M14" s="9" t="b">
+        <v>355</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" s="10"/>
+      <c r="M14" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>505</v>
-      </c>
-      <c r="C15" s="9">
+        <v>25</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="C15" s="8">
         <v>290</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>20</v>
+      <c r="D15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="K15" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="L15" s="11"/>
-      <c r="M15" s="9" t="b">
+        <v>356</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="L15" s="10"/>
+      <c r="M15" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>506</v>
-      </c>
-      <c r="C16" s="9">
+        <v>26</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="C16" s="8">
         <v>270</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>17</v>
+      <c r="D16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="J16" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="K16" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="L16" s="11"/>
-      <c r="M16" s="17" t="b">
+        <v>357</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="L16" s="10"/>
+      <c r="M16" s="16" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>507</v>
-      </c>
-      <c r="C17" s="9">
+        <v>27</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="C17" s="8">
         <v>340</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>20</v>
+      <c r="D17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="K17" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="L17" s="11"/>
-      <c r="M17" s="9" t="b">
+        <v>358</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="L17" s="10"/>
+      <c r="M17" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>508</v>
-      </c>
-      <c r="C18" s="9">
+        <v>28</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="C18" s="8">
         <v>399</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>20</v>
+      <c r="D18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="J18" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="K18" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="L18" s="11"/>
-      <c r="M18" s="9" t="b">
+        <v>360</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="L18" s="10"/>
+      <c r="M18" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>509</v>
-      </c>
-      <c r="C19" s="9">
+        <v>29</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="C19" s="8">
         <v>360</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>20</v>
+      <c r="D19" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="J19" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="K19" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="L19" s="11"/>
-      <c r="M19" s="9" t="b">
+        <v>359</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="K19" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="L19" s="10"/>
+      <c r="M19" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>510</v>
-      </c>
-      <c r="C20" s="9">
+        <v>30</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="C20" s="8">
         <v>380</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>20</v>
+      <c r="D20" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="J20" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="K20" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="L20" s="11"/>
-      <c r="M20" s="9" t="b">
+        <v>362</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="K20" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="L20" s="10"/>
+      <c r="M20" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>511</v>
-      </c>
-      <c r="C21" s="9">
+        <v>31</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="C21" s="8">
         <v>380</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>20</v>
+      <c r="D21" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="J21" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="K21" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="L21" s="11"/>
-      <c r="M21" s="9" t="b">
+        <v>361</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="K21" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="L21" s="10"/>
+      <c r="M21" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>512</v>
-      </c>
-      <c r="C22" s="9">
+        <v>32</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="C22" s="8">
         <v>380</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>20</v>
+      <c r="D22" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="I22" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="J22" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="K22" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="L22" s="11"/>
-      <c r="M22" s="9" t="b">
+        <v>363</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="K22" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="L22" s="10"/>
+      <c r="M22" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>513</v>
-      </c>
-      <c r="C23" s="9">
+        <v>33</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="C23" s="8">
         <v>280</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>20</v>
+      <c r="D23" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="I23" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="J23" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="K23" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="L23" s="11"/>
-      <c r="M23" s="9" t="b">
+        <v>364</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="J23" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="K23" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="L23" s="10"/>
+      <c r="M23" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>514</v>
-      </c>
-      <c r="C24" s="9">
+        <v>34</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="C24" s="8">
         <v>370</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>20</v>
+      <c r="D24" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="H24" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="I24" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="J24" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="K24" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="L24" s="11"/>
-      <c r="M24" s="9" t="b">
+        <v>365</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="K24" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="L24" s="10"/>
+      <c r="M24" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>515</v>
-      </c>
-      <c r="C25" s="9">
+        <v>35</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="C25" s="8">
         <v>465</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>38</v>
+      <c r="D25" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="H25" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="I25" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="J25" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="K25" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="L25" s="11"/>
-      <c r="M25" s="17" t="b">
+        <v>369</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="J25" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="K25" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="L25" s="10"/>
+      <c r="M25" s="16" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>516</v>
-      </c>
-      <c r="C26" s="9">
+        <v>37</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="C26" s="8">
         <v>465</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>38</v>
+      <c r="D26" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="H26" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="I26" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="J26" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="K26" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="L26" s="11"/>
-      <c r="M26" s="9" t="b">
+        <v>366</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="J26" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="K26" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="L26" s="10"/>
+      <c r="M26" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>517</v>
-      </c>
-      <c r="C27" s="9">
+        <v>38</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="C27" s="8">
         <v>465</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>38</v>
+      <c r="D27" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="H27" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="I27" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="J27" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="K27" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="L27" s="11"/>
-      <c r="M27" s="9" t="b">
+        <v>367</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="J27" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="K27" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L27" s="10"/>
+      <c r="M27" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>518</v>
-      </c>
-      <c r="C28" s="9">
+        <v>39</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="C28" s="8">
         <v>465</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>38</v>
+      <c r="D28" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="H28" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="I28" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="J28" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="K28" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="L28" s="11"/>
-      <c r="M28" s="9" t="b">
+        <v>368</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="J28" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="K28" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="L28" s="10"/>
+      <c r="M28" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>519</v>
-      </c>
-      <c r="C29" s="9">
+        <v>40</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="C29" s="8">
         <v>390</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>43</v>
+      <c r="D29" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="I29" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="K29" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="L29" s="11"/>
-      <c r="M29" s="9" t="b">
+        <v>372</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="J29" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="K29" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="L29" s="10"/>
+      <c r="M29" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>520</v>
-      </c>
-      <c r="C30" s="9">
+        <v>42</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>491</v>
+      </c>
+      <c r="C30" s="8">
         <v>390</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>43</v>
+      <c r="D30" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="H30" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="I30" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="J30" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="K30" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="L30" s="11"/>
-      <c r="M30" s="9" t="b">
+        <v>371</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="J30" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="K30" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="L30" s="10"/>
+      <c r="M30" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>521</v>
-      </c>
-      <c r="C31" s="9">
+        <v>43</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="C31" s="8">
         <v>390</v>
       </c>
-      <c r="D31" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>43</v>
+      <c r="D31" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="H31" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="I31" s="19" t="s">
-        <v>277</v>
-      </c>
-      <c r="J31" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="K31" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="L31" s="11"/>
-      <c r="M31" s="9" t="b">
+        <v>370</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="J31" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="K31" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="L31" s="10"/>
+      <c r="M31" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>522</v>
-      </c>
-      <c r="C32" s="9">
+        <v>44</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="C32" s="8">
         <v>240</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>147</v>
+      <c r="D32" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>125</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="H32" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="I32" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="J32" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="K32" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="L32" s="11"/>
-      <c r="M32" s="9" t="b">
+        <v>373</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="J32" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="K32" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="L32" s="10"/>
+      <c r="M32" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>523</v>
-      </c>
-      <c r="C33" s="9">
+        <v>46</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="C33" s="8">
         <v>415</v>
       </c>
-      <c r="D33" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>20</v>
+      <c r="D33" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="H33" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="I33" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="J33" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="K33" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="L33" s="11"/>
-      <c r="M33" s="9" t="b">
+        <v>376</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="J33" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="K33" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="L33" s="10"/>
+      <c r="M33" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>524</v>
-      </c>
-      <c r="C34" s="9">
+        <v>47</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>495</v>
+      </c>
+      <c r="C34" s="8">
         <v>310</v>
       </c>
-      <c r="D34" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>20</v>
+      <c r="D34" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="H34" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="I34" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="J34" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="K34" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="L34" s="11"/>
-      <c r="M34" s="9" t="b">
+        <v>374</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="J34" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="K34" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="L34" s="10"/>
+      <c r="M34" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>525</v>
-      </c>
-      <c r="C35" s="9">
+        <v>48</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="C35" s="8">
         <v>349</v>
       </c>
-      <c r="D35" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>20</v>
+      <c r="D35" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="H35" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="I35" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="J35" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="K35" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="L35" s="11"/>
-      <c r="M35" s="9" t="b">
+        <v>375</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="J35" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="K35" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="L35" s="10"/>
+      <c r="M35" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>526</v>
-      </c>
-      <c r="C36" s="9">
+        <v>49</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="C36" s="8">
         <v>455</v>
       </c>
-      <c r="D36" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>20</v>
+      <c r="D36" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="H36" s="19" t="s">
-        <v>293</v>
-      </c>
-      <c r="I36" s="19" t="s">
-        <v>294</v>
-      </c>
-      <c r="J36" s="19" t="s">
-        <v>295</v>
-      </c>
-      <c r="K36" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="L36" s="11"/>
-      <c r="M36" s="9" t="b">
+        <v>377</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="J36" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="K36" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="L36" s="10"/>
+      <c r="M36" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>527</v>
-      </c>
-      <c r="C37" s="9">
+        <v>50</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>498</v>
+      </c>
+      <c r="C37" s="8">
         <v>299</v>
       </c>
-      <c r="D37" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>20</v>
+      <c r="D37" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="H37" s="19" t="s">
-        <v>296</v>
-      </c>
-      <c r="I37" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="J37" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="K37" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="L37" s="11"/>
-      <c r="M37" s="9" t="b">
+        <v>379</v>
+      </c>
+      <c r="H37" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="J37" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="K37" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="L37" s="10"/>
+      <c r="M37" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>528</v>
-      </c>
-      <c r="C38" s="9">
+        <v>51</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="C38" s="8">
         <v>360</v>
       </c>
-      <c r="D38" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>20</v>
+      <c r="D38" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="H38" s="19" t="s">
-        <v>299</v>
-      </c>
-      <c r="I38" s="19" t="s">
-        <v>300</v>
-      </c>
-      <c r="J38" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="K38" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="L38" s="11"/>
-      <c r="M38" s="9" t="b">
+        <v>378</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="I38" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="J38" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="K38" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="L38" s="10"/>
+      <c r="M38" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>529</v>
-      </c>
-      <c r="C39" s="9">
+        <v>52</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="C39" s="8">
         <v>490</v>
       </c>
-      <c r="D39" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>20</v>
+      <c r="D39" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="H39" s="19" t="s">
-        <v>302</v>
-      </c>
-      <c r="I39" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="J39" s="19" t="s">
-        <v>304</v>
-      </c>
-      <c r="K39" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="L39" s="11"/>
-      <c r="M39" s="9" t="b">
+        <v>380</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="I39" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="J39" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="K39" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="L39" s="10"/>
+      <c r="M39" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>530</v>
-      </c>
-      <c r="C40" s="9">
+        <v>53</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="C40" s="8">
         <v>370</v>
       </c>
-      <c r="D40" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>20</v>
+      <c r="D40" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="H40" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="I40" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="J40" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="K40" s="19" t="s">
-        <v>307</v>
-      </c>
-      <c r="L40" s="11"/>
-      <c r="M40" s="9" t="b">
+        <v>381</v>
+      </c>
+      <c r="H40" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="I40" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="J40" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="K40" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="L40" s="10"/>
+      <c r="M40" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>531</v>
-      </c>
-      <c r="C41" s="9">
+        <v>54</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="C41" s="8">
         <v>370</v>
       </c>
-      <c r="D41" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>20</v>
+      <c r="D41" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="H41" s="19" t="s">
-        <v>308</v>
-      </c>
-      <c r="I41" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="J41" s="19" t="s">
-        <v>310</v>
-      </c>
-      <c r="K41" s="19" t="s">
-        <v>311</v>
-      </c>
-      <c r="L41" s="11"/>
-      <c r="M41" s="9" t="b">
+        <v>382</v>
+      </c>
+      <c r="H41" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="I41" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="J41" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="K41" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="L41" s="10"/>
+      <c r="M41" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>532</v>
-      </c>
-      <c r="C42" s="9">
+        <v>55</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>503</v>
+      </c>
+      <c r="C42" s="8">
         <v>450</v>
       </c>
-      <c r="D42" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>20</v>
+      <c r="D42" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="H42" s="19" t="s">
-        <v>312</v>
-      </c>
-      <c r="I42" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="J42" s="19" t="s">
-        <v>314</v>
-      </c>
-      <c r="K42" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="L42" s="11"/>
-      <c r="M42" s="9" t="b">
+        <v>383</v>
+      </c>
+      <c r="H42" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="I42" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="J42" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="K42" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="L42" s="10"/>
+      <c r="M42" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>533</v>
-      </c>
-      <c r="C43" s="9">
+        <v>56</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="C43" s="8">
         <v>380</v>
       </c>
-      <c r="D43" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>20</v>
+      <c r="D43" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="H43" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="I43" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="J43" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="K43" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="L43" s="11"/>
-      <c r="M43" s="9" t="b">
+        <v>384</v>
+      </c>
+      <c r="H43" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="I43" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="J43" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="K43" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="L43" s="10"/>
+      <c r="M43" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>534</v>
-      </c>
-      <c r="C44" s="9">
+        <v>57</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="C44" s="8">
         <v>399</v>
       </c>
-      <c r="D44" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>20</v>
+      <c r="D44" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="H44" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="I44" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="J44" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="K44" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="L44" s="11"/>
-      <c r="M44" s="9" t="b">
+        <v>385</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="J44" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="K44" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="L44" s="10"/>
+      <c r="M44" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>535</v>
-      </c>
-      <c r="C45" s="9">
+        <v>58</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="C45" s="8">
         <v>465</v>
       </c>
-      <c r="D45" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>20</v>
+      <c r="D45" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="H45" s="19" t="s">
-        <v>423</v>
-      </c>
-      <c r="I45" s="19" t="s">
-        <v>424</v>
-      </c>
-      <c r="J45" s="19" t="s">
-        <v>425</v>
-      </c>
-      <c r="K45" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="L45" s="11"/>
-      <c r="M45" s="9" t="b">
+        <v>386</v>
+      </c>
+      <c r="H45" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="I45" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="J45" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="K45" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="L45" s="10"/>
+      <c r="M45" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>536</v>
-      </c>
-      <c r="C46" s="9">
+        <v>59</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="C46" s="8">
         <v>499</v>
       </c>
-      <c r="D46" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>20</v>
+      <c r="D46" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="H46" s="19" t="s">
-        <v>426</v>
-      </c>
-      <c r="I46" s="19" t="s">
-        <v>427</v>
-      </c>
-      <c r="J46" s="19" t="s">
-        <v>428</v>
-      </c>
-      <c r="K46" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="L46" s="11"/>
-      <c r="M46" s="9" t="b">
+        <v>296</v>
+      </c>
+      <c r="H46" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="I46" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="J46" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="K46" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="L46" s="10"/>
+      <c r="M46" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>537</v>
-      </c>
-      <c r="C47" s="9">
+        <v>60</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="C47" s="8">
         <v>380</v>
       </c>
-      <c r="D47" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>17</v>
+      <c r="D47" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="H47" s="19" t="s">
-        <v>429</v>
-      </c>
-      <c r="I47" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="J47" s="19" t="s">
-        <v>430</v>
-      </c>
-      <c r="K47" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="L47" s="11"/>
-      <c r="M47" s="9" t="b">
+        <v>387</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="I47" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="J47" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="K47" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="L47" s="10"/>
+      <c r="M47" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>538</v>
-      </c>
-      <c r="C48" s="9">
+        <v>61</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="C48" s="8">
         <v>350</v>
       </c>
-      <c r="D48" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>17</v>
+      <c r="D48" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="H48" s="19" t="s">
-        <v>431</v>
-      </c>
-      <c r="I48" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="J48" s="19" t="s">
-        <v>432</v>
-      </c>
-      <c r="K48" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="L48" s="11"/>
-      <c r="M48" s="9" t="b">
+        <v>389</v>
+      </c>
+      <c r="H48" s="18" t="s">
+        <v>406</v>
+      </c>
+      <c r="I48" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="J48" s="18" t="s">
+        <v>407</v>
+      </c>
+      <c r="K48" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="L48" s="10"/>
+      <c r="M48" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>539</v>
-      </c>
-      <c r="C49" s="9">
+        <v>62</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="C49" s="8">
         <v>360</v>
       </c>
-      <c r="D49" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>17</v>
+      <c r="D49" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="H49" s="19" t="s">
-        <v>433</v>
-      </c>
-      <c r="I49" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="J49" s="19" t="s">
-        <v>434</v>
-      </c>
-      <c r="K49" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="L49" s="11"/>
-      <c r="M49" s="9" t="b">
+        <v>388</v>
+      </c>
+      <c r="H49" s="18" t="s">
+        <v>408</v>
+      </c>
+      <c r="I49" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="J49" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="K49" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="L49" s="10"/>
+      <c r="M49" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>540</v>
-      </c>
-      <c r="C50" s="9">
+        <v>63</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="C50" s="8">
         <v>350</v>
       </c>
-      <c r="D50" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>17</v>
+      <c r="D50" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="H50" s="19" t="s">
-        <v>435</v>
-      </c>
-      <c r="I50" s="19" t="s">
-        <v>436</v>
-      </c>
-      <c r="J50" s="19" t="s">
-        <v>430</v>
-      </c>
-      <c r="K50" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="L50" s="11"/>
-      <c r="M50" s="9" t="b">
+        <v>390</v>
+      </c>
+      <c r="H50" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="I50" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="J50" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="K50" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="L50" s="10"/>
+      <c r="M50" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>541</v>
-      </c>
-      <c r="C51" s="9">
+        <v>64</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="C51" s="8">
         <v>495</v>
       </c>
-      <c r="D51" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>38</v>
+      <c r="D51" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="H51" s="19" t="s">
-        <v>437</v>
-      </c>
-      <c r="I51" s="19" t="s">
-        <v>438</v>
-      </c>
-      <c r="J51" s="19" t="s">
-        <v>439</v>
-      </c>
-      <c r="K51" s="19" t="s">
-        <v>440</v>
-      </c>
-      <c r="L51" s="11"/>
-      <c r="M51" s="9" t="b">
+        <v>393</v>
+      </c>
+      <c r="H51" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="I51" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="J51" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="K51" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="L51" s="10"/>
+      <c r="M51" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>542</v>
-      </c>
-      <c r="C52" s="9">
+        <v>65</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="C52" s="8">
         <v>380</v>
       </c>
-      <c r="D52" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>38</v>
+      <c r="D52" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="G52" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="H52" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="I52" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="J52" s="18" t="s">
         <v>417</v>
       </c>
-      <c r="H52" s="19" t="s">
-        <v>441</v>
-      </c>
-      <c r="I52" s="19" t="s">
-        <v>328</v>
-      </c>
-      <c r="J52" s="19" t="s">
-        <v>442</v>
-      </c>
-      <c r="K52" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="L52" s="11"/>
-      <c r="M52" s="9" t="b">
+      <c r="K52" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="L52" s="10"/>
+      <c r="M52" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>543</v>
-      </c>
-      <c r="C53" s="9">
+        <v>66</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="C53" s="8">
         <v>495</v>
       </c>
-      <c r="D53" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>38</v>
+      <c r="D53" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="H53" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="I53" s="19" t="s">
-        <v>444</v>
-      </c>
-      <c r="J53" s="19" t="s">
-        <v>445</v>
-      </c>
-      <c r="K53" s="19" t="s">
-        <v>446</v>
-      </c>
-      <c r="L53" s="11"/>
-      <c r="M53" s="9" t="b">
+        <v>391</v>
+      </c>
+      <c r="H53" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="I53" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="J53" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="K53" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="L53" s="10"/>
+      <c r="M53" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>544</v>
-      </c>
-      <c r="C54" s="9">
+        <v>67</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="C54" s="8">
         <v>495</v>
       </c>
-      <c r="D54" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>38</v>
+      <c r="D54" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="H54" s="19" t="s">
-        <v>447</v>
-      </c>
-      <c r="I54" s="19" t="s">
-        <v>448</v>
-      </c>
-      <c r="J54" s="19" t="s">
-        <v>449</v>
-      </c>
-      <c r="K54" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="L54" s="11"/>
-      <c r="M54" s="9" t="b">
+        <v>394</v>
+      </c>
+      <c r="H54" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="I54" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="J54" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="K54" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="L54" s="10"/>
+      <c r="M54" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>545</v>
-      </c>
-      <c r="C55" s="9">
+        <v>68</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="C55" s="8">
         <v>570</v>
       </c>
-      <c r="D55" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="F55" s="10" t="s">
-        <v>38</v>
+      <c r="D55" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="H55" s="19" t="s">
-        <v>451</v>
-      </c>
-      <c r="I55" s="19" t="s">
-        <v>452</v>
-      </c>
-      <c r="J55" s="19" t="s">
-        <v>453</v>
-      </c>
-      <c r="K55" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="L55" s="11"/>
-      <c r="M55" s="9" t="b">
+        <v>395</v>
+      </c>
+      <c r="H55" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="I55" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="J55" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="K55" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="L55" s="10"/>
+      <c r="M55" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>546</v>
-      </c>
-      <c r="C56" s="9">
+        <v>69</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="C56" s="8">
         <v>360</v>
       </c>
-      <c r="D56" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>17</v>
+      <c r="D56" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="H56" s="19" t="s">
-        <v>454</v>
-      </c>
-      <c r="I56" s="19" t="s">
-        <v>455</v>
-      </c>
-      <c r="J56" s="19" t="s">
-        <v>456</v>
-      </c>
-      <c r="K56" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="L56" s="11"/>
-      <c r="M56" s="9" t="b">
+        <v>396</v>
+      </c>
+      <c r="H56" s="18" t="s">
+        <v>429</v>
+      </c>
+      <c r="I56" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="J56" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="K56" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="L56" s="10"/>
+      <c r="M56" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>547</v>
-      </c>
-      <c r="C57" s="9">
+        <v>70</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="C57" s="8">
         <v>360</v>
       </c>
-      <c r="D57" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="H57" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="I57" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="J57" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="K57" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="L57" s="11"/>
-      <c r="M57" s="9" t="b">
+      <c r="D57" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="H57" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="I57" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="J57" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="K57" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="L57" s="10"/>
+      <c r="M57" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C58" s="9">
+        <v>71</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="C58" s="8">
         <v>250</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F58" s="11"/>
-      <c r="G58" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="10" t="s">
+      <c r="F58" s="10"/>
+      <c r="G58" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M58" s="9" t="b">
+      <c r="M58" s="8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>548</v>
-      </c>
-      <c r="C59" s="9">
+        <v>72</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="C59" s="8">
         <v>790</v>
       </c>
-      <c r="D59" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G59" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="H59" s="19" t="s">
-        <v>423</v>
-      </c>
-      <c r="I59" s="19" t="s">
-        <v>424</v>
-      </c>
-      <c r="J59" s="19" t="s">
-        <v>425</v>
-      </c>
-      <c r="K59" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="L59" s="10" t="s">
+      <c r="D59" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="H59" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="I59" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="J59" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="K59" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="L59" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M59" s="9" t="b">
+      <c r="M59" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C60" s="9">
-        <v>570</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F60" s="14" t="s">
-        <v>43</v>
+        <v>75</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>555</v>
+      </c>
+      <c r="C60" s="8">
+        <v>430</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>123</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="H60" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="I60" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="J60" s="19" t="s">
-        <v>459</v>
-      </c>
-      <c r="K60" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="L60" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H60" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="I60" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="J60" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="K60" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="L60" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M60" s="9" t="b">
+      <c r="M60" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>551</v>
-      </c>
-      <c r="C61" s="9">
-        <v>430</v>
-      </c>
-      <c r="D61" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E61" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="F61" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="G61" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="H61" s="19" t="s">
-        <v>447</v>
-      </c>
-      <c r="I61" s="19" t="s">
-        <v>448</v>
-      </c>
-      <c r="J61" s="19" t="s">
-        <v>449</v>
-      </c>
-      <c r="K61" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="L61" s="10" t="s">
+      <c r="B61" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="C61" s="8">
+        <v>490</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="H61" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="I61" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="J61" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="K61" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="L61" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M61" s="9" t="b">
+      <c r="M61" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>549</v>
-      </c>
-      <c r="C62" s="9">
-        <v>490</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F62" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="H62" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="I62" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="J62" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="K62" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="L62" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="C62" s="8">
+        <v>300</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G62" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="H62" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="I62" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="J62" s="18" t="s">
+        <v>434</v>
+      </c>
+      <c r="K62" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="L62" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M62" s="9" t="b">
+      <c r="M62" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>550</v>
-      </c>
-      <c r="C63" s="9">
-        <v>300</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F63" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="H63" s="19" t="s">
-        <v>460</v>
-      </c>
-      <c r="I63" s="19" t="s">
-        <v>461</v>
-      </c>
-      <c r="J63" s="19" t="s">
-        <v>462</v>
-      </c>
-      <c r="K63" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="L63" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="M63" s="9" t="b">
+        <v>80</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>530</v>
+      </c>
+      <c r="C63" s="8">
+        <v>230</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="10">
+        <v>80</v>
+      </c>
+      <c r="M63" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C64" s="9">
+        <v>83</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>531</v>
+      </c>
+      <c r="C64" s="8">
         <v>230</v>
       </c>
-      <c r="D64" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="10"/>
-      <c r="K64" s="10"/>
-      <c r="L64" s="11">
+      <c r="D64" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="10">
         <v>80</v>
       </c>
-      <c r="M64" s="9" t="b">
+      <c r="M64" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C65" s="9">
+        <v>84</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>532</v>
+      </c>
+      <c r="C65" s="8">
         <v>230</v>
       </c>
-      <c r="D65" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G65" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="H65" s="10"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="10"/>
-      <c r="L65" s="11">
+      <c r="D65" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="10">
         <v>80</v>
       </c>
-      <c r="M65" s="9" t="b">
+      <c r="M65" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C66" s="9">
+        <v>85</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>533</v>
+      </c>
+      <c r="C66" s="8">
         <v>230</v>
       </c>
-      <c r="D66" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="10"/>
-      <c r="L66" s="11">
+      <c r="D66" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="10">
         <v>80</v>
       </c>
-      <c r="M66" s="9" t="b">
+      <c r="M66" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C67" s="9">
+        <v>86</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>534</v>
+      </c>
+      <c r="C67" s="8">
         <v>230</v>
       </c>
-      <c r="D67" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G67" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="H67" s="10"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="10"/>
-      <c r="K67" s="10"/>
-      <c r="L67" s="11">
+      <c r="D67" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="10">
         <v>80</v>
       </c>
-      <c r="M67" s="9" t="b">
+      <c r="M67" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C68" s="9">
+        <v>87</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="C68" s="8">
         <v>230</v>
       </c>
-      <c r="D68" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G68" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="11">
+      <c r="D68" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="10">
         <v>80</v>
       </c>
-      <c r="M68" s="9" t="b">
+      <c r="M68" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C69" s="9">
-        <v>230</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E69" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="G69" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="10"/>
-      <c r="L69" s="11">
-        <v>80</v>
-      </c>
-      <c r="M69" s="9" t="b">
+      <c r="B69" s="14" t="s">
+        <v>536</v>
+      </c>
+      <c r="C69" s="8">
+        <v>200</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="10">
+        <v>100</v>
+      </c>
+      <c r="M69" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B70" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="C70" s="8">
+        <v>200</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="10">
         <v>100</v>
       </c>
-      <c r="C70" s="9">
-        <v>200</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="G70" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
-      <c r="K70" s="10"/>
-      <c r="L70" s="11">
-        <v>100</v>
-      </c>
-      <c r="M70" s="9" t="b">
+      <c r="M70" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C71" s="9">
+        <v>91</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>538</v>
+      </c>
+      <c r="C71" s="8">
         <v>200</v>
       </c>
-      <c r="D71" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E71" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="G71" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10"/>
-      <c r="L71" s="11">
+      <c r="D71" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="10">
         <v>100</v>
       </c>
-      <c r="M71" s="9" t="b">
+      <c r="M71" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C72" s="9">
+        <v>92</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>539</v>
+      </c>
+      <c r="C72" s="8">
         <v>200</v>
       </c>
-      <c r="D72" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E72" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="G72" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="11">
+      <c r="D72" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="10">
         <v>100</v>
       </c>
-      <c r="M72" s="9" t="b">
+      <c r="M72" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C73" s="9">
-        <v>200</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E73" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="H73" s="10"/>
-      <c r="I73" s="10"/>
-      <c r="J73" s="10"/>
-      <c r="K73" s="10"/>
-      <c r="L73" s="11">
-        <v>100</v>
-      </c>
-      <c r="M73" s="9" t="b">
+        <v>94</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>540</v>
+      </c>
+      <c r="C73" s="8">
+        <v>250</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="10">
+        <v>80</v>
+      </c>
+      <c r="M73" s="16" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C74" s="9">
+        <v>95</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="C74" s="8">
         <v>250</v>
       </c>
-      <c r="D74" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E74" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="G74" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
-      <c r="K74" s="10"/>
-      <c r="L74" s="11">
+      <c r="D74" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="10">
         <v>80</v>
       </c>
-      <c r="M74" s="17" t="b">
+      <c r="M74" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C75" s="9">
+        <v>96</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>542</v>
+      </c>
+      <c r="C75" s="8">
         <v>250</v>
       </c>
-      <c r="D75" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E75" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="G75" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="10"/>
-      <c r="K75" s="10"/>
-      <c r="L75" s="11">
+      <c r="D75" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="10">
         <v>80</v>
       </c>
-      <c r="M75" s="9" t="b">
+      <c r="M75" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C76" s="9">
-        <v>250</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E76" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="G76" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="H76" s="10"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="10"/>
-      <c r="K76" s="10"/>
-      <c r="L76" s="11">
-        <v>80</v>
-      </c>
-      <c r="M76" s="9" t="b">
+        <v>97</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>543</v>
+      </c>
+      <c r="C76" s="8">
+        <v>210</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="10">
+        <v>100</v>
+      </c>
+      <c r="M76" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C77" s="9">
-        <v>210</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E77" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="G77" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="H77" s="10"/>
-      <c r="I77" s="10"/>
-      <c r="J77" s="10"/>
-      <c r="K77" s="10"/>
-      <c r="L77" s="11">
-        <v>100</v>
-      </c>
-      <c r="M77" s="9" t="b">
+        <v>99</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="C77" s="8">
+        <v>450</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F77" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="H77" s="18" t="s">
+        <v>429</v>
+      </c>
+      <c r="I77" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="J77" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="K77" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="L77" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M77" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B78" s="15" t="s">
-        <v>552</v>
-      </c>
-      <c r="C78" s="9">
+        <v>100</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="C78" s="8">
         <v>450</v>
       </c>
-      <c r="D78" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E78" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F78" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G78" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="H78" s="19" t="s">
-        <v>454</v>
-      </c>
-      <c r="I78" s="19" t="s">
-        <v>455</v>
-      </c>
-      <c r="J78" s="19" t="s">
-        <v>456</v>
-      </c>
-      <c r="K78" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="L78" s="10" t="s">
+      <c r="D78" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F78" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="H78" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="I78" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="J78" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="K78" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="L78" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M78" s="9" t="b">
+      <c r="M78" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B79" s="15" t="s">
-        <v>553</v>
-      </c>
-      <c r="C79" s="9">
-        <v>450</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E79" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="F79" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G79" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="H79" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="I79" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="J79" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="K79" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="L79" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="C79" s="8">
+        <v>420</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E79" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G79" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="H79" s="18" t="s">
+        <v>435</v>
+      </c>
+      <c r="I79" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J79" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="K79" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="L79" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M79" s="9" t="b">
+      <c r="M79" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B80" s="15" t="s">
-        <v>554</v>
-      </c>
-      <c r="C80" s="9">
+        <v>103</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="C80" s="8">
         <v>420</v>
       </c>
-      <c r="D80" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E80" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="F80" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G80" s="16" t="s">
-        <v>369</v>
-      </c>
-      <c r="H80" s="19" t="s">
-        <v>463</v>
-      </c>
-      <c r="I80" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="J80" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="K80" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="L80" s="10" t="s">
+      <c r="D80" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F80" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G80" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="H80" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="I80" s="18" t="s">
+        <v>437</v>
+      </c>
+      <c r="J80" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="K80" s="18" t="s">
+        <v>438</v>
+      </c>
+      <c r="L80" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M80" s="9" t="b">
+      <c r="M80" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B81" s="15" t="s">
-        <v>555</v>
-      </c>
-      <c r="C81" s="9">
-        <v>420</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E81" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>525</v>
+      </c>
+      <c r="C81" s="8">
+        <v>250</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F81" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="F81" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G81" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="H81" s="19" t="s">
-        <v>464</v>
-      </c>
-      <c r="I81" s="19" t="s">
-        <v>465</v>
-      </c>
-      <c r="J81" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="K81" s="19" t="s">
-        <v>466</v>
-      </c>
-      <c r="L81" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="M81" s="9" t="b">
+      <c r="G81" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B82" s="15" t="s">
-        <v>567</v>
-      </c>
-      <c r="C82" s="9">
-        <v>250</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="E82" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="F82" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="G82" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="H82" s="11"/>
-      <c r="I82" s="11"/>
-      <c r="J82" s="11"/>
-      <c r="K82" s="11"/>
-      <c r="L82" s="11"/>
-      <c r="M82" s="9" t="b">
+        <v>107</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>546</v>
+      </c>
+      <c r="C82" s="8">
+        <v>620</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F82" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="H82" s="18" t="s">
+        <v>439</v>
+      </c>
+      <c r="I82" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="J82" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="K82" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="L82" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M82" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B83" s="15" t="s">
-        <v>556</v>
-      </c>
-      <c r="C83" s="9">
-        <v>620</v>
-      </c>
-      <c r="D83" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E83" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F83" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G83" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="H83" s="19" t="s">
-        <v>467</v>
-      </c>
-      <c r="I83" s="19" t="s">
-        <v>468</v>
-      </c>
-      <c r="J83" s="19" t="s">
-        <v>469</v>
-      </c>
-      <c r="K83" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="L83" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="M83" s="9" t="b">
+        <v>108</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="C83" s="8">
+        <v>360</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="H83" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="I83" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="J83" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="K83" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="L83" s="10"/>
+      <c r="M83" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B84" s="15" t="s">
-        <v>557</v>
-      </c>
-      <c r="C84" s="9">
-        <v>360</v>
-      </c>
-      <c r="D84" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E84" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F84" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G84" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="H84" s="19" t="s">
-        <v>470</v>
-      </c>
-      <c r="I84" s="19" t="s">
-        <v>471</v>
-      </c>
-      <c r="J84" s="19" t="s">
-        <v>472</v>
-      </c>
-      <c r="K84" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="L84" s="11"/>
-      <c r="M84" s="9" t="b">
+        <v>109</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="C84" s="8">
+        <v>445</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G84" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="H84" s="18" t="s">
+        <v>445</v>
+      </c>
+      <c r="I84" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="J84" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="K84" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="L84" s="10"/>
+      <c r="M84" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B85" s="15" t="s">
-        <v>566</v>
-      </c>
-      <c r="C85" s="9">
-        <v>445</v>
-      </c>
-      <c r="D85" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E85" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F85" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G85" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="H85" s="19" t="s">
-        <v>473</v>
-      </c>
-      <c r="I85" s="19" t="s">
-        <v>474</v>
-      </c>
-      <c r="J85" s="19" t="s">
-        <v>475</v>
-      </c>
-      <c r="K85" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="L85" s="11"/>
-      <c r="M85" s="9" t="b">
+        <v>110</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>523</v>
+      </c>
+      <c r="C85" s="8">
+        <v>340</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="H85" s="18" t="s">
+        <v>448</v>
+      </c>
+      <c r="I85" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="J85" s="18" t="s">
+        <v>450</v>
+      </c>
+      <c r="K85" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="L85" s="10"/>
+      <c r="M85" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B86" s="15" t="s">
-        <v>565</v>
-      </c>
-      <c r="C86" s="9">
-        <v>340</v>
-      </c>
-      <c r="D86" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E86" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="F86" s="10" t="s">
-        <v>17</v>
+        <v>111</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>522</v>
+      </c>
+      <c r="C86" s="8">
+        <v>270</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F86" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="H86" s="19" t="s">
-        <v>476</v>
-      </c>
-      <c r="I86" s="19" t="s">
-        <v>477</v>
-      </c>
-      <c r="J86" s="19" t="s">
-        <v>478</v>
-      </c>
-      <c r="K86" s="19" t="s">
-        <v>479</v>
-      </c>
-      <c r="L86" s="11"/>
-      <c r="M86" s="9" t="b">
+        <v>347</v>
+      </c>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="10"/>
+      <c r="K86" s="10"/>
+      <c r="L86" s="10"/>
+      <c r="M86" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B87" s="15" t="s">
-        <v>564</v>
-      </c>
-      <c r="C87" s="9">
-        <v>270</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="E87" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="F87" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G87" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="H87" s="11"/>
-      <c r="I87" s="11"/>
-      <c r="J87" s="11"/>
-      <c r="K87" s="11"/>
-      <c r="L87" s="11"/>
-      <c r="M87" s="9" t="b">
+        <v>112</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="C87" s="8">
+        <v>480</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F87" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="H87" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="I87" s="18" t="s">
+        <v>453</v>
+      </c>
+      <c r="J87" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="K87" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="L87" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M87" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B88" s="15" t="s">
-        <v>558</v>
-      </c>
-      <c r="C88" s="9">
-        <v>480</v>
-      </c>
-      <c r="D88" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E88" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F88" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G88" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="H88" s="19" t="s">
-        <v>480</v>
-      </c>
-      <c r="I88" s="19" t="s">
-        <v>481</v>
-      </c>
-      <c r="J88" s="19" t="s">
-        <v>482</v>
-      </c>
-      <c r="K88" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="L88" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="C88" s="8">
+        <v>330</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F88" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="H88" s="18" t="s">
+        <v>455</v>
+      </c>
+      <c r="I88" s="18" t="s">
+        <v>456</v>
+      </c>
+      <c r="J88" s="18" t="s">
+        <v>457</v>
+      </c>
+      <c r="K88" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="L88" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M88" s="9" t="b">
+      <c r="M88" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B89" s="15" t="s">
-        <v>559</v>
-      </c>
-      <c r="C89" s="9">
-        <v>330</v>
-      </c>
-      <c r="D89" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E89" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F89" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="G89" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="H89" s="19" t="s">
-        <v>483</v>
-      </c>
-      <c r="I89" s="19" t="s">
-        <v>484</v>
-      </c>
-      <c r="J89" s="19" t="s">
-        <v>485</v>
-      </c>
-      <c r="K89" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="L89" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>549</v>
+      </c>
+      <c r="C89" s="8">
+        <v>490</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F89" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="H89" s="18" t="s">
+        <v>458</v>
+      </c>
+      <c r="I89" s="18" t="s">
+        <v>459</v>
+      </c>
+      <c r="J89" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="K89" s="18" t="s">
+        <v>461</v>
+      </c>
+      <c r="L89" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M89" s="9" t="b">
-        <v>1</v>
+      <c r="M89" s="8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B90" s="15" t="s">
-        <v>560</v>
-      </c>
-      <c r="C90" s="9">
-        <v>490</v>
-      </c>
-      <c r="D90" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E90" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="F90" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G90" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="H90" s="19" t="s">
-        <v>486</v>
-      </c>
-      <c r="I90" s="19" t="s">
-        <v>487</v>
-      </c>
-      <c r="J90" s="19" t="s">
-        <v>488</v>
-      </c>
-      <c r="K90" s="19" t="s">
-        <v>489</v>
-      </c>
-      <c r="L90" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="M90" s="9" t="b">
-        <v>0</v>
+        <v>115</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>521</v>
+      </c>
+      <c r="C90" s="8">
+        <v>350</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E90" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G90" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="H90" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="I90" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="J90" s="18" t="s">
+        <v>463</v>
+      </c>
+      <c r="K90" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="L90" s="10"/>
+      <c r="M90" s="8" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="B91" s="15" t="s">
-        <v>563</v>
-      </c>
-      <c r="C91" s="9">
+        <v>116</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="C91" s="8">
         <v>350</v>
       </c>
-      <c r="D91" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E91" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="F91" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G91" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="H91" s="19" t="s">
-        <v>490</v>
-      </c>
-      <c r="I91" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="J91" s="19" t="s">
-        <v>491</v>
-      </c>
-      <c r="K91" s="19" t="s">
-        <v>338</v>
-      </c>
-      <c r="L91" s="11"/>
-      <c r="M91" s="9" t="b">
+      <c r="D91" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G91" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="H91" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="I91" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="J91" s="18" t="s">
+        <v>465</v>
+      </c>
+      <c r="K91" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="L91" s="10"/>
+      <c r="M91" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="B92" s="15" t="s">
-        <v>562</v>
-      </c>
-      <c r="C92" s="9">
-        <v>350</v>
-      </c>
-      <c r="D92" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E92" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="F92" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G92" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="H92" s="19" t="s">
-        <v>492</v>
-      </c>
-      <c r="I92" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="J92" s="19" t="s">
-        <v>493</v>
-      </c>
-      <c r="K92" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="L92" s="11"/>
-      <c r="M92" s="9" t="b">
+        <v>117</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="C92" s="8">
+        <v>390</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E92" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="H92" s="18" t="s">
+        <v>439</v>
+      </c>
+      <c r="I92" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="J92" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="K92" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="L92" s="10"/>
+      <c r="M92" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B93" s="15" t="s">
-        <v>561</v>
-      </c>
-      <c r="C93" s="9">
-        <v>390</v>
-      </c>
-      <c r="D93" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E93" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="F93" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G93" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="H93" s="19" t="s">
-        <v>467</v>
-      </c>
-      <c r="I93" s="19" t="s">
-        <v>468</v>
-      </c>
-      <c r="J93" s="19" t="s">
-        <v>469</v>
-      </c>
-      <c r="K93" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="L93" s="11"/>
-      <c r="M93" s="9" t="b">
+        <v>118</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="C93" s="8">
+        <v>210</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G93" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c r="L93" s="10">
+        <v>100</v>
+      </c>
+      <c r="M93" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C94" s="9">
-        <v>210</v>
-      </c>
-      <c r="D94" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E94" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="G94" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="H94" s="10"/>
-      <c r="I94" s="10"/>
-      <c r="J94" s="10"/>
-      <c r="K94" s="10"/>
-      <c r="L94" s="11">
-        <v>100</v>
-      </c>
-      <c r="M94" s="9" t="b">
+        <v>119</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="C94" s="8">
+        <v>250</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G94" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="10">
+        <v>80</v>
+      </c>
+      <c r="M94" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C95" s="9">
+        <v>120</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>552</v>
+      </c>
+      <c r="C95" s="8">
         <v>250</v>
       </c>
-      <c r="D95" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E95" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="G95" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="H95" s="10"/>
-      <c r="I95" s="10"/>
-      <c r="J95" s="10"/>
-      <c r="K95" s="10"/>
-      <c r="L95" s="11">
+      <c r="D95" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c r="L95" s="10">
         <v>80</v>
       </c>
-      <c r="M95" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C96" s="9">
-        <v>250</v>
-      </c>
-      <c r="D96" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E96" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="G96" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="H96" s="10"/>
-      <c r="I96" s="10"/>
-      <c r="J96" s="10"/>
-      <c r="K96" s="10"/>
-      <c r="L96" s="11">
-        <v>80</v>
-      </c>
-      <c r="M96" s="9" t="b">
+      <c r="M95" s="8" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:M96" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:M95" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G59" r:id="rId1" xr:uid="{D2F1E056-574E-2348-A7CC-BEE77F56585D}"/>
-    <hyperlink ref="G81" r:id="rId2" xr:uid="{41696CAC-9DCE-E340-9C0B-3555AC05CD1A}"/>
+    <hyperlink ref="G80" r:id="rId2" xr:uid="{41696CAC-9DCE-E340-9C0B-3555AC05CD1A}"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>

--- a/backend/app/iiko/products_head.xlsx
+++ b/backend/app/iiko/products_head.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/super_daneel/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E802E22B-B058-F247-BD9C-EAE7411661CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9614E83-23FF-5342-AFD5-267ECC5648EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -499,6 +499,9 @@
     <t>Пиво коричнево-рубинового цвета.</t>
   </si>
   <si>
+    <t>https://s2.wine.style/images_gen/142/142746/0_0_prod_desktop.webp</t>
+  </si>
+  <si>
     <t>Пиво обладает насыщенным янтарным цветом.</t>
   </si>
   <si>
@@ -1102,9 +1105,6 @@
     <t>https://s2.wine.style/images_gen/262/26249/0_0_cat.webp</t>
   </si>
   <si>
-    <t>https://s2.wine.style/images_gen/262/26265/0_0_cat.webp</t>
-  </si>
-  <si>
     <t>https://s2.wine.style/images_gen/262/26258/0_0_cat.webp</t>
   </si>
   <si>
@@ -1465,9 +1465,6 @@
     <t>La Trappe Quadrupe (0,33 л.)</t>
   </si>
   <si>
-    <t>Vander Ghinste LeFort Tripel (0,33 л.)</t>
-  </si>
-  <si>
     <t>Mongozo Banana (0.33 л.)</t>
   </si>
   <si>
@@ -1567,9 +1564,6 @@
     <t>O'Hara's Irish Red (0,5 л.)</t>
   </si>
   <si>
-    <t>Carlow O'Hara's Irish Stout (0,5 л.)</t>
-  </si>
-  <si>
     <t>O'Hara`s Double IPA (0,5 л.)</t>
   </si>
   <si>
@@ -1700,6 +1694,12 @@
   </si>
   <si>
     <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAsYAAALGCAYAAABGaFe1AAAABGdBTUEAALGPC/xhBQAAACBjSFJNAAB6JgAAgIQAAPoAAACA6AAAdTAAAOpgAAA6mAAAF3CculE8AAAABmJLR0QA/wD/AP+gvaeTAAAACXBIWXMAAA7DAAAOwwHHb6hkAACAAElEQVR42uydd5xc1Xmwn3PunT7b+652tUUVCRC99w4GjDHGdmLHuMROYjvJF9cElyQ4tmM7+Rznc3ABuQRXML2aXgVCCCHUy2p3tb3N7E6fe8/5/rgjrVa7KyQQRiudh59+SFPu3HnnzrnPPfOe9xUYDAaD4aDw+NewjikvDrvFpeGAIuxqK2xBUEjX7yphCwuJllIobQspbbSWaC2V9NkAUuUdhFAIobRSjpbCQSilXZQltaOVlXMhYwk3lZWkrLFY6rWRsdT5/4xrom8wGAxvHWFCYDAYDBNiu6S5qdKPqBWuqMaS5SBLQZUKIUpQohyhykGUCigFUaoEUQlBpVRYShl4J/ZbKZWVUqYUZKQmATqmIQY6hpYjSD2itY6DjIGK4aoRbemBHLpv3Y7OISPWBoPBYMTYYDAcIay8GXteYG6DdmmSUs7RWI1C6lqBqAWqtaZao2qFkOUSrCMpNgpcrdWIQPYJwQAwoNF9Wok+gdullNopLDq3Zju6T/oUjjmaDAaDEWODwWA4hHn9q/ga5zQ3Y8t5CGueRs8VqCahRZOSeg7I2iNNeN8OgQbVp6FTKtmpBTsFogPtbsVRW7t27tix9F/Im0gZDAYjxgaDwfA2s/Jm7BZf43wL30IpVBtCtgjNPCTzlJJzpcQ2UXoHxVnhSKk6UGzVgq1o1a603OaS39Se79piZpsNBoMRY4PBYHjTAhw4SkiOEpolWnAUWi14p3J4DW9VmlUWITcLzXotWKcV612y640wGwwGI8YGg8FQIP6DunIdDh4nhF6mhDxWaHkcUi2QSL+JzhEgzKgcSm7WQq2WWq3RWrwqUpnVJZ/pHTHRMRgMRowNBsNhy+BPG+v8wj5eS+t4BMdJ9DKlxFwpkSY6ht2yrFBS6g6FeBXNaqHcV3LaeaXq4129JjoGg8GIscFgmHV0frc+GC0LnGAJfSpCngKcKoRsNJExvFm0Vl3ACrR60dViRWI0u6rpcz0ZExmDwWDE2GAwHFLEbmlqEfhPF5JTQJ+qhD7WpEMY3k4UKie1WANihVa8qMk9X/qxznYTGYPBYMTYYDD8SRlc3rTQp3xna6nPkkKeI6DJRMXwTqOhU2n1lFDimbzMP111Q+cmExWDwWDE2GAwHFSGb21ZasE5QohztJZnS0mNiYrhUEcp+oVQT2utn3LhqYqPtr9uomIwGIwYGwyGA2Lwp411fit4sRDqIgUXSK9DnMEwu0UZ3SfhMa3lH3Nu5hGzoM9gMBgxNhgMU+j/79JIMFx+tpbiItAXS+QSExXD4S/Kah2IR4TSf8ykRp6u+XQsaaJiMBgxNhgMRyDxW1vmYckr0eIKrdSZpnmG4YiWZKWyQspnEfp+XHVvyUfbt5qoGAxGjA0Gw2HK41/DWtY493Qp7SuQ+l1mVthg2Icoo9ahxH1KOfe/2tXx/Pn/jGuiYjAYMTYYDLOYwZ+WRH1WxRVSiCuBS0FUmKgYDAeKHgYeUlrfm3eH76/6eDxhYmIwGDE2GAyzgNgPm0pFwHelFuJaJBdLCJmoGAwHBwVpFI8Ire/Q2fy9pX/dGTNRMRiMGBsMhkOInltqKsNEr5GWuEYpdb7JFzYY/gSSrFRWSvm4cvWdKRJ31n+sf8hExWAwYmwwGN4BYj+pL0OG3iuEeL+Gs6XENlExGN4pScYR8LTW+jeo9O2ln+gZNVExGIwYGwyGt5He79SEQ5WRK9HyA6AuNTPDBsOhKMkqC/IhhPp1eih5b93n+1MmKgaDEWODwXAQWHkz9gJ/60VK8AEL3o2QRSYqBsMsQatxF+6Sml9vzm3/40mfwjFBMRiMGBsMhgNkdPncY9H2DQj9QUvIKhMRg2F242o1iBa/QjjLy27oWGMiYjAYMTYYDPsg/oO6cqLRP0O4NwjkcSYiBsPhiUatRlvLSSRuK/lM74iJiMFgxNhgMAC/vQZ56ZWtlyC4QQuulMigiYrBcGSgUBmhuRfN8ofu3f7w9XeiTFQMBiPGBsMRx8iPWhotv/yE1voGKeUcExGD4QiXZKV2CiGWuzn1k/JPtneZiBgMRowNhsOaG29EfK6t6WKE/5No9S4ppM9ExWAwTBJkrfIIeR8696Pvbut85Kab0CYqBoMRY4PhsKH3hy1VoZD4qBR8AmSbiYjBYNhPTd6mND9Jp/WtdX/dPmjiYTAYMTYYZi3x5U2nCHyfVVpfa2oOGwyGN63HSmWlEHdo8v9VckPniyYiBoMRY4NhVrDyZuz5gdZrJfwdQp5qImIwGA4qWq1Q8H+3ZLffYeoiGwxGjA2GQ5LuH9VWRAKRvxRa/5UQstFExGAwvK1+rFWXFuJ/ktnkjxs+2TdsImIwGDE2GN5xhn/assSyrL9F8WfSImwiYjAY/pQolxSS21zX/X7Fx9vXmYgYDEaMDYY/OSO3tJwhpPyi0OIKKZEmIgaD4R0VZIXSQt+vlfp2+cfanzMRMRiMGBsMbys33oj4h7a2q9DiC5bkdBMRg8FwKOIqnkfof//etm33mHJvBoMRY4PhoLLyZuwFgfl/poX7eYlcYiJiMBhmAwq1TmjrO5uzW24zC/UMBiPGBsNbovO79cGS8vBfIvkHAU0mIgaDYTaioRPF9+IjqR83fa4nYyJiMBgxNhj2m+4f1YaiwcintBafl1BnImIwGA4HFPQKob+TyCRvbvhkX9pExGAwYmwwzEjvd2rC4YrQX2lpfU4iak1EDAbD4SnIuk8o97up4fT/1H2+P2UiYjAYMTYYpgox9uelpMZExGAwHBGCrOgXON8xgmwwGDE2GLwc4rLQX2shvmCE2GAwHNGCrPW/x0fTPzQ5yAYjxgbDEcbKm7Hn+9puEFJ/xXSpMxgMBg+tVZdW4l+35LctN1UsDEaMDYbDnBtvRHyurfV9Ush/ARaYiBgMBsO0bFZaffW727b/ztRBNhgxNhgOQ+K3tl4G3CSkPN5Ew2AwGN4YrdQrwI0lH93+oImGwYixwXA4CPHyplO08P27RJxtomEwGAwHjkI/LXT+CyU3dL5oomEwYmwwzEJGl8+dK4Xvm1pxvZRIExGDwWB4C3KsUELyW6XzXy67oaPDRMRgxNhgmAWM/Ki52ApYX9KIv5MQMhExGAyGgyjIkBbo/+tm3W+Vf3LHmImIwYixwXAI8vjXsI5vnfeXuHzNlF4zGAyGt1mQFf1Y/PMr27f++Px/xjURMRgxNhgOEeK3tl6m4btSyqNMNAyHEv5jPoC780Xcke0mGIbDVJDVegGfMwv0DEaMDYZ3mNhPGtq0HfxPS4grTTQMh9Tgagexms9CljRBJo7btwZ3eIsJjOGwxdX6XuFk/r70E93bTDQMsxWzIMkwK+n9Tk04vrztX/AFXjdSbDgk0QqdHgU0OjcO+aSJieGwxhLiSnyB1+PL2/6l9zs1YRMRw2zEzBgbZh2x5a3XC/iO6VhnOOQHWGnhW/ZhVPdKnP7XTUAMR851oVZdGj5fesP235poGIwYGwxvA8O3tiy1pfVfAs4z0TAc6siiOqzWCxG+AELYqMGN5Hc8aQJjOLIEGZ5wlPvZio+2mytDgxFjg+Fg0PudmnCosujroP5OCukzETHMBnyL3gXhaoSUCGEjEGRf/Tk6nzLBMRxRKK3yIP9vemj863Wf7zdfAMMhjckxNhzSxH/acnmkqmidFHzeSLFhViH2Gl6FmHqbwXAkiIaQPin4fKSqaF38py2Xm4gYDumh24TAcCgy+NPGOr/l+74Q8joTDcOslIHSuVgt5yMsCyFsdLyT3OYHTGAMRzxaq9/n3PzfVn28q9dEw2DE2GDYBzfeiPhca8tfS2ndBJSaiBhmtRxHqrHKW9CZMZzBDSYgBsMEMaXcG7+7vf2HN92ENuEwGDE2GPZi+NaWpT4hfoKQp5poGGa9FFfOx6o+GmfDXVhzTkUGouS2PmICYzDsiVYr8lp/wizOMxwyY7cJgeGdZuXN2LFb5/+TJcVKI8WGwwVhBSBYCkIggqUQKDJBMRimfFHkqZYUK2O3zv+nlTdjm4AYjBgbjmhGf9q0bEGw9SUp9U0SGTQRMRgMhiNNRGRQSn3TgmDrS6M/bVpmImIwYmw44tj8ffzx5W3/Imz7RYE8zkTEMFvxFte9+aFU2H4TRIMBEMjjhG2/GF/e9i+bv4/5YhiMGBuODOK3zD25uqT1FSHEVyTSDH6G2Tl4hkuw5ixDRGvQWk26zwqVIsOVewlwCKu0aapE+0JYc07AKm82QTWY7xXSL4T4SnVJ6yvxW+aebCJi+NNfoBkMfyJe/yq+xpa2f9FafE5Kk0tmmKWDpu1HNByDCJeh2legM+Pe7ZYPWbMEWdEGvkhh3kHivPpz7LZLsMqaUVqh8yl0vAPVvwaVihVsQGLNOQkRjKK6X0Ulh02gDUc8SuEIob/b1b7tq0v/hbyJiMGIseGwYfinLUtsW/zSpE0YZjMyWgENx4LW6O3Po50sAFblPETtUoQvDNLGKz41gxi7OcAF7aJHd6C6XkS53jnfaliGKJuDHtyC27/JBNxgADRqtePoD1V8vH2diYbh7cYyITC8ndx4I+LejzT/g7DsX0tEo4mIYfbZsICSOkTNfERliyfF7Z4UCyGxmk9FVMwDy0YIa4/udgIQqL41yPJ5yFApGg3aBTQIkMFSKGtGJ/rAyaDH+5DhEiidgyipQfgD6GwClGs+B8MRi0DUCSlv+PJVxRn76NiKp582MTG8ncebwfA2MfLTuU2W7fuZgPNMNAyzb3QUUFYHFY1gBRFaIKQFHau8FAghsFvPglCF91hpIaRv/2eMUQitUShwsrjbnkCnRhBSItvORvuDgEI5ORjvhYF2cHLmczEc0Wh4wnXyHyn/eEeniYbhbZkLMSEwvB3El8//C9v2rTFSbJiVREqgZRlUt0AuDaqwuC7WvTsv2G46AcJlB2kktrHmnoawfGilUN2r2d0LLDMO0WpoPRFROcd8NoYj+3oVzrNt35r48vl/YaJhMGJsOOQZ+VFzcfzWeb8RQv8M09LZMBupqIe6+WD7IdbnnYqlBOWi+7d4J+fSOiipP7ivawcQDcsA0Kk4jPd7tweLYGCr9/fyOdC4GCyTBWc4oikVQv8sfuu834z8qLnYhMNgxNhwSBJf3nSK7ZOrheR6Ew3DrKR6DpTVeDI8PgSpMQh551091ocu5PqKmsXsXybarmlftX8DcnEdMuRdT+qBzRPDdLQSejd62wsWwZxFRo4NRzxCcr3tk6vjy5tOMdEwGDE2HDLceCMi9rO2L2vsZ5Cy1UTEMCspr4GiCu/v+TT0bYfKwnpRrWGkyzsZlzeCHdovKXZ7ViEAp+sFcLP7caYXyNpF3rOzSS+NAiBSBrksjPR4//YHoH6+l9tsMBzRFiNbNfYzsZ+1ffnGG826KYMRY8M7TP/ypprPt7U9LBH/JoX0mYgYZiXhCJRV7vJZ6Nvmyag/NCHK+YznrqX7l+erBjeghzZjL30fVnEd+c33g9qPxXORCoTlfZV0Ymji9opG9FAX5JLevwMhqDaFXgwGKaRPIv7t821tDw/c3FhrImIwYmx4R4gtb7okoP1rhBAXmWgYZi1CoKvq2Z0aMT4C2TSUVE08Jj3mPVRaECh6Yyke2Y7qeQV74RXgj2A1nY2wQzhbHgH9BmkVQiJKG7y/x/v3EOZSbxcH9liMHy2BUMR8hgYDIIS4yO8PvBpb3nSJiYbBiLHhT8Zvr0HGl8+7Ce1/QEpqTEQMswbf1IaLurwSCjO0XspEIV0hVDRFjCmq2qNO8QzEu1Edz2PPvxQCJbtl12q7ELSL2/HMROrxTCf4Ik/KdWasUPcYrwxcuATS45BN7bH/03wFpQDb5CAbjkCpkdSg/Q/El8+76bfXGMcxHDimLa/hgOhf3lQTFP5fCzjPpDcaZhs6HETEE5NvjO6xqD2bAicP/iDIPcRyV9vnYMmuLXkNOXJZcLLec1QW7TiowY1YredAuHKy7Eof9rxLya/5BUo7ECpDWH6w/Wjb76VPWD5Pav3RiSc6OfB54i7Cpehk3JvVrijMKvsDEApBOj3xPqMRxFjCfOCGI1WOJfBPl1497/T+q3IfqLmhs99ExWDE2HDQGbml+WyprV8LQb2JhmF2mrFAR8KIpDfjqiNFkwU4XZDJ0B6y7Oa9WsYA8W6I70Rlk2jbhwyUgC9c+BNCRIqw7GNQPa9iRevBCk56eTW4DhEqR5S1gpNGO2lIj6Jz4+jcOCqbQvr8CP8es9X5FPgKQh4spE2Mj0D5xNdQF5UhdomxlOhAEIERY8ORjYDzAtr3ysgtzR8o/9gO0y/PYMTYcPAYXT7v8wL1DSmEWWBnmL0nykwat6ICqyDGRKKTH5AqVIFwczDUCam4N4scKkGESyBYCoEo0l+EcDIQ24moPgqkb1LnO+HmcdufwGq9xKuBDLjDm1ED67AWXQ22D1DIXZ3vhrdBPo1d0Qz5JDo7joyUQSaO6lnnVZ+IloFVGLIdxxN2q/BLcXCiSoYqKQbXMR+2wQBIKerR8tHR5fP+qeyGrd8xETEYMTa8JWI/qS/TdujnluBKk5JumPXkHG9GtSiCGE+i/QFvyZ1yIZvwJFgI7992AEpqobgarABoURBTG4SFjnejBrdhl88D/+TrRVl/Au6Op1A7n8eaezY62YPb+QzW4veAHcRrCT2BGt4K2TGsimbwh73XjpQDykvTGOvxco3Tca9+sevC2BAUlXribVmebCsXolHE0JD5rA2GXd9Hr2LSv48ubztLOOm/KP1Ez6iJimHGCRQTAsNMjNwy9xhbWHea2sSGwwlVU42wfYjubnTdHEQyAckxCBd7JdrCxSD9Xm7vjjVQ2QSVLQgtELvFWHozxskRELZXzs3JgZtG53MIN4PO51BOBqtqIXpkG1qD9Ie9bftCnvz6Q54oC8AKIEIlYEm0ctEoQKGSo7BjJVQ3I0prvSYj2XFIjsLYiLegsLgMxuPocAgdDiG7dnoLCQ0Gw14DgNruaPea8o91vGaCYTBibNhvYrfMvU4K61akjJpoGA4ndGkxFJchYqOQyUBxGTpcjPAFAKtQdcL2hsd4n9d1DonIphCZhJfekB6bJJ5CCIQ/4uUZ24GC7EoQPk+mlQsqj3azkM+BmwIng5vLTNk/6QsiwuXocDGEilHSD/GdUFSOsP1orQDHe32Vg0TMS/lIp1FzGiGXQfb2mQ/aYJhZjhNKux8t/VjH700wDEaMDfvkxhsRn5/X9g2txBcLK3sNhsMLvx9dW4dGgLCR/Ts9WW0+akKM8w5kEp5wJmOgvNrDwvIjImUQLEaEShD+KNhhT4T3yDH2yrFJT6ilRAgbISRKK7Sbw0ulUAjtovIpdC7pzQJn45COo9MjqD2lOVwEkXJEqAjtD4FwC6XlumF0EN3YgkaD1IixMcTIiPmcDYZ9ujFKSP3t72zd9k833YT5ecVgxNgwldHlc0sQ9m0W4goTDcPhjJ4zB235QFjI+Kg3FEZLIZXwKj7kCh3qgiGIVnil1QJFCH+YXTnG0ioIsJZeXvKbEuPC4rvCjPKu27Vy0U4GcuOo5IiXNpEa9WRYWlBc6jX80Arig+jKWrQAcJB9PZDJmQ/ZYNgPXPT9aOfPym7oiJtoGIwYG3YzdEvjYr8VuAtYYKJhmLVIUVg8p/bZRENXVnql2lyNTKdgLObNGstC9YdImddMwxeaENw9c4wB6ebQubRXyi2fKeQZZzyhVQ44OZR2EVojRGG/LD/CCoDt90q5+UOFxXYhhB0EXwBsC63URI6x4+ClTjiIdAydHIXEEOTy3sK7ohJ0pBjt94GbRXZ1vXGMEIACZQ4ZgwHYnHOz7678WNcGEwqDEWMD8Z82Xymk/CVSlphoGGYlts+TRNfxKja8EX6f1zQjWahCES2GojIIFnkzvtje9qQNSkM2jcgkEdkEOh1D79F5buqoKpCWrzB77PO2rxVa5UG5KCe7b2+1fV4jj1AphIpQdsirOoFCaGcixzibgsSItwDPcQrvyQ/J5H7GzPben5sD1xiy4QhHqbhW6kMlH99xrwmGEWPDkSzFtzb/g5b2tyWY/rGG2YevMMuaT0E+f8BP1yVlUOq1hBZC4n0NpDd7nBqHVMxrB73H7LOQFiJc4nXBCxSBLwJ2BOEPIXzBQlMPwcypFFlwM4WOeWl0PoHOJnbnF6t0zKs8MUnkgxCtQISL0YEwSO2lVWjHE+7UOKK/+63FMJs09Y8NR7YbgyuU88WSj+74nomGEWPDEcbKm7HnB+b9UAo+YaJhmHUDly+ACBajsinIJd/0dnRJKZRXAxYil4FEwpuF3XPWORSBSAUiWIoIFXtd7oTv7csx1gqdT6KzY5AeRSWGvUWAu6pgCAGRYi/lIxTyXiqTQPR2vbWYhrzKHDoxMlXMDYYjSZA1P9mS3frXJ30Kc6VoxNhwJBD7SX2ZsMK3C8n5JhqGWTVgSYkoroN82luU9laREkrKIB7z5BS8dISicgiXQqgELD9TcoyFhZQS8llPdPN5cHMIlUcrx0ttUIU/wsvpFdJCi0L6gu2lWgjbj7YDYPm8P9LL/Z1Ux9hxQOcgM4ZIjaDHhyGbnhjBo8WeyKeSByXGsti7UFBjveaAMxyxaMXj2k291zQDMWJsOMyJ/7h5vrKtey0pFppoGGYTVkkd2vKhRnd61RhmNDtRWFum2e8iTP6CDEdKvQVxe+YYI0FpRDaDyKe8smqpMXRmvJDve/CQ/hAiVAahYnSwCAJhFBbgMCnH2ElDMu7NbqcSBzbiC+nFbx+xEbYfUdqASI/hJofNwWc4InGV3iQd98qSv9yxxUTDiLHhMGT0p03nWrbvdhAVJhqG2YIMFiFK56BjO1GZ8X2Ys+W1bHbyu+sOvyHRInRJBQTCEznGwkuBIJeBdCHPODn2zgXAFyzMYJcggmG0KIjyrhzjfAaRjMPwwAFcZRRilc/ts0OeLKrymo0Mt6McUwLOcCSih10n/96yj3c+aWJhxNhwGBG/pe1D2tI/lUi/iYZhdoxOAlm1EKHyuEPb9mHOFoSiXsm0XPbATnmlFVBWAcJGaA2ZNCTGJjX1OOQIRqC4HEJFhdJuDuRSiO6ON7GtsFc5Ix2fcQZZSAtZvQCyKdzRDnNcGo44FConXPHxko9t+6WJhhFjw2FA7GdtX0aJm0wnO8OsGZjCZcjK+eiBjajMPmZri2u8PN7Em/y537bRVbWIxBgkxvc5ezrJxf0hCFchQuWIUAVEqpCBIpA+hNhV4MX1hlgh0dICUcgjRhcW1o2gc2OQHUdnx9CZuLfYLhPf7/0gEPKafeSzEHuTOddCQFGVl2O9jzjK4lpEyRxU3+vofMYcpIYjS44VCqlvLP3Itm+aaBgxNsxSfnsN8tKrWv9LCPk3JhqG2YJduxRt+XF7Vs8oiDJaCeFi1EiXlzoxo80VKka4b77KgvAFkSUNEK33RDhY7DXkkD6vFbQvCoFipBTokUHU0Cg6mUSnM2jHQSiBsiwvb7eoGCIRZEQighrtprw6wtoFNAiBQKBzCVRqBD3WA2M7Uem32JTLZ3sLAveVVxyIIErq0GP96BlSVoTtx2o4HjXWgxrtNAer4YhDa/X/Hrpn+2evv9O0xzFibJhVdH63PlhcHrpNSvEeEw3DbEDaQaymU1GjO3BHd0z/GF8IquZBcgAV7595Y5YNkSKvekP2wGY3hZCI0kZERRuyYh4iUAJOFu1kQTmo3nHcjhhu1xjOzjHUSBqddiDngC0QtvQqtaG9RW6ORudddNZFp3Ko8Qw65yCCPqz6YqzqKLIqglUdRtYUYc+twGquRgUjICxwUpAYRI91e3/i3W9uxjYU9TruJUb3nVdc2Qx2CD2wecaybXb9MWCHcbteOugLEA2GQx2l9B/GRtJ/1vS5HvPTiRFjw2wg/oO6clUUuduCM000DLNCiovrsGqPxel4Dp2dfrbSqp6PDhahu9ei3fzMQlxW583Cxvr3uyqFkBairAlR1owoboRQKfjCSAfya9pxNnbj7hjC6RxBxzKoZA6dzKJdjQwHEEUhRDiACFj7L8Z+GxH1I8M+CNgIvwTLQkgBlkSUF2E1lGO3lmIvrkBENKg8WrteTvDYTtRw+4FJsrSgrMb7+0jvjIIsgkXIuqNgdCdubPrGIbKkAVlzNO4+PjOD4XDFhWflePLqks/0jphoGDE2HMKM/HRuk7DthyzEYhMNw2zAqluGDFfgtD/lLSTbW8BCJcj6Y1DxbtTQ9hmET0Jlk1eDeGCHV21hfzyxqBpROR8RrfHqFUsbNZAjv2YAZ8sIamAMHBdcF51z0DkHMs7bL8YIryJdXqEzOXQqhywPYh9dhf/kOuyF5d57tmxIjaAGNqGHO/Z/9jYUhfI5XuOQ0RnqFQuB1XAMwg6hdq6etpW1CBRhtZyH7nsVN2ZSKwxHmhzrDdpxLi3/eIc5+I0YGw5Fhn4yd5HPth4RQjaaaBgO+cFHSqyW8yGfwOlcMb241hyFLJ2D6nxx5jzbsnrvz3AHxAf343UtRPUCZPVCsCOg8qiBFNlnusi/2o8eyyECPvD5ELblye0hIMY6mUGlHIQUWI1F+E6bQ+D0uViL6sAfQGcS6J61MLAJlUvv3+hfOReiFTDQDsnp+xjIkgZk3VJU3zpUbOfUzVg2VtvFkOjD6XnFHNiGIwqtVVfecS+u/ETHRhMNI8aGQ4jYrc0nSuSDSFlpomE45AceXwjf/MtQw5tx+l+fer8/jGw+HZHP4nY+j55m8ZwIFaNrF4OTgd71+16EB0jbh6hbiphzvNe4I50i+9wO0g9sxlk7gIj4sCJ+RMi/W4ytoiKKv/AVYl/53CElxiLqQ4f9iJCNNacE/6kt+M9qAb+CXAJGO7wc4fR+1F8ORqDuKEQ+B/0b0flpZob9EazmM9CZOGrny1Nzj4XA13YhKAen/Un0/lbVMBgOB5QaUqjLSj+642UTDCPGhkMAr3GHfTfIYhMNwyE/6ARL8S24HHfnCtyRqakRVlkTovFk9OBm3N7XpjFciaxdDMXVqL5NEOvZ9+tZPkTtYmTNIgiXoBOQfngd6T9uwu0Zg0Tea5YX9U8R48i11yN8PpK/+cWbEmP/8ScifCF0KoUaS6LHkuR37MTp2HnQxJiAD/w22m9hLygndHY9Vq2/UMZuEN23ccYqE3ueCUTVPER5Iwx1TJuyIoREzj0NES5D7XgOlZo6w2w3n4kIVuBsvn/atBiD4TC24zHXca42jUCMGBveaSle3na1EOLXEkImGoZDfsCJ1uCfdzFO+5O48a6pYtV4MqKyDbXjOdxpyoHJaBXULwUng+5ave+FZ0Iiq+dDRQvCH0EnNcnHOsm+1IMeT6NTOUjmZhRjEQxS9On/Q+L/fQ/tOG96xrjytnvIb1jH2De/gYiUELrmWvxLljDy2b/HHe5Fhn3YbS34lx2HO9SP29mOiscPWIyVFKBctOtizYkQvrgRX0sRoNHjA+ie9V4TlH0gw6Uw5zhwHfTO1ejs1HbTdv3RiOqjUDtX4Q5tnXr/nJMQpc04G+/xKnkYDEeKGkNaa/2Bshu23W2iMXuxTAhmL/FbWz+M4H+lEAETDcOhjiyux267GHf747hjk3NVhe3DnncxsqgWZ+sfUWN9k+8XEqtxGaJmIcR3orpWezOiM71WWQNi7klQVIVKKZL3tZO4axNOZxzyClwFedf7k1MIAcJvIf0WwmchbAtZUkp+7WqEJfEffzKhK69FJxK4Pb3oXc/VIHy2J9I+G2FLb8Z395SDJvLBj+Bs20r6gftxe/vJPPQoRX/z1/iWLCb90IMIn4VKJQhdejlFf/0PuNu24Pb1oB0XgSB4zgWowSHU2Dg6rxBCIPwW+CyET4JtgSXRQhTaRCvc4TSZ53vJbY7ha4hiVVegK1u9xXrJEWYq16HzGYh1IYpqkHVHIYVAJyc3/VDjA4hcCtl0BiIQRe91gaPGepB2AKvxdHSsHdy8OfgNR8aFP/hAX/vlq8s6vnX36BoTkVl6rjIhmK1SPO+zGrlcCukz0TDMBim2Wi/AbX8cd2xy+S8ZLMFefA3SFya/8d4pIiZDJVgLzveaT+xcjerdMPML+cPI+WfCnGMBH8kHdzDyvVfIrO5DO/tXsUEIgW/+IgJnnEPgtLPwn3w6TucOrMoqAmecfeBv3udH71ElQ2uNOziI3TR5jaw9tw01OkzmmcfQhdbWWimslhaqHnyEyIc/jFVddUAvnds4wsCNKxj90euo8TzUHwVLL4WimZciaNdF7XgRBrchahZjt52FtCd3kndH2nG3/hFZ3oa96EqEZU+63+lZjRrejL3wXQh/xHwBDEfOWCekTyOXx2+d91kTDSPGhj8Ro8vnfV5Ivm9aPBtmhxTXYrdegOp4BhWfPFMsi+qwFl0NTpb8xvvQudTk+yvakG3ngZCorU+j4r0zv1D1PFh8IUTKyLw2xMA3XiL5dI83u3sABM45n7Lv/oDAKaeTfuR+Mk8+ituzk7H/+218i446oG0J2wYp0bkJMZbRCHZrC7l16yeLcXMrbkf71PiFIyAlqd/9DnfAq7rhX7aM0EWXIMPh/dqP5COd9P3N4yQe2g6BYlh0LjQeA9bMPxq6/RtRHS9CqBi54GIvjWUP1Hgfzqb7EIES7MXvRfon74vb+yp6eCv2gssRvrD5IhiOnDFPIoXk+6PL533eRMOIseFtJnZL2z9agn83kTDMigEmUondegHuzpemdLOzKuZhL7gc0iM4m+5Du3vUHhYC2XQKsuF4yMRwtzyByiSmfxFfEBaeC00nohIOw//vVYZ/UpghfRNknnyM3No1+JYc44kt4F96LCo2SuqO3yDE/i/NEH4vy8mqqyd43gVErr+e8pt/SPbJpxn7xrcm4lRSiigtw9kxzaK3aBTyeXRmIj849+qr2HMasee27Pe+qGSe2M/WMvivT+N0jnml2uadBtGymZ8T78Pd+jQoF9lyllfibg90ahRn4z1g2dhHXYcMTd6W0/MKerwbe+GlCNtkfBmOLCzBv8duaftHEwkjxoa3ifitbV+XlviGiYRhVgwuwWLstgtwB9bhDm2afMKoPQar9QJIDOBsfmBS+S9h+7EWXIosb4F4F862p2budFdSA0edDyV1pF7spvvvHiO18o073gmfj+L3/xnh88+f9v7cKysRwSD2Aq9Pjv/k07Eb5pB55qkDK0Xm91IQ3Pbt5Fa9TPqBBxj6879g+K8+gzs0tPthdkubJ5LTzBiLcAQ1NrmGc/jKq0jdfw+5DesO+HPJt8cY+M6LjD/QDnYQGo+GmjaYQfh1Zhx362OQGUPWHYs999RJj9XZMZyNdwMK31HXIKPVk+W443nIjmMtuAQhzbIWwxE2DlriG/Fb275uImHE2HCwpXj5vJuEFF8zkTDMBoTtR7adjzveg9vz6mQprluG3XQmJPrIb75/Urc2GSjCt/hdiHAFenAzTseK6dsWCwF1C6D5BFA2wze/TN+/Po07tn8d74LHn4gsLib1+OPTi/Fqrxyp/+hlCJ8fq6kZ37ITDjwOhRljlUqixuKo8enLptktrQWJnDpjLCMR9NhEPWLfvHmo8XHcgYHdtwWOP5mKf/w3Kr50E0VXX0/oxFP3uV/aVYw/1sXA/6zDGc5CeT00L4O9col3P97J4W59HJ3oh/IW7PkXTcor1tlx8hvuAtfBt/BqZFHNZDne9pj3XuZdYL4chiNvPJTia/Hl824ykTBibDhIxG6d9x0h+CcTCcPsOAlIrNbzIJ9C7Xh2shTXHovdeBo6OUB+032TpThSib3oCrQvgu5djds9Qxc1y4a5x0J5I05Pgp6vP0/84W1vuF+BBUcRXHYiAOkXX8AdHZ3xsU77NnRslOBFlxE872Lyr63GXxBjq7IKq3L/+uiIQKAgjvsuW2a3tIHWOJ07pm4jEkEVxFj4fATOPoPMk0/svr/4439D+de/Q37HVoa/dSPjd/8Wd3iQkvd/6A33L9+TYvDHm0m9Mgz+MLQcB+GS6eVYK9xtT0GsExGt9hbW+YKT5XjTPaAdfAuuQEYn5FgrhbvlEfAXYTefbr4khiNvXBT8U+zWed8xkTBibHirUvyztv+Qks+ZSBhmzaAy93TwBXG3T047sKoWIRtPQ2fiOBvvmpQ+IYtqsedfCrYftXMlbt+6GUQzgmg5HkLFJF8ZpPd7q8n37Lt5hV1TR8Xff4XKr/w7uU3egje7uga3r3efz8uteQVZVkH2+adI/eE3uF0d3nMXLCR46aX7FwxfYQY2ve8WzXZzK6q/F51JTyPG0d1iHL7uPaR+f8fu+yJXvYfIez9I5rknGfvVrRP73r4NX9t8AgsWvuEuqpzL6L07Gb2rC4QFc4+Gstp9XDQ8hx7eDsFSryLFHlUnVDpGftO93uc971JkuGJCjvMZVPtT6JIGrNol5otiOPLGRsnnYj9r+w8TCSPGhjcvxd+WiL83kTDMmgGl7mhEtBq147lJzR2s0rnIpjMgn8bZeBfKnahBLIsbsOddDNLC7XgRd2Dj9BuPlHrSZvuJPdzN8O/a0dn9qDihFOkXn0GWlFL0ng8AEDj6WDKrV+1bjFevAinxHX0cAIlf3OIJXipJ4NRT3/BlRTCEr5CjLMJhZEnJPsV4uoV3MJFK4T/2WJxNm1HjiULciin6y8+gkwniN//nNDsgCZ974X5/dok1o/T/eAs6q6BhEVTPnVmOO55Hj2wBfxHWoquRe8pxcoj81kcQ0sKafwkiUDQhx8kh6F2DqFqELGkwXxjDEShd4u9jP2v7tomEEWPDARJfPu8bEvEFEwnDrBlMShqQlfNR/etQyaE9xK4Cq+Vc0C7O5vtQe5Rkk8UN2G0XgZS4O1+cskhvN8VV0LgEtGTw1+3En+ufPvd4Ookb7Cf1/JPkNq2j6Jr3Y5VXYFVUoVOpfYvxGk+c/ccev5fF+vCfdNLuihUzks+TX7ua0b/5KLnXXkVEptbzFX4/4auuQUQiuIMDiGnKp4lwBO042PPnk121evft4cuvREQiJH5/Gyoem/K8wNJjscrKD+gzzHSn2fmf63FGc1A/HxoWzBzXHc+hR7Yj/BHsRe9G+ieab6r4TpzOZ8EKYM+/BLFH7rI7sBk93otsPAG5hzQbDEeQHH8hvnyeWUhvxNiwv8Rubf2qEJgSL4ZZg/CHkY3HQWoYNTAht9Ifwp53IUgLteNpdGqieYeM1mDPuwSkjbtz1cwzxaU10HgUOqvoXb6V1Oaxfe6Lv7kFX8Ocqd+rn/0QEQhS8ucfJXr1tdTdfjfRa987o+C6Q4O43V27c4tlcQnBc84ncNrpJH/5S0QwuM/90K6D092Fs30r+Q3rcHt6pj4mlyN1z50MvvsSsk8/hqycXNFB2Db4/dhz55K+667J4nvyKZDNkrr3D1O2G1y6DLuuHndo4IA/SyeWZ+e3XyPXnUTXtMGcRTM/tv1JdGwH+KPYi65B7lGSTQ1tRg9ugEAR1ryLJ5W5U50vgZtHNp+CEOY0ZDgCx0zBP8Zubf2qicShh6mdc8hJcduXpJRm9aphFo3wYLWdiZB+1Pand+cOCyGxF1yC8BfjDryO2z+RNyxCZfgWXQnSh9u/Brd39T6lWCXz9P5kE/mBrNdtWYNQgKvB0eicItjcQtl7rqHyox+n9Or3kHj4XtAuQgqEELiDAwTaFhI++3yS99+Nr6GRyLuvIXrN1ZDJ4LRvQ1hid0toEQrhP/o4ZGUluA6yqITcqpfJPvEE2edeQCfT+2wJHZ5fhX/ZPHxHt+Jrq8Bf7EMPjuMmcuAqhCURhRbU2s2jhvvRqWRBIEVh236Cp55J7MZ/xO0fnNQSOnrDR8mtX0v6iUemtIQu/evP4Zszl9H/+S/y3b3onPIq2PmtQjtpibCENzVS8FWtdz8dlXGJP91LZGkFVn0FQkoYH5n2I1Kj7YiiOmS0GlnahBrauHs2X43txCquQ0SrEYEiVKyz8GIKMjFEZSsiEEbHe833yHAEyrE474tXlWW/dffosyYaRowN0xC/tfkfpLRM8w7DrELWL0WW1KN2vopKTsiTNfdUZHEDKtGP2/7MxMnAF8K3+D0IXxA9shWnY4ZzQkklunUZejxP9/9swInlELs8bi8xDrYswC4pJf7gAyQevAd3eICiS64g8+rK3WIshCC/fRvRy69BjcUZ+MuPkl+/kcBRS4l84HrCV18NuRzkc5BJIauqcda/RvJ/b8HZtB6nfTs6lQZHed308u60YhyoCxG8tBU5rx5ZWYZVFEUU+RA1YawlZUjpkt8enyTG2LtEVU4SY7J5Urf/DjU0AnlnkhiHLrmY7Csvkd+ycZIYB446mpIb/obchnWM/uSH6Lw6YDHWrkZlXGJPdBM5phxfdbFXDSQRm/aj0qPbkGUtiFAFIlqDGtq8x9V+B7JiPiJaBW7WyzMGdC6F8AURZY2QHUdnE+bLZDiyZhQQCCkv/NK7yxPfumvkBROTQ+ScZkJwaBBb3vZpIe3vmkgYZtXQHi6F8rmQGESNdk4MLBWtyLJmdD6Nu/3JPWZIJL6F70L4o+jEAM726esIEy1BtxyDyrh0/dfrOLF91ycuOuccEi++tPvfieeeYvTWH055XL5rB8k/PkDozHPwH30sqUceofdd72boIx/D7e4h/N7rsZvmoh0Ht78Pp7vrgOLhq/NjnVcN4QBCWsiiqsLFQAAZKQNLYJ1YReiK+rcc+/QTj0Pemfx5+AOUfeZL4LqMfP+tr+9RSYcdX19FtisJJVVQ3TS9GCuX/Kb7IJ9CFjfiaz57Yhtu3jsGtIusPw4ZnuiOp3rWQj6NqF86KQ/ZYDhcRRghC3/E7kY5QojvxpYv/LSJkRFjQ4H4LW0fQovvm0gYZtc4LxCNy0Ap3M6JCg8iWISsPx7QqI69qlO0XYgIV6FzCZzN903fRS4UhqYlaAe6vvcazui+awD76xvwVVVNlTXXRUaiyEh08vftF7egs1nKPvt3u2/LPPUMgx/5C4Y+eB2ZZ5488FhYXqUz+7QikBJZ2kDg4v+D78Rrvbtr5hG84ov4j/IaXFiLi/AtCr+lETh19x+QFRXIULgg3z7K/89XsOvmMPydr5M9wK54vqrpS7S543nav72OfH/Gk+OKuunlOJfE2fZHT4CrFiOrJ0qyqUQ/un89CAvZctbuvGKtFap7DUgb0XCM+U4ZjggRnnT/xJ/vx382/0Mmbu88JpXiHWbk1rarhNS3SSlsEw3DrLqqrl8M0WoY3I4e798ty3br2eCPoEe24w5OLMSzao9B1hyL0C7OxrtR0/107vND42Kwg3T913qyO5NIS3i5v4LpUynyioav/ysqPoavuoriiy6k/CMfp+qzX6D0w5+k5No/RxYVk3nlRUCgE0mkP0j4wkuQoRB6NI4aGED4LWQhtUHYFliWl1tLIcfAVV5usNZYjQHsYyPYp5dgnx1BhCzsKj9WYwgZKiN00RcR4VJEIIzauR6rcQmyrAGrYQlqpBN3uB1KQe3M4f9wOdb8ELI2iAzbyLRCO97LojQ4hbSNvVIptC3Jr19D4ORTCZxwMtF3vx+VGGPkP/6V9CsrwdVoV+13KkXl+z9Gvr8XJxZDuxrtFJ6nNMrVpDaPU3x8KbKkCNwsZDNT5Tg7Dm4WWTIXUVQH4z3oXNKT4/FeRGkDIlCEDIRR8e6CUKcQoRIoqkLkU+jMuPlyGWa5CIv9EeFJjxdSCK151xeuqVjz7buGN5l4GjE+Ihm9teU8KeWdUoiAiYZhVp0CglFE/RLIZVA7J2aLZd1SREkD5DOo7U8V7M7rame1ng/CQnU9ixvrmGajAuYsgGCEnl/uYHz1CNInpxXjsguvwh0bQ8XHUakM7niKhq99ldIrryRy6ulIyyazdjXpFc+g4iNEL76S/LZNXmqEAhkIokbjjN18M/nN271t70OMrYDAWlSMdWI5vjPKkQuCiCo/IioRfoG7KotvcRBZFMCuOxpf04mwq0JDZhzZsAjh88qZCa3Jb30WHXBxX08jF4eQJT5kWQDREMY6qgS7tQhZFoCUixrLTivGFHKTnb5u8ts3k3r+STIvPosbG0ErfUBiXHzupVR/9LNETziVxMrncUZjk8QYW6DzikxXmpLjShDFxZBKgJOfKsfJAWSoFBEqR5TUo4c3w65mLuP9iIpWRLAE0qMTecWpEURZE0TL0CNd+12Kz2CYrSI88fiJ24WUFsJ69xevqXr+23cO7jAxfmcws5TvELGftJwkpbgLCJloGGYddUsAge7fuMt9EcFiZOV8ANTOl3a3exaWjd12AVpIdKwDp3+Gn/hr50IwxPAT/Yw82osVmX54Cs0/CpXLEl6yjHinN+s49MtfEr/vIfy1VTA2hEqPYQUspM9C2JLKfJ7AoqWkX3zec9VXV5F8+BFI7jt32W4tQc4vQlbYoPIoN48VqcKeewpO1xpyOwttq2MuFKq3Ob3rSN/zFWTlAqz6pZDP4O5YjU7HybevxBmaON+JMgtSCkrAV3M0dsOJuN0v44gOrKIwckEl9mgOd90I+WfbUSnnoH+UJRddRe1nbiTf30PHP32GwNx5pLdPf07OdKXpub2bhj9rgPoW6NgI7tQmK077E9hLKsEfxmo9H2fzQ540Z8dhYANUL0bOOR698SG0ctH5LGKkEyrnQu0i6FlnvmOGQ1CE2Ut+p7l/n48XkycCpnmshBCCu2I/O+rC0o+sX2ni/qfH5Bi/Awzd0rhYWuIBkMUmGoZZR0kdBKOQiqHH+icGk8bjQQh0vAc1PnG7NfdM8EUhn8Td/sfpt1leA9ESUtsSdN26fZ8vn96ynvhTDyMsC7t8ouVwvq+P9Lp1OCNTy4plX1uF0z9REkyNz/xzvbAl/hMbCH1gKfaZDYjqMMhdi2QkkYu+SnDZB4he+U3sqnkFgxYTFwjSQla2YtUuwqpuA62RVS3I2oXYTcciS/bI5XU1SIGMVBK54GsEFl9F+LyvIAITedGyJIDvtDmEP3smkeuXYVVGDtpHWXr5tdR+9ivkejrp+MLHyfX3MPb8U/t8zviGBIN/HERbEt3QOu1jtHJxtz0KykUU1WHVLp14y33r0NkxsALIhqMnPpOBLeDmoLgGAlHzPTMcAiK8vznCcobHy+m3MdPtu7csii3bfmDslqMWm8/BiPFhz+iPG5tty/dHpKw00TDMvnOFhKpW0BrdN9GQQ1a2IkJloBxU9x6pFaVNyNK5gMbd8TTanfrTO8EwuqwaN+HQ/oPtKGf6n9EDjS1Y4Qlhij/2ACUXXT7pMVZREcUXXzrluVZNHalnHtv3YGhL/GfMI/zR07BPbESEfdM8SCKCxbtPX7LYW4gmqyQUXNuqP4bAeZ/FXnw+oqyhINsBrIaj8J98PcFTP1AwQY0echERibAC3uo9AMuH9E/TEc5nYR/TQOSz5xO67mSs0rcmyGXXvJ+aT3+JXOc2ur70l+SHB/d/HFsRI7E+gQ6G0VXTL8ZTqSFU/1ovPnXLJrWGVt2vABpR2oQMl+yyafTANu8Yq1tkvmuGQ1+E91t4xRuJ8KT/Co+v1H77j6O/OLrZfDZGjA9b4j+oK8fvf1AiG0w0DLOSyrlg+dDJEXR6rODKFqJmoSc8g5vRjpeeICwfduMp3u2j21HxndOciwS6di4IQecvd5IbzU/7sr6KKqrf91F0fiL1QStFctWLRE8+dfdt7vg4vsZG6v75W9hVXhe5yBnnkXn5BVQqOePbCp7YQuQzF+I/rRURmDnDTLsOmZXLUYl+8tufIb9jhfc2Wn242719d7tfRfVPrJ1RA9txB7Z5/8hnyL74G+/vvQ6izoYAuGPdZF77DSrWSfa13+CO76PhhRTYC+uIfPx8Ihcu8+ogHyDl13+Iqr/6B7JbN9L5pU/ixEYObANa0//gAE48j66sg2B42oe5Pa9AJgbSxmqZKOGmE0Po8T7vp+P6YyduH+kCJwOhYohWmO+b4e2V4BllVeyfCM+4jTclwlMeL6XVYFv2g/GfLyg3n9mfDrP47k9E53frg/6yyIMW4ngTDcPsHC1sqF/szWx2v+797A3I+qOR0SpwMrgdL048vOkUZLQanCzOlke8zhF7+1VtEzoQZuSZEYaeGELnNSiwbIn0S6RP4ispZu6Xv0nRaedSdvG7QSsy2zZD3sUZHCJ6wqlkNm1BZ/MIS5Bbt4aSd7+H8o9/Gqu0jNTzT5Df2THROEPhVZjIu9jFYYr+/Cz8p7UhiyNYFY2QT6InykIACoEC5aK1wh3aQvb1u8i+9gSqM4HemkHvULj9QGOIfNhHcuc6ZNCbCR3etALHyeGLljPy2A/JDm5HOzmcBwcgJ5AZ0Erijm4g1/UEangLCAuB5S3I0YUTsxYIJMIO4Jt7LNLnR5QH8C1tQaRzOCPjuzt0TLf4TkQi4JNUfvwvqfzUZ8lsWMvOGz+Nmxzb5bqTGnzsvfhO+iTClmB7iyGVgnRXhpITytFFxYjRGWack4PIygUIf3hSgw9SI8iKFvAHIZPw8o+9Kx5PikNRGO023zvDwRPhvRe+zSjCb7xQbv9u3x8RfsPtVArhP/OvThe/+s9Hxh3zWRoxPiz47TXIJcfX/NaCi000DLOW6mYIl0IqBiNe4wth+xFzliGkhepZi07HPFmOVCAbjkcIC7f7ZVRiGmkKR9GVtWR7M+y8rRuVU9OKsRUMEHvsPnI72wktWELJ+VdQdsm7QSmymzeR2bCR0suvJL1mLcLyBC7xxEOM/f4XZF59CZ1J7e58t6cYh0+YT/g9pyOKg0h/gPClf4tv3unYDcfg7FhREPm9xHg8h7txnPzj/SQf7GP762Os7U7zwkiSp8ZiPLuuj3BLCWkpGdq5icGtrzHuakZjffRteprRxACjToZHHt/Bw+0jbE5m6enNktiRxbc1R6AjBzmN8NsQ9nmCvJcYh877BL5F52A3H48a3I5WWXzzG/FVl5Hv6EXnnWnFGJ9N7de/Rtmf/wXpV1+m+8a/xc2kZux890ZijBS4SRdcTXhBGUgQiam52zqfxgqWQKgMES6HoS3ewkw3j/BHEKFiCBajh3d4T8iMQWkdBAKQTUI2Zb57hoMjwnvff2iK8B67Wfi3FE3+4siS41Tf72/fiCnZYsR49nPLF1t/IIX4sImEYfaOFBaibqE3ZPRtgrzXdEM2HA2hUkQ+g9v1ysTDW8/xypOlR3E6V0xz3hKopnmAZOdt3eSGc2hHTyvGqDxCaLKd24g9cDvZjq2E5h9FyUXvouzKa9GOQ7a9AxkI4I4MY/kthE8ibem1Xd6jJTQIpM9H0bvPIHBsqye+SmGV1+NbcLq3a/4wTtcrhfq7nhCzc4z8832MPtnLq+sHeWJgjEfJsV667NQuMeWS0xonr9nx2gDFpSGiFaVIyw/SAu2AdogPxFhxz3p2bo2hgITW9DsOW9MZXo6Ns344QawniX97mnBnCpRGRANe+biCGAdPeZ+3TSHQ8X7csX6EZWGVFuGfPwe3bxg3npwixiqfJ/3aK4SWLKH7a59DZzOT6hiLQAiVz08rxmUXnAcoVDoxSYwRgnR3hqKjipFVpcixEXCmmdQa70FWLgDLj/BHULFCR8HUqDdrLG2Em0Wn44UDSELEqwPNaK/5/hmOLBHeM1+5kMohkYvbljRUfuuOngfM523EeFYTu7XtS1LKL5tIGGb1aaeyCcIlkEvDYLt3my+AqD8ahIXuXbdbamTlPER5C0II3B3PonNTZ/x0VS2Eixh+eoT46rGCiE0vxnvWMQbIdbYzev/tZLdtIzR/MSWXvYuiM84guGAB8fvu9WY2ZxBju7KEoveei11ZCqogvUpBbhy7fgEiWIQa3EZ++zPguKjtozhPdrLl5R4e3dbPIyMxtuVyjGk147SNUprOTQNsfbmdseExYgOjdG/YyauPrWHts9tJjs3cyS/tKnams7waG2PD0DiqK0Hp2iFkKocoiyAD3iyyVd2GTgyT2/gkWrkIy/JOyJbAv6AOcnny3SNT6hhr7ZBa9QKl73kfmY1r0ULjq6qm9tP/RK6vm/xg/xQx9lVVM/dLX6LiiqsYefButFSTxFhrSG1LUHpqBfiDiNjw1M9bK+9ziNZ6FSfGdnodEZULvqBX1zgYRY/s8J6QGYfSBoRlI7IJyGXMl9BwhIiwZKb8ZiHEyV9+T0P2m3d0P2uOASPGs5L48uY/B+sHQiBMNAyz9xwkEHXzQNowtAMy3iI22bAUgiWQz6J2rvYeKi2s5tNB+tCJPlT/+qnb8/nQc1rJj+bo/kMvOqenFWMraBNqacZfUYFKe7O3u04VWmty7dsZveN3ZDZsILhgMeETT8Dp7ye3ZeO0YhyYV0f08lORoSBCM1mMtYvTsRKn42Xy257F2TpA9pHtrF3TzV3bunlpJM5I3jmg3zBdx2W0b5T+9j6GuofIvEHN5L1JuS7bUmlWJ5NkuseoWNGJnc6jfDGc9hXk21eBdr0TZkGMtVIgNPbcKqyIn+zm3ikNPlAOuf4uKv78Y0ROOp3qv/wcg7f8J6kNa6ekUpSedR4Lb72VUFsbo488gF1RQap90yQxBnCSLjJoEWwuQuZn6IqXHESUtyIsHyJUhhoplOVLxxEVzWDZCDfvXWBpDYGwN2PsD0B8wHwPjQgf4iIs972dvXObZxThfe+jRp7/5ffWb//WHd2vmePi7cE0+HibGP1p07layFukMJU/DLOc0lpPipWzW1CE7YOiKk94RtonTiA1R4HlBzSq59VpN6dq5oAQ9D804OW+TkPl5e+i/mMfIzx/AVg2Kp1ifMWTDP5+ObmOyXWOx558nNH7Hqb4rHPJbpi+MURoaROhM49GWPuoOKEUbnsHuSc3sb0vxuPDowxkc+94+DNK8XwmxSsITn1mMyeu7CR83Yn4jmvb5/P8S5so9lvEbpuayuKMjjB6929p+Jf/oPumfyCzZfIFjPT7qf/Ml6i6/oPk+/vZ8NG/ILF2JTJoQWD66/yBB/soWVaEqKhGjse9C45JAdbogXWIhhMgVIosrkON9aKdLHqsD0pqobwRhgtdEYc6oKgCAmEIRnZfkBmOFBHmLTbTeDO3T4jwtK81Q1OOmSYUpt/nt7aPUiAV1i2jvzl5Z9n7X3rSHCsHHzNj/DYQ/3HzfOmzHxHIIhMNw6yn1pvlY3wIEl5ZL1HZhoiUg+ugu1YDGmHZWE0ne6kViUHU4Kap2woGceubSW1LMPT4kFf4wWXSjHHpSafgDPTR+/MfMfiH28h17yDY0kr0uFMpu+Q9qPE46c3rEAqvQYaj0TlFdss2dCY1Jcc4fHwLodMXez/LCwnIqTPGjkvumY0MP/Aa9/UO8tRonOQ0Hd3eSRxgh1RsdPOUbRkgMpzAbq5GBAOTZ4xRgAalEMUBfA2lZFd3obSe1BJaZ9PEHr4Tp1BNYtfiu0DTPFq+dzMlZ55D7InH2fiRj5LasW3axXe7T9oaVF7hjDsULY4i0Ij0NCk0qRFEWbP3WYRKUcOFMna5hNcS2rbRmXHIJcF1ENEysP1eRZTxEfNdPKxF+O2aEZYc2IywnP6xQrL/aREzNP84SGkXQghLauvKL11be+e37ugxXwwjxoc2sZ/Ul2nb/5gUotFEwzDrCRdBaZ23cK1vK7iON3bXL/VmX8f6dne/s+qXIiKVgEB3vojOp6dsTjV45dl6frsTd9yZVoyLjzue8RdfQPolQiiynVuJPXInzvAA0aNPoOiMC3AGe8ls2TRJjHE1whKTxDhyYjPB0xdiRcoItJ2BCERQiZFJYqyGE6RufZK1Gzq5IzXOQP7QroiUFrDOzZMaTlC/rQ9fbTmyoniSGPvqj8K/8JxC2kkc/9xS0mu6wSd3i7Ent4VzsRBorSm74r00fe272MWldH/vW3T86zdwUulJVSnCCxZScvIZpHZsniTGWmlSHSnKTipGFgWQibGps8aAlAIRrQHLB9m4V6bNySGKa8H2oS0/xHs8F5DeIjxsH8QGPHM3GBHep/DuW4TFlP8kbz0/+O0V4Wm3L0RYSHnxFy+uv+1b93abJPyDiEmlOIisvBlbWOHbpWShiYbhsKC0xvt/Po3OFkS3IDAAenBbQWBsb8YPID2CSk0ziREKoSMlxF+Lk+nPTJt476+qItTcTGzvmUalGHn4ThKrnqPxy9+h9pOfY/zJx3GzYzPuenBxHYFTvZbN4VM+hIh4DSN09neoIa/ZiNM+yOiPH+FxJ806+eZmiCvqy6hqqqa0ppyiimICoTCW34ebd8mmsyRGxxjpHqB3Sw9jI2MH5WPRwKpMmq6uPq6+42nqzj+ewEletzgZKiFw3DXeAF+3mPxAO3ZznpIPHEfsrrXTbq/k0vcQOf40oqedS3bHNjq++gUS6zZMekygrp6GT32aYHMLzvgo8VdfIL9XYxCtofvuAZr/vBpdVo4YnJob7A5uxqqcj7D8yJpFqIIEM7ID6o+CUAn4gpDPoOP9iMpGTx5KqmC0z3wnZ60Is5+pEQeaunAgaRFvfjtvV2rEW9u+XChK5O0rbz7ukpM+tdrUODZifOgxP9h2s4DzTSQMh8e5TELIywbS43tUGigtNG5Mj+2uOCFrFoL0ZFkNbJp2c6rcy0keemLmhVQ6n6f+gx9k+I7f4qZjU+7PDw3Q8eVPMvffbiZ64mnEH3l42u3455QSOW+BV1tXSESoZOJtBb33lF3TTt9vnuQeN8mA3P+ZyGhphHnHz6V+YQOVc6oIhIOFobQwmyMshNz1by8/QWkHoRXJsQS9W3ay6cWN9Gx562XIBvIOv+zq58rHVrEgliBw7jEg5WQtEN6/A/MrKbpkPslnO6ZsJ/7oPZRe/l5G77+dnv/+Ls741DQIZ3yMzu/+K67MI/2CsnMvYeTZP0553OiqMeqvKCNQXIQYGYa9U1K0hlgXVLRBsAhZVI0aH0DFupG1C7zjrrIFejeAUujUmPfLRXG5EePDWYTflvzg2S7CYh+P937psYR1/qLy4puBj5vj7uBgUikOEvHl8z8nBV80kTAcNpRUQrTUk72B7Z7g+AJQ1ebJVqzLa/YhQDaegJA+cLK4O1+Zuq1gAFVdx9iGJKOvxL0fBTVTUinc8TSVF11CzfveT/yFp1GZ5KRybQLAcch2bMNf20h6/etTUin8lWFKrz8OGfQXJFGic0msomrUcAf5bSvJPL+OHfc+z+3JcUbFG0uxELDwxGbOuu4kTr7iWOrn11NUXoxl+xFy4udNjSCfdbB99qSTmkYh0Pj9FmV15cw/sY35J7URDPsY2jmCctWb/pgcrdkYTxAaT1E5Oo41pwTyCYSQZDc+Qb5vS6HUhMKuj6JSOZzR9KRUCpQiufYVsp07yPZ2T9vgA+2A1NgVZdR/6FPUfuCTjD71AG46uTuVQrka19G4SUXp0RGwJCI1TYOOTBxZ2ea9tj+EHi3UNQ4Xgz/i5RWPdBbOUoV0CmlBYtRL5zEcYhK8r7SAfbVXPlRLp73dqRFyhu3PlN8sdovwnn92PU9IefwX3zc3+a3fdTxvjkcjxocEI7e2XSUkPymcZgyGw4OqOZ4IOzkYLvzcXdHkNfRAeG2htUKUNyHLGgGBGulAj/dP2ZSuqEIHw3T9rg83o2YUY53XpLZuY87HPkblldfgjI6Qad88SYwFIIMh1HiCfG/fJDGWPknFXxyHVRpGWBZIiRAWanyAfOeruP1bSb+4ie2PrOQPo6Ok9qMA29IzW7ngw6fQdvxcIqWRiROSkDh5l/72Qfq29ZKKJ3FdTaQkuseM8WQxZvfrafxBm5rWahafOg/Llgx0DL7pFFoNbBtP4UtmqBoZw6qC/M41OMOdoPRuMUZq7LnFOF1xVNaZ1ODDiY2SG+ifsfOdv6KM+o9+ktavfoeiZaeQeH0VOp8jtX3TJDFWjibVnqH6nBJk2IcYi0/dYeUgolUIfwjhC6Lj3V4nPDcPJXXeBU1mzKubnUtDWW3hjSpIjZvv5qEgwrOzvfJBEmHJwa5RPO17nUGEp32vggu+fF3zq9/8/Y5N5hg1YvyOMnRL42KfJR8QiJCJhuGwQUqonOMNwIk4JGPe7XULvJSJzDiMenm6suFYhN87/HXXSrSbn7wt20JV15DucRh6LubVFd6HGGe6e8h1tlNx6eWUnnMhxSedgTM8QL6/8HpCUHzmRYw//fiUxXclVy4gOL8KIeUkMRbC+39ubTs7/riaO/oGyb6Bhda1lnPJDacw7/hGfAFfocC+RCnYuamfVx5+lcGuYWpbqmlY2ERJdRmhaBghvdfLpXOM9g8z1DXAQGc/w10DxAZiJOJJ8pksUgpsv8SyLOrbqpl34lziA2OMDSfe9Me2I5nGn8pSFUvib61Bo6aIMRYE5kbJbBxGC96wJbQVjVL/qU8x79v/SfHJp5NYu4qO7/4jvbffSqCuEZVN4yQSk8RY5RTSJyheGAYNIpOZXq9K6rwDQQj0+IAnweWN3vFn2xDv93YqUub927IhPmi+n4eCCE83YzzrRfgNFvTNdDHwlmsUvwkR3mv7AimFlld86b31d3/z9q4hc9y+eUyO8Vsg9sOmUmn57wKKTTQMhxXR0sLgzu4SbQTC3qIoDSS9cVcEIhAqHP7ZcVR2mhJdxSUgJH2P7n+ThuGHHyLb3U7T332O4tPOpvlff4AzOkRm2ybcsRj9t/7XlOcE2koJHVMz4zad9l56HnuVO3v69ynFQgpOu2oRC09qQoiJuQPlajrXdvLyA2uZe3Qjp777ZELRqJeSgECjGewcoOO1djrW7WC0742rKIUiQRoW1DJnUT11bZVcdMMZrH9uCy/e++Zr9z8xECOg4RjLJnTB4unfY5Gf6FkNjD27c+p9lk2otZX0jk5qPvxn1N7wUaziYsZfWUnvrf+PsQ2rkH6BVVREzbV/Qfzl5+i+7eYp2+l7IkbDFaXooiJEbHTqcRHrgoZjQApEcR30vO5JcCYOkXLvuBLCuy0dh0DQW/Tp80M+Z76jb6sIc4jUEH7z25l24d5Mf/+T5x9PiPABvVfeYH8siqUVuCt22xmnlP7ZczFzLBsx/pPy22uQMui/DVhgomE47CgqLdiLhlShkkLJHtIZ9xaOiep5uwdrFds57aZ0NIrKKpI70l75rf0k3b6NrV/6DKGGOqLLTsAKBcl2tZNetwat9OTTmyUoflfbjOcNd3ic4QdXcWdXP6l95POGi/xcfMMyyutKvfdV8OeR3jhP/e4VwtEQl33qPKKlRVCQZuVqdry2lVUPvUJs4MDORelkhq2rd7B19Q4AauaW03bCXE6/5lhW3PMayn1zuRV/HIoRfXU7bSVBAsc1TfsYf2sJ/u2j5Pomz1Br16H04stpu/JarJJSxletYud/f39Sgw9/ZQ1zPvUFBu78JcPPPjLt9rMjDiNrkpQfG4VgEPaaNdZao8cHESXVIG1k2RzUSBeM9XtibFkQLYfxYUjGCxVShHdsjphOeEaE90eED5WFeG+TCE+7HblAhu3bfvtbrrz+epQ5vo0Y/8m49Oq2m4DLTSQMs38UsMDZq3KAP+j9P5+dqB0bKfP+72S824WAaHXBcvDKbU0xzTDYPoaeG0O7evck9IGQG+wn9uRD3q+JM5wqii9sxC72Ty/m2TyJB1Zxf+cAo7mZF26VVIa47GPHEikJ75EJrNnwfDsv3vc6Z77neOaf3IYUcndIhnqGePa3zzHUfXBq7Pd3jNDfMYIQ4AvY5N7kQjNXwwMjY1z/xHrqqqLYdUXTnlwjp9WSu3PrlLtijz9M0Sln0vX3/4eRp56GgMQKT8yeu6kE2//9i4W6yft4P8+OUX5sFFVahuybWoVDx3d6YgxQOgdGumB8AGoXeR90cbUnxpmEl+MBEIoCe4mxLcExDnD4iPC+qzEcmqXT/lQiLN7wdom4/HL/JTfBw/9ojvcDxywWexPEbm17n1bCVKAwHCZi7NtLiv1e8wWAQjk2Yft25xGT9H4Wl6V1ezxuHJXPThWfoqgnkCumr98bmX8UdiQ6/W5Fi2j8uy9TfvFVSH9g5t0v8xM+uhIrUk7xuX9F0Vl/iQyXFnZAk352Ays6BtmRzOxTii//+LGEiydex3UVz/3hddY8vplr/vY85p/UvPtE57qKlfe/wl3/cS81rbUsOGn+AYV80akLqGmpnvF+rSGXeWvVF1JK8dBYgvjtq9BpL/VA+IIUn/e3lF35HYKtZyOjPsLHVU55bnrzRgb+9+fEn3t2evFOJdH70RkwtjaFM+56M8bTnPN1vGeiCUioBOEPe9VPcl77ZxEumrjw2nV8BaZZzmH7zfd4nyK8K09VHmCOsJwhh3d/bp8Q4SnNNKY8Xk6/jZlyeCfl2Mq3sO8cpO1PiPDMOcJyP7Y/3f68USOTvbdRqJCjrS+O337Z+8zxb8T4bWfklrnHSPQtUprYGQ4XMZ78w5GOlu5hSIWf2Yv2kKd0IV+0dM7Ec8YHpj0f60CIXMwhNzq95JWfcSEqn5/2Picxzs7//g7Blnks+t+HqLjy/dM+rui8OrAFkZPeT2DuifjmLCO05DJvG+1DdL7WxYrB+IxvPxT1cekNRxGMTlwgOHmXJ257lf4dw1z9t+dQWjOxjCCTyvHQjx9nzRPrAFj3zHoaFs6hqGL/OsCX15ZTXFlCf/vbnw7Q6zi8HE8wft96zynnnoiv9ihkqIzwcR/w3v/CYqR/6nA2fN9d02uWlEQWHUPlxddQfeUHKT3l3BkvXJSrGV6d8BbXhSPTXABo9B7NYERFIe0jU6g8IX2IQNj7+678dSEhFNnnMWxE+BAT4SnCK99mUT2URFjuW4RnWrg3U8z2cx+lRCLFLSN3XHyM+U4c4CnRhGD/if2wqVQK606kjJpoGA4LLGvqTF5oj8M7483cES6emMpMjCCkNbHoDtCjnVOlJxwGKRlaOb2U+ssrqb3uBqoufx8Dd/+Onl/9L+n2nsnbcBx6fvQf6GwKlZm6sM9XE8SeEwEF2plYkKWVi87mGX9sPX/sG91not1FH1pIeI80DCfv8vj/vs7YcIorPnUG4aLgRDgSWe77n8eJ9U+eAX/u9mc5+/3n8tjPH0XvY2GfbVsce+FxPPWrx/9kH/HKfJbm13biX1aLPWdCQlWhrJ7wW4SPr2Ds+X2LuhCC6ms/SO2HPoavciLfXLsOTmyELd/8EiMrX5w6mbAmSc05JejiYkQyOfU4GetHhAppOtHCBVhiGEoLM+pF5Z4UZzNQODR1pBiRntiWtuRMP0IfISLMW0yNeOOf56dtMHFYd5Wb/juw/zF7M/nBb30fJ4m7RdSn7Dtjt11xQumf3R8zJzwjxgefsP1zkK0mEIbDBR0KInKTZ2y1P+DVkx1oh10yWuiAh5vzGiyUNUxUrXByqNRU+dWFFImRV5LTvnbxcafRefO/U/2u66n/0Ceo/+BHGXr0j3Qv/xnptasnPTY/PEj8yYembCNycuXuk1Xy5d+C1gg0mfUPkl65g1UDcYZz+05JePR/N3P02fW0HVuL5fPx+K/WMdw9zlWfOZ1Q1L/HNUKO+29+ikxiaspILpNn3TOvc8rVp7Hirplr7J/+3jNZ/cdVKKWnCLPjuG/LZ6yAp0Wed9+9Dl9LCePP/A9WSTXZ9qcnLlKaw4iXJaSn3wdh28z73n9Tevb5aMch9tyjxF58ksS6VWQGehG+IFWXXkeyo4N8R/ek545vz+AkXKw9LjAmHSfxHkTNosKOhCEQgeTIRG57uBTYCbF+r8lIRe3UdAohj6A844PYXnmm24/I9sr7KcIHdaHcwRXh6R4vLFqtKD8HrjZnPCPGB5XY8tYvSuRVJhKGwwqfH1LpiX8Hgp4Ud++Y6DAmpdd1DLxFUAD2HpKTmSFNIeDHTSkyg3ms4DQ/1T9+H9pR9N3xK4qWnkTNuz9A5YUXUXnJpaQ2bKD/9/9L/JlHEJZG2DYqn5t0yrDLfPjqJvZDZcYZf+EXWP4AOpln5OVOVo5MVFyIlvo45bIaqpuiWLZNalzRvyPFxpf6efH+Hax8qINoWZDESIarPn0q0dLQ7qoUTt7hkVufI9Y/xpnXnsDrz2whNjB51rh3Wy+1bXU0LW2m8/UdzFnYSPOx83jhD0/jOi6LTjuKoZ1DxPqnTtzMO7GF2ECcvu37X6O3tCrEopOrqW2OEi62cB2Xwa4ELz3cQ2J08sVOr1BsiSc5dm0f+F+FXhf0HhJsC8JHlzD+0vSLCOf8zWcoPvl0epf/DwP3/ho3HUNbEz8rq2yGntt/TvlZl5LYS4y1gtj6FBWnFqODAURm8oWFzmcgn/GORbQnx9kk5DJe/vueOfDxYe9XjNqm3R23vSunnHdB56SNCL8ZGTPtlf9EFSPefhGebvtCcNXYXVd9sfjd93zbnPSMGB8URpfPPQf4VxMJw+GGti3EnpUFLAuxs92Tppq5EB/yRCSfBeFAz0bveYPbEIEQlDahk8PTCLeNtixiG1J72Mter71HykF81QpGn30eX0ktde97P3XXX0/LV7+BE/8cidUr6f/Z1LrFoWNLZzw3pV7sZGU8Sa7wGkLA3EVRhrrT5HNQ21JEUXmQ4oowC06soXfHOC8/0snQzoS3AG+P7WrghbvXMtjl5VY3LKwnnciz6uGptYZXP/IKC05ZzGnXnM3Sc45DSEHj4mae+OXDREqjrHrwpWn3t/XYJpLx5H6JcVlNmBMvbqa2uQghFBqX1FiW/o4x4oNp5i4uZv0Lw1O66L0kHNqe3EZgaRUiPHW7/pYQYuU052HbpuKSS1n/oWvJ9nagAwLpnz7wvrKKaW8f25LxxDgSmSLGADodA1819G6C8UIMdr4Oc4/xJBm8FuVSwugAorfDW3BXqGcs8g4qEkakZrsYv0E1hllZOu3tFuEDrVF8+Ivw9NuR/zp+5xUriq65/ylz5jNi/JYYuLmxVgjfryX4TDQMh50YW3vN5KaS3rjaMA+CxaAcT4wtG/q2gXKhbiHEB1Dd65CRKq/u7F6osGdeo+sPTFSyvT20f+979P74h1Rd/S5qrv8zpN9HbqB3Uqk3aYF/zvQ/zat4muG1vbyemHjtEy+uZNGJZWgksYE8m14aJhl3WHhyDdWNxdS1lPCuTy6j4/Vhnr9nC3f/YAWnXb2EhSc2sW1VF5tXdgBQVB4GpYiUhKd97aKKIpaefSyVjbXsmtIsKi/mir95N+uffQ0pxZQ0CiEEJVXFREqC+4yNL2BxyuXzaDm6CiEUaG+GeOPKPsJFNo2LimlcEEVKTShq8fIjk3OGx4RmYzLLSZuHCCybWolCBiWB1jCpTZNTX/w1NfTc+lPS7du9OsYzULz0eIIN09dMHtuW2X1cyOFpZqWTQyAlaqTT63wnBAx3QqwPgoWFdpFSb9GdZcPQ5Fx08nm0fzYO0YdjDeEDlcA3uhjgLdYoPhxFWOzjGJl+G1LgE8L368QdlxwfvfbhPnP2M2L8pnj8a1j+gO/XEupMNAxHDDVNiFDUm3H0hzwRkRY6GfMW3BXXIaLVsO15dPdr6MzUUmw65OWAxje9uRk8lcsx9MA9pLeuI1hXO+X+wIIowp6+MEz61V5eS6UnLbhrXhIF6bWTLq8LUVEfxXEEHevjbHxpkKNOq6NyTiktx1TTsLCKFfdt4fk7X6djbR+97RMz4pZt0bt9kPGRiYWAgXCAaGmUseExrv3C9fgCUwVXWIKlZx9NSVUxz//hWYoqiuje5KUc+II2XZt6ESgsS+JO04CkeWkNp1wxn2DYAu0y1JNgwws91M6Nctq7mrBsgdYuaIXWLi1HFU8RY4A1To4lL+zEv7QcMY3jBudNFeP80BD54ZnrNFvhCNVXfID693+CtX93w7SPcZIu6Z4sgTn+ySkQu46X5BAkBhHBKLp6vpdLHOuBxCgUVey6MvBUrrTaS7+I77FPWu9DLo0IvzMi/OYW9M2uZhoHW4QP7oK+KTEQso5A5NePf+2sC8//52dcDEaMD5QTmttuEkKcayJhODy//RZTyjWEo4iaZehkx8SAGy4GJ+fJR1Vz4bl+RPU8VN+maTetfTZu0iUXd/CF3nxlw0xXB/n+LqRv8jYCzdPP2OqsQ3JVNxvSEz/Xl1X7CISnWqDtk8xbVknr0VVsf22ELasGOeacuRSVRzj7uqNpXlLHM7evndR9TrmKhSe3kk7mWf3o61TOqeCKv74c2+fjd9/8PcnRBKW1nhg7uTz5XA5/0L97trt7czcXfPgCKhrKeP3p11lx90uU15Sy8MRWlMrzzO8n5zL4/BZnvGcpc5dUgVYkYknWPddFeU2I069qQVqgcSdqARfwhyWlVX5ig5NbJ8e0oiOeIto9jq9panEdq9KH9AvUHtkOKpvFV16OFY6glTfzK2wf0SXLKD/vCsrPvgQZitD9qx8ztm7NjJ9loj1DYI4fHfAjMrm9PjfvQkO2noQWEoQNVc3o/u0Iy/YuzvaoaSsbT0IlHwPHeePZRiPCB1mE9+PvB7Cgz4jwwdvH/YmBQJx70sk1NwFfNidBI8YHRPyW1ku1Fl8QwsTCcHiibR9CTZ40EPWLEdI/MaHnuhCMonMZL39hjxJtFNfCdGJcWKw3vn1itnjJv3yfbd//Om4mcUD7GDnqaDJb103eR5/ALpt+6MptH2VLOkt2jwTbirrAPl/DsiXzT6im+WjBxpd6cR3NkjNbaTqqmvf8/</t>
+  </si>
+  <si>
+    <t>O'Hara's Irish Stout (0,5 л.)</t>
+  </si>
+  <si>
+    <t>LeFort Tripel (0,33 л.)</t>
   </si>
 </sst>
 </file>
@@ -1893,7 +1893,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1945,14 +1945,47 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3117,8 +3150,8 @@
   </sheetPr>
   <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3199,121 +3232,154 @@
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>526</v>
+        <v>110</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>521</v>
       </c>
       <c r="C3" s="4">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G3" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="5" t="s">
-        <v>10</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>448</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>450</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>451</v>
+      </c>
+      <c r="L3" s="6"/>
       <c r="M3" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>527</v>
+        <v>477</v>
       </c>
       <c r="C4" s="8">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="8" t="b">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="L4" s="10"/>
+      <c r="M4" s="16" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>528</v>
+        <v>475</v>
       </c>
       <c r="C5" s="8">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="9" t="s">
-        <v>10</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="L5" s="10"/>
       <c r="M5" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="C6" s="8">
-        <v>360</v>
+        <v>290</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>145</v>
+        <v>18</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>155</v>
       </c>
       <c r="L6" s="10"/>
       <c r="M6" s="8" t="b">
@@ -3322,52 +3388,52 @@
     </row>
     <row r="7" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="C7" s="8">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="K7" s="18" t="s">
-        <v>137</v>
+        <v>18</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>152</v>
       </c>
       <c r="L7" s="10"/>
-      <c r="M7" s="8" t="b">
+      <c r="M7" s="16" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>469</v>
+        <v>499</v>
       </c>
       <c r="C8" s="8">
-        <v>360</v>
+        <v>490</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>14</v>
@@ -3378,20 +3444,20 @@
       <c r="F8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>147</v>
+      <c r="G8" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="8" t="b">
@@ -3400,13 +3466,13 @@
     </row>
     <row r="9" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>470</v>
+        <v>498</v>
       </c>
       <c r="C9" s="8">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>14</v>
@@ -3417,20 +3483,20 @@
       <c r="F9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>148</v>
+      <c r="G9" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>172</v>
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="8" t="b">
@@ -3439,37 +3505,37 @@
     </row>
     <row r="10" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>471</v>
+        <v>497</v>
       </c>
       <c r="C10" s="8">
-        <v>250</v>
+        <v>299</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>193</v>
+      <c r="G10" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>173</v>
       </c>
       <c r="L10" s="10"/>
       <c r="M10" s="8" t="b">
@@ -3478,37 +3544,37 @@
     </row>
     <row r="11" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="C11" s="8">
-        <v>600</v>
+        <v>455</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="K11" s="18" t="s">
-        <v>193</v>
+      <c r="G11" s="24" t="s">
+        <v>377</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>172</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="8" t="b">
@@ -3517,13 +3583,13 @@
     </row>
     <row r="12" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="C12" s="8">
-        <v>360</v>
+        <v>465</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>14</v>
@@ -3532,22 +3598,22 @@
         <v>104</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="K12" s="18" t="s">
-        <v>151</v>
+        <v>36</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="K12" s="25" t="s">
+        <v>247</v>
       </c>
       <c r="L12" s="10"/>
       <c r="M12" s="8" t="b">
@@ -3556,52 +3622,52 @@
     </row>
     <row r="13" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="C13" s="8">
-        <v>330</v>
+        <v>465</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="K13" s="18" t="s">
-        <v>152</v>
+        <v>36</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>165</v>
       </c>
       <c r="L13" s="10"/>
-      <c r="M13" s="16" t="b">
+      <c r="M13" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="C14" s="8">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>14</v>
@@ -3610,61 +3676,61 @@
         <v>104</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="K14" s="18" t="s">
-        <v>154</v>
+        <v>36</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>162</v>
       </c>
       <c r="L14" s="10"/>
-      <c r="M14" s="8" t="b">
+      <c r="M14" s="16" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="C15" s="8">
-        <v>290</v>
+        <v>465</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="K15" s="18" t="s">
-        <v>155</v>
+        <v>36</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="8" t="b">
@@ -3673,52 +3739,54 @@
     </row>
     <row r="16" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>477</v>
+        <v>552</v>
       </c>
       <c r="C16" s="8">
-        <v>270</v>
+        <v>790</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="J16" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="K16" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="L16" s="10"/>
-      <c r="M16" s="16" t="b">
+        <v>18</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="J16" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="K16" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>478</v>
+        <v>505</v>
       </c>
       <c r="C17" s="8">
-        <v>340</v>
+        <v>465</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>14</v>
@@ -3729,20 +3797,20 @@
       <c r="F17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="J17" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="K17" s="18" t="s">
-        <v>156</v>
+      <c r="G17" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="J17" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="K17" s="25" t="s">
+        <v>134</v>
       </c>
       <c r="L17" s="10"/>
       <c r="M17" s="8" t="b">
@@ -3751,37 +3819,37 @@
     </row>
     <row r="18" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>479</v>
+        <v>551</v>
       </c>
       <c r="C18" s="8">
-        <v>399</v>
+        <v>499</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="J18" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="K18" s="18" t="s">
-        <v>157</v>
+      <c r="G18" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="K18" s="17" t="s">
+        <v>298</v>
       </c>
       <c r="L18" s="10"/>
       <c r="M18" s="8" t="b">
@@ -3790,37 +3858,37 @@
     </row>
     <row r="19" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>480</v>
+        <v>522</v>
       </c>
       <c r="C19" s="8">
-        <v>360</v>
+        <v>445</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="20" t="s">
         <v>104</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="J19" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="K19" s="18" t="s">
-        <v>158</v>
+      <c r="G19" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>311</v>
       </c>
       <c r="L19" s="10"/>
       <c r="M19" s="8" t="b">
@@ -3829,115 +3897,119 @@
     </row>
     <row r="20" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>481</v>
+        <v>542</v>
       </c>
       <c r="C20" s="8">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="J20" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="K20" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="L20" s="10"/>
+      <c r="G20" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="M20" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>482</v>
+        <v>543</v>
       </c>
       <c r="C21" s="8">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="J21" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="K21" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="L21" s="10"/>
+      <c r="G21" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>436</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>437</v>
+      </c>
+      <c r="J21" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="K21" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="M21" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="C22" s="8">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="I22" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="J22" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="K22" s="18" t="s">
-        <v>228</v>
+        <v>41</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="J22" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="K22" s="25" t="s">
+        <v>169</v>
       </c>
       <c r="L22" s="10"/>
       <c r="M22" s="8" t="b">
@@ -3946,37 +4018,37 @@
     </row>
     <row r="23" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="C23" s="8">
-        <v>280</v>
+        <v>390</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="H23" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="I23" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="J23" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="K23" s="18" t="s">
-        <v>159</v>
+        <v>41</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="J23" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="K23" s="25" t="s">
+        <v>168</v>
       </c>
       <c r="L23" s="10"/>
       <c r="M23" s="8" t="b">
@@ -3985,37 +4057,37 @@
     </row>
     <row r="24" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="C24" s="8">
-        <v>370</v>
+        <v>310</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="H24" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="I24" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="J24" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="K24" s="18" t="s">
-        <v>160</v>
+      <c r="G24" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="I24" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="J24" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="K24" s="25" t="s">
+        <v>265</v>
       </c>
       <c r="L24" s="10"/>
       <c r="M24" s="8" t="b">
@@ -4024,13 +4096,13 @@
     </row>
     <row r="25" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="C25" s="8">
-        <v>465</v>
+        <v>349</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>14</v>
@@ -4039,61 +4111,61 @@
         <v>104</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="H25" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="I25" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="J25" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="K25" s="18" t="s">
-        <v>161</v>
+        <v>18</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="H25" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="I25" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="J25" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="K25" s="25" t="s">
+        <v>269</v>
       </c>
       <c r="L25" s="10"/>
-      <c r="M25" s="16" t="b">
+      <c r="M25" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="C26" s="8">
-        <v>465</v>
+        <v>415</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="H26" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="J26" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="K26" s="18" t="s">
-        <v>163</v>
+        <v>18</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="H26" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="I26" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="J26" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="K26" s="25" t="s">
+        <v>261</v>
       </c>
       <c r="L26" s="10"/>
       <c r="M26" s="8" t="b">
@@ -4102,13 +4174,13 @@
     </row>
     <row r="27" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C27" s="8">
-        <v>465</v>
+        <v>390</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>14</v>
@@ -4117,22 +4189,22 @@
         <v>77</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="H27" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="J27" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="K27" s="18" t="s">
-        <v>164</v>
+        <v>41</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="H27" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="I27" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="J27" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="K27" s="25" t="s">
+        <v>166</v>
       </c>
       <c r="L27" s="10"/>
       <c r="M27" s="8" t="b">
@@ -4141,37 +4213,37 @@
     </row>
     <row r="28" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C28" s="8">
-        <v>465</v>
+        <v>370</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="H28" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="I28" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="J28" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="K28" s="18" t="s">
-        <v>246</v>
+        <v>18</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="I28" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="J28" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="K28" s="25" t="s">
+        <v>161</v>
       </c>
       <c r="L28" s="10"/>
       <c r="M28" s="8" t="b">
@@ -4180,37 +4252,37 @@
     </row>
     <row r="29" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>490</v>
+        <v>510</v>
       </c>
       <c r="C29" s="8">
-        <v>390</v>
+        <v>495</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="H29" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="I29" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="J29" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="K29" s="18" t="s">
-        <v>165</v>
+        <v>36</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="H29" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="I29" s="25" t="s">
+        <v>413</v>
+      </c>
+      <c r="J29" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="K29" s="25" t="s">
+        <v>415</v>
       </c>
       <c r="L29" s="10"/>
       <c r="M29" s="8" t="b">
@@ -4219,37 +4291,37 @@
     </row>
     <row r="30" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>491</v>
+        <v>513</v>
       </c>
       <c r="C30" s="8">
-        <v>390</v>
+        <v>570</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="H30" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="I30" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="J30" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="K30" s="18" t="s">
-        <v>167</v>
+        <v>36</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>395</v>
+      </c>
+      <c r="H30" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="I30" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="J30" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="K30" s="25" t="s">
+        <v>307</v>
       </c>
       <c r="L30" s="10"/>
       <c r="M30" s="8" t="b">
@@ -4258,13 +4330,13 @@
     </row>
     <row r="31" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>492</v>
+        <v>557</v>
       </c>
       <c r="C31" s="8">
-        <v>390</v>
+        <v>495</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>14</v>
@@ -4273,22 +4345,22 @@
         <v>126</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="H31" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="I31" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="J31" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="K31" s="18" t="s">
-        <v>168</v>
+        <v>36</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>394</v>
+      </c>
+      <c r="H31" s="25" t="s">
+        <v>422</v>
+      </c>
+      <c r="I31" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="J31" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="K31" s="25" t="s">
+        <v>425</v>
       </c>
       <c r="L31" s="10"/>
       <c r="M31" s="8" t="b">
@@ -4297,37 +4369,37 @@
     </row>
     <row r="32" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>493</v>
+        <v>511</v>
       </c>
       <c r="C32" s="8">
-        <v>240</v>
+        <v>380</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="H32" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="I32" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="J32" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="K32" s="18" t="s">
-        <v>170</v>
+      <c r="E32" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="H32" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="I32" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="J32" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="K32" s="25" t="s">
+        <v>306</v>
       </c>
       <c r="L32" s="10"/>
       <c r="M32" s="8" t="b">
@@ -4336,37 +4408,37 @@
     </row>
     <row r="33" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>494</v>
+        <v>512</v>
       </c>
       <c r="C33" s="8">
-        <v>415</v>
+        <v>495</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="H33" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="I33" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="J33" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="K33" s="18" t="s">
-        <v>260</v>
+        <v>36</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="H33" s="25" t="s">
+        <v>418</v>
+      </c>
+      <c r="I33" s="25" t="s">
+        <v>419</v>
+      </c>
+      <c r="J33" s="25" t="s">
+        <v>420</v>
+      </c>
+      <c r="K33" s="25" t="s">
+        <v>421</v>
       </c>
       <c r="L33" s="10"/>
       <c r="M33" s="8" t="b">
@@ -4375,37 +4447,37 @@
     </row>
     <row r="34" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="C34" s="8">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="H34" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="I34" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="J34" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="K34" s="18" t="s">
-        <v>264</v>
+      <c r="G34" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="H34" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="I34" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="J34" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="K34" s="25" t="s">
+        <v>160</v>
       </c>
       <c r="L34" s="10"/>
       <c r="M34" s="8" t="b">
@@ -4414,37 +4486,37 @@
     </row>
     <row r="35" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="C35" s="8">
-        <v>349</v>
+        <v>380</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="H35" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="I35" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="J35" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="K35" s="18" t="s">
-        <v>268</v>
+      <c r="G35" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="H35" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="I35" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="J35" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="K35" s="25" t="s">
+        <v>229</v>
       </c>
       <c r="L35" s="10"/>
       <c r="M35" s="8" t="b">
@@ -4453,37 +4525,37 @@
     </row>
     <row r="36" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="C36" s="8">
-        <v>455</v>
+        <v>380</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="H36" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="I36" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="J36" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="K36" s="18" t="s">
-        <v>171</v>
+      <c r="G36" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="I36" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="J36" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="K36" s="17" t="s">
+        <v>225</v>
       </c>
       <c r="L36" s="10"/>
       <c r="M36" s="8" t="b">
@@ -4492,37 +4564,37 @@
     </row>
     <row r="37" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="C37" s="8">
-        <v>299</v>
+        <v>380</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="H37" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="I37" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="J37" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="K37" s="18" t="s">
-        <v>172</v>
+      <c r="G37" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="I37" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="J37" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="K37" s="17" t="s">
+        <v>221</v>
       </c>
       <c r="L37" s="10"/>
       <c r="M37" s="8" t="b">
@@ -4531,52 +4603,54 @@
     </row>
     <row r="38" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>499</v>
+        <v>555</v>
       </c>
       <c r="C38" s="8">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="H38" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="I38" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="J38" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="K38" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="L38" s="10"/>
+        <v>73</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="H38" s="17" t="s">
+        <v>432</v>
+      </c>
+      <c r="I38" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="J38" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="K38" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="M38" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="7" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>500</v>
+        <v>558</v>
       </c>
       <c r="C39" s="8">
-        <v>490</v>
+        <v>360</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>14</v>
@@ -4587,20 +4661,20 @@
       <c r="F39" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="H39" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="I39" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="J39" s="18" t="s">
-        <v>280</v>
-      </c>
-      <c r="K39" s="18" t="s">
-        <v>173</v>
+      <c r="G39" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="H39" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="I39" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="J39" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="K39" s="17" t="s">
+        <v>159</v>
       </c>
       <c r="L39" s="10"/>
       <c r="M39" s="8" t="b">
@@ -4609,37 +4683,37 @@
     </row>
     <row r="40" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="7" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="C40" s="8">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E40" s="15" t="s">
-        <v>45</v>
+      <c r="E40" s="20" t="s">
+        <v>104</v>
       </c>
       <c r="F40" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="H40" s="18" t="s">
-        <v>281</v>
-      </c>
-      <c r="I40" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="J40" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="K40" s="18" t="s">
-        <v>283</v>
+      <c r="G40" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="H40" s="25" t="s">
+        <v>442</v>
+      </c>
+      <c r="I40" s="25" t="s">
+        <v>443</v>
+      </c>
+      <c r="J40" s="25" t="s">
+        <v>444</v>
+      </c>
+      <c r="K40" s="25" t="s">
+        <v>309</v>
       </c>
       <c r="L40" s="10"/>
       <c r="M40" s="8" t="b">
@@ -4648,37 +4722,37 @@
     </row>
     <row r="41" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="7" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>502</v>
+        <v>479</v>
       </c>
       <c r="C41" s="8">
-        <v>370</v>
+        <v>399</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="F41" s="9" t="s">
         <v>18</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="H41" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="I41" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="J41" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="K41" s="18" t="s">
-        <v>287</v>
+        <v>360</v>
+      </c>
+      <c r="H41" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="I41" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="J41" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="K41" s="17" t="s">
+        <v>157</v>
       </c>
       <c r="L41" s="10"/>
       <c r="M41" s="8" t="b">
@@ -4687,13 +4761,13 @@
     </row>
     <row r="42" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>503</v>
+        <v>478</v>
       </c>
       <c r="C42" s="8">
-        <v>450</v>
+        <v>340</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>14</v>
@@ -4705,19 +4779,19 @@
         <v>18</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="H42" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="I42" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="J42" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="K42" s="18" t="s">
-        <v>175</v>
+        <v>359</v>
+      </c>
+      <c r="H42" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I42" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="J42" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="K42" s="17" t="s">
+        <v>156</v>
       </c>
       <c r="L42" s="10"/>
       <c r="M42" s="8" t="b">
@@ -4726,37 +4800,37 @@
     </row>
     <row r="43" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="7" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>504</v>
+        <v>518</v>
       </c>
       <c r="C43" s="8">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E43" s="15" t="s">
-        <v>77</v>
+      <c r="E43" s="20" t="s">
+        <v>127</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="H43" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="I43" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="J43" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="K43" s="18" t="s">
-        <v>177</v>
+        <v>15</v>
+      </c>
+      <c r="G43" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="H43" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="I43" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="J43" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="K43" s="17" t="s">
+        <v>318</v>
       </c>
       <c r="L43" s="10"/>
       <c r="M43" s="8" t="b">
@@ -4765,37 +4839,37 @@
     </row>
     <row r="44" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="7" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="C44" s="8">
-        <v>399</v>
+        <v>350</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="H44" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="I44" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="J44" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="K44" s="18" t="s">
-        <v>178</v>
+        <v>15</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="H44" s="23" t="s">
+        <v>462</v>
+      </c>
+      <c r="I44" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="J44" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="K44" s="17" t="s">
+        <v>315</v>
       </c>
       <c r="L44" s="10"/>
       <c r="M44" s="8" t="b">
@@ -4804,76 +4878,78 @@
     </row>
     <row r="45" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="7" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>506</v>
+        <v>545</v>
       </c>
       <c r="C45" s="8">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="H45" s="18" t="s">
-        <v>398</v>
-      </c>
-      <c r="I45" s="18" t="s">
-        <v>399</v>
-      </c>
-      <c r="J45" s="18" t="s">
-        <v>400</v>
-      </c>
-      <c r="K45" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="L45" s="10"/>
+        <v>73</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="H45" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I45" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="J45" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="K45" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="L45" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="M45" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>553</v>
+        <v>500</v>
       </c>
       <c r="C46" s="8">
-        <v>499</v>
+        <v>370</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="F46" s="9" t="s">
         <v>18</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="H46" s="18" t="s">
-        <v>401</v>
-      </c>
-      <c r="I46" s="18" t="s">
-        <v>402</v>
-      </c>
-      <c r="J46" s="18" t="s">
-        <v>403</v>
-      </c>
-      <c r="K46" s="18" t="s">
-        <v>297</v>
+        <v>381</v>
+      </c>
+      <c r="H46" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="I46" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="J46" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="K46" s="17" t="s">
+        <v>284</v>
       </c>
       <c r="L46" s="10"/>
       <c r="M46" s="8" t="b">
@@ -4882,37 +4958,37 @@
     </row>
     <row r="47" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C47" s="8">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="H47" s="18" t="s">
-        <v>404</v>
-      </c>
-      <c r="I47" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="J47" s="18" t="s">
-        <v>405</v>
-      </c>
-      <c r="K47" s="18" t="s">
-        <v>299</v>
+        <v>382</v>
+      </c>
+      <c r="H47" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="I47" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="J47" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="K47" s="17" t="s">
+        <v>288</v>
       </c>
       <c r="L47" s="10"/>
       <c r="M47" s="8" t="b">
@@ -4921,37 +4997,37 @@
     </row>
     <row r="48" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>508</v>
       </c>
       <c r="C48" s="8">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="D48" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="F48" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="H48" s="18" t="s">
-        <v>406</v>
-      </c>
-      <c r="I48" s="18" t="s">
-        <v>300</v>
-      </c>
-      <c r="J48" s="18" t="s">
-        <v>407</v>
-      </c>
-      <c r="K48" s="18" t="s">
-        <v>151</v>
+        <v>388</v>
+      </c>
+      <c r="H48" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="I48" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="J48" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="K48" s="17" t="s">
+        <v>303</v>
       </c>
       <c r="L48" s="10"/>
       <c r="M48" s="8" t="b">
@@ -4960,37 +5036,37 @@
     </row>
     <row r="49" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C49" s="8">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="D49" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="F49" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="H49" s="18" t="s">
-        <v>408</v>
-      </c>
-      <c r="I49" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="H49" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="I49" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="J49" s="18" t="s">
-        <v>409</v>
-      </c>
-      <c r="K49" s="18" t="s">
-        <v>302</v>
+      <c r="J49" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="K49" s="17" t="s">
+        <v>151</v>
       </c>
       <c r="L49" s="10"/>
       <c r="M49" s="8" t="b">
@@ -5002,7 +5078,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C50" s="8">
         <v>350</v>
@@ -5019,17 +5095,17 @@
       <c r="G50" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="H50" s="18" t="s">
+      <c r="H50" s="17" t="s">
         <v>410</v>
       </c>
-      <c r="I50" s="18" t="s">
+      <c r="I50" s="17" t="s">
         <v>411</v>
       </c>
-      <c r="J50" s="18" t="s">
+      <c r="J50" s="17" t="s">
         <v>405</v>
       </c>
-      <c r="K50" s="18" t="s">
-        <v>303</v>
+      <c r="K50" s="17" t="s">
+        <v>304</v>
       </c>
       <c r="L50" s="10"/>
       <c r="M50" s="8" t="b">
@@ -5038,13 +5114,13 @@
     </row>
     <row r="51" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C51" s="8">
-        <v>495</v>
+        <v>380</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>14</v>
@@ -5053,22 +5129,22 @@
         <v>79</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="H51" s="18" t="s">
-        <v>412</v>
-      </c>
-      <c r="I51" s="18" t="s">
-        <v>413</v>
-      </c>
-      <c r="J51" s="18" t="s">
-        <v>414</v>
-      </c>
-      <c r="K51" s="18" t="s">
-        <v>415</v>
+        <v>387</v>
+      </c>
+      <c r="H51" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="I51" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="J51" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="K51" s="17" t="s">
+        <v>300</v>
       </c>
       <c r="L51" s="10"/>
       <c r="M51" s="8" t="b">
@@ -5077,38 +5153,30 @@
     </row>
     <row r="52" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="7" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="C52" s="8">
-        <v>380</v>
+        <v>270</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="H52" s="18" t="s">
-        <v>416</v>
-      </c>
-      <c r="I52" s="18" t="s">
-        <v>304</v>
-      </c>
-      <c r="J52" s="18" t="s">
-        <v>417</v>
-      </c>
-      <c r="K52" s="18" t="s">
-        <v>305</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F52" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
       <c r="L52" s="10"/>
       <c r="M52" s="8" t="b">
         <v>1</v>
@@ -5116,37 +5184,37 @@
     </row>
     <row r="53" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="7" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>513</v>
+        <v>492</v>
       </c>
       <c r="C53" s="8">
-        <v>495</v>
+        <v>240</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E53" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>36</v>
+      <c r="E53" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F53" s="20" t="s">
+        <v>125</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="H53" s="18" t="s">
-        <v>418</v>
-      </c>
-      <c r="I53" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="J53" s="18" t="s">
-        <v>420</v>
-      </c>
-      <c r="K53" s="18" t="s">
-        <v>421</v>
+        <v>373</v>
+      </c>
+      <c r="H53" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="I53" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="J53" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="K53" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="L53" s="10"/>
       <c r="M53" s="8" t="b">
@@ -5155,37 +5223,37 @@
     </row>
     <row r="54" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="7" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="C54" s="8">
-        <v>495</v>
+        <v>399</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="H54" s="18" t="s">
-        <v>422</v>
-      </c>
-      <c r="I54" s="18" t="s">
-        <v>423</v>
-      </c>
-      <c r="J54" s="18" t="s">
-        <v>424</v>
-      </c>
-      <c r="K54" s="18" t="s">
-        <v>425</v>
+        <v>385</v>
+      </c>
+      <c r="H54" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="I54" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="J54" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="K54" s="17" t="s">
+        <v>179</v>
       </c>
       <c r="L54" s="10"/>
       <c r="M54" s="8" t="b">
@@ -5194,37 +5262,37 @@
     </row>
     <row r="55" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="7" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="C55" s="8">
-        <v>570</v>
+        <v>380</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="H55" s="18" t="s">
-        <v>426</v>
-      </c>
-      <c r="I55" s="18" t="s">
-        <v>427</v>
-      </c>
-      <c r="J55" s="18" t="s">
-        <v>428</v>
-      </c>
-      <c r="K55" s="18" t="s">
-        <v>306</v>
+        <v>384</v>
+      </c>
+      <c r="H55" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="I55" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="J55" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="K55" s="17" t="s">
+        <v>178</v>
       </c>
       <c r="L55" s="10"/>
       <c r="M55" s="8" t="b">
@@ -5233,37 +5301,37 @@
     </row>
     <row r="56" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="7" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="C56" s="8">
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="H56" s="18" t="s">
-        <v>429</v>
-      </c>
-      <c r="I56" s="18" t="s">
-        <v>430</v>
-      </c>
-      <c r="J56" s="18" t="s">
-        <v>431</v>
-      </c>
-      <c r="K56" s="18" t="s">
-        <v>136</v>
+        <v>383</v>
+      </c>
+      <c r="H56" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="I56" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="J56" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="K56" s="17" t="s">
+        <v>176</v>
       </c>
       <c r="L56" s="10"/>
       <c r="M56" s="8" t="b">
@@ -5272,149 +5340,158 @@
     </row>
     <row r="57" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="7" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>517</v>
+        <v>546</v>
       </c>
       <c r="C57" s="8">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G57" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="H57" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="I57" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="J57" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="K57" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="L57" s="10"/>
+        <v>73</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F57" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="G57" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="H57" s="17" t="s">
+        <v>455</v>
+      </c>
+      <c r="I57" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="J57" s="17" t="s">
+        <v>457</v>
+      </c>
+      <c r="K57" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="L57" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="M57" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="7" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>529</v>
+        <v>470</v>
       </c>
       <c r="C58" s="8">
-        <v>250</v>
+        <v>370</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F58" s="10"/>
-      <c r="G58" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="9" t="s">
-        <v>10</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E58" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="H58" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="I58" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="J58" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="K58" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="L58" s="10"/>
       <c r="M58" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>554</v>
+        <v>469</v>
       </c>
       <c r="C59" s="8">
-        <v>790</v>
+        <v>360</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="F59" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G59" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="H59" s="18" t="s">
-        <v>398</v>
-      </c>
-      <c r="I59" s="18" t="s">
-        <v>399</v>
-      </c>
-      <c r="J59" s="18" t="s">
-        <v>400</v>
-      </c>
-      <c r="K59" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="L59" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="G59" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="H59" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="I59" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="J59" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="K59" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="L59" s="10"/>
       <c r="M59" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="7" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>555</v>
+        <v>473</v>
       </c>
       <c r="C60" s="8">
-        <v>430</v>
+        <v>360</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="F60" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="H60" s="18" t="s">
-        <v>422</v>
-      </c>
-      <c r="I60" s="18" t="s">
-        <v>423</v>
-      </c>
-      <c r="J60" s="18" t="s">
-        <v>424</v>
-      </c>
-      <c r="K60" s="18" t="s">
-        <v>425</v>
-      </c>
-      <c r="L60" s="9" t="s">
-        <v>10</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="H60" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="I60" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="J60" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="K60" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="L60" s="10"/>
       <c r="M60" s="8" t="b">
         <v>1</v>
       </c>
@@ -5424,7 +5501,7 @@
         <v>76</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C61" s="8">
         <v>490</v>
@@ -5439,19 +5516,19 @@
         <v>18</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="H61" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="I61" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="H61" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="J61" s="18" t="s">
+      <c r="I61" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="K61" s="18" t="s">
+      <c r="J61" s="17" t="s">
         <v>193</v>
+      </c>
+      <c r="K61" s="17" t="s">
+        <v>194</v>
       </c>
       <c r="L61" s="9" t="s">
         <v>10</v>
@@ -5462,130 +5539,159 @@
     </row>
     <row r="62" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="7" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>557</v>
+        <v>472</v>
       </c>
       <c r="C62" s="8">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F62" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="G62" s="15" t="s">
-        <v>558</v>
-      </c>
-      <c r="H62" s="18" t="s">
-        <v>432</v>
-      </c>
-      <c r="I62" s="18" t="s">
-        <v>433</v>
-      </c>
-      <c r="J62" s="18" t="s">
-        <v>434</v>
-      </c>
-      <c r="K62" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="L62" s="9" t="s">
-        <v>10</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F62" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="H62" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="I62" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="J62" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="K62" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="L62" s="10"/>
       <c r="M62" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="7" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>530</v>
+        <v>471</v>
       </c>
       <c r="C63" s="8">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="G63" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="10">
-        <v>80</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F63" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="H63" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="I63" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="J63" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="K63" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="L63" s="10"/>
       <c r="M63" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="7" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>531</v>
+        <v>547</v>
       </c>
       <c r="C64" s="8">
-        <v>230</v>
+        <v>490</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>82</v>
+        <v>101</v>
+      </c>
+      <c r="F64" s="26" t="s">
+        <v>18</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
-      <c r="L64" s="10">
-        <v>80</v>
+        <v>351</v>
+      </c>
+      <c r="H64" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="I64" s="23" t="s">
+        <v>459</v>
+      </c>
+      <c r="J64" s="23" t="s">
+        <v>460</v>
+      </c>
+      <c r="K64" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="L64" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="M64" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="7" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>532</v>
+        <v>553</v>
       </c>
       <c r="C65" s="8">
-        <v>230</v>
+        <v>430</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="9"/>
-      <c r="K65" s="9"/>
-      <c r="L65" s="10">
-        <v>80</v>
+        <v>73</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="G65" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="H65" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="I65" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="J65" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="K65" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="L65" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="M65" s="8" t="b">
         <v>1</v>
@@ -5593,29 +5699,40 @@
     </row>
     <row r="66" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="7" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="C66" s="8">
-        <v>230</v>
+        <v>620</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>82</v>
+        <v>77</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
-      <c r="L66" s="10">
-        <v>80</v>
+        <v>347</v>
+      </c>
+      <c r="H66" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="I66" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="J66" s="23" t="s">
+        <v>441</v>
+      </c>
+      <c r="K66" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="L66" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="M66" s="8" t="b">
         <v>1</v>
@@ -5623,119 +5740,157 @@
     </row>
     <row r="67" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="7" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>534</v>
+        <v>517</v>
       </c>
       <c r="C67" s="8">
-        <v>230</v>
+        <v>390</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>82</v>
+        <v>14</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F67" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
-      <c r="J67" s="9"/>
-      <c r="K67" s="9"/>
-      <c r="L67" s="10">
-        <v>80</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="H67" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="I67" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="J67" s="23" t="s">
+        <v>441</v>
+      </c>
+      <c r="K67" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="L67" s="10"/>
       <c r="M67" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="7" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>535</v>
+        <v>468</v>
       </c>
       <c r="C68" s="8">
-        <v>230</v>
+        <v>360</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="G68" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="9"/>
-      <c r="K68" s="9"/>
-      <c r="L68" s="10">
-        <v>80</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F68" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="H68" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="I68" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="J68" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="K68" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="L68" s="10"/>
       <c r="M68" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="7" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>536</v>
+        <v>514</v>
       </c>
       <c r="C69" s="8">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G69" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9"/>
-      <c r="L69" s="10">
-        <v>100</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E69" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F69" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="H69" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="I69" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="J69" s="23" t="s">
+        <v>431</v>
+      </c>
+      <c r="K69" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="L69" s="10"/>
       <c r="M69" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="7" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>537</v>
+        <v>514</v>
       </c>
       <c r="C70" s="8">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>89</v>
+        <v>79</v>
+      </c>
+      <c r="F70" s="26" t="s">
+        <v>15</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="9"/>
-      <c r="K70" s="9"/>
-      <c r="L70" s="10">
-        <v>100</v>
+        <v>343</v>
+      </c>
+      <c r="H70" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="I70" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="J70" s="23" t="s">
+        <v>431</v>
+      </c>
+      <c r="K70" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="L70" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="M70" s="8" t="b">
         <v>1</v>
@@ -5743,100 +5898,129 @@
     </row>
     <row r="71" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="7" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>538</v>
+        <v>467</v>
       </c>
       <c r="C71" s="8">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G71" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
-      <c r="J71" s="9"/>
-      <c r="K71" s="9"/>
-      <c r="L71" s="10">
-        <v>100</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E71" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F71" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="H71" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="I71" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="J71" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="K71" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="L71" s="10"/>
       <c r="M71" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="7" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>539</v>
+        <v>515</v>
       </c>
       <c r="C72" s="8">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
-      <c r="J72" s="9"/>
-      <c r="K72" s="9"/>
-      <c r="L72" s="10">
-        <v>100</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E72" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F72" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="H72" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="I72" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="J72" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="K72" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="L72" s="10"/>
       <c r="M72" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>540</v>
+        <v>515</v>
       </c>
       <c r="C73" s="8">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>93</v>
+        <v>101</v>
+      </c>
+      <c r="F73" s="26" t="s">
+        <v>15</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9"/>
-      <c r="J73" s="9"/>
-      <c r="K73" s="9"/>
-      <c r="L73" s="10">
-        <v>80</v>
-      </c>
-      <c r="M73" s="16" t="b">
+        <v>342</v>
+      </c>
+      <c r="H73" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="I73" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="J73" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="K73" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="L73" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M73" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="7" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="C74" s="8">
         <v>250</v>
@@ -5847,8 +6031,9 @@
       <c r="E74" s="9" t="s">
         <v>93</v>
       </c>
+      <c r="F74" s="24"/>
       <c r="G74" s="9" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
@@ -5863,29 +6048,30 @@
     </row>
     <row r="75" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="C75" s="8">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>81</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G75" s="9" t="s">
-        <v>324</v>
+        <v>89</v>
+      </c>
+      <c r="F75" s="24"/>
+      <c r="G75" s="8" t="s">
+        <v>323</v>
       </c>
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c r="L75" s="10">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M75" s="8" t="b">
         <v>1</v>
@@ -5893,70 +6079,59 @@
     </row>
     <row r="76" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="7" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="C76" s="8">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>98</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E76" s="8"/>
+      <c r="F76" s="22"/>
       <c r="G76" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9"/>
-      <c r="J76" s="9"/>
-      <c r="K76" s="9"/>
-      <c r="L76" s="10">
-        <v>100</v>
+        <v>337</v>
+      </c>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="M76" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>516</v>
+        <v>541</v>
       </c>
       <c r="C77" s="8">
-        <v>450</v>
+        <v>210</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F77" s="13" t="s">
-        <v>15</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="F77" s="24"/>
       <c r="G77" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="H77" s="18" t="s">
-        <v>429</v>
-      </c>
-      <c r="I77" s="18" t="s">
-        <v>430</v>
-      </c>
-      <c r="J77" s="18" t="s">
-        <v>431</v>
-      </c>
-      <c r="K77" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="L77" s="9" t="s">
-        <v>10</v>
+        <v>329</v>
+      </c>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="19"/>
+      <c r="K77" s="19"/>
+      <c r="L77" s="10">
+        <v>100</v>
       </c>
       <c r="M77" s="8" t="b">
         <v>1</v>
@@ -5964,40 +6139,30 @@
     </row>
     <row r="78" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>517</v>
+        <v>540</v>
       </c>
       <c r="C78" s="8">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F78" s="13" t="s">
-        <v>15</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="F78" s="24"/>
       <c r="G78" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="H78" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="I78" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="J78" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="K78" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="L78" s="9" t="s">
-        <v>10</v>
+        <v>325</v>
+      </c>
+      <c r="H78" s="19"/>
+      <c r="I78" s="19"/>
+      <c r="J78" s="19"/>
+      <c r="K78" s="19"/>
+      <c r="L78" s="10">
+        <v>80</v>
       </c>
       <c r="M78" s="8" t="b">
         <v>1</v>
@@ -6005,40 +6170,30 @@
     </row>
     <row r="79" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="7" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="C79" s="8">
-        <v>420</v>
+        <v>250</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E79" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="F79" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="H79" s="18" t="s">
-        <v>435</v>
-      </c>
-      <c r="I79" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="J79" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="K79" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="L79" s="9" t="s">
-        <v>10</v>
+        <v>81</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F79" s="24"/>
+      <c r="G79" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="H79" s="19"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="19"/>
+      <c r="K79" s="19"/>
+      <c r="L79" s="10">
+        <v>80</v>
       </c>
       <c r="M79" s="8" t="b">
         <v>1</v>
@@ -6046,112 +6201,92 @@
     </row>
     <row r="80" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>545</v>
+        <v>523</v>
       </c>
       <c r="C80" s="8">
-        <v>420</v>
+        <v>250</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F80" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G80" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="H80" s="18" t="s">
-        <v>436</v>
-      </c>
-      <c r="I80" s="18" t="s">
-        <v>437</v>
-      </c>
-      <c r="J80" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="K80" s="18" t="s">
-        <v>438</v>
-      </c>
-      <c r="L80" s="9" t="s">
-        <v>10</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F80" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="G80" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="H80" s="22"/>
+      <c r="I80" s="22"/>
+      <c r="J80" s="22"/>
+      <c r="K80" s="22"/>
+      <c r="L80" s="10"/>
       <c r="M80" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="7" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="C81" s="8">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E81" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F81" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="G81" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="H81" s="10"/>
-      <c r="I81" s="10"/>
-      <c r="J81" s="10"/>
-      <c r="K81" s="10"/>
-      <c r="L81" s="10"/>
+        <v>81</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F81" s="24"/>
+      <c r="G81" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="10">
+        <v>80</v>
+      </c>
       <c r="M81" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="7" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="C82" s="8">
-        <v>620</v>
+        <v>250</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F82" s="13" t="s">
-        <v>18</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="F82" s="24"/>
       <c r="G82" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="H82" s="18" t="s">
-        <v>439</v>
-      </c>
-      <c r="I82" s="18" t="s">
-        <v>440</v>
-      </c>
-      <c r="J82" s="18" t="s">
-        <v>441</v>
-      </c>
-      <c r="K82" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="L82" s="9" t="s">
-        <v>10</v>
+        <v>326</v>
+      </c>
+      <c r="H82" s="19"/>
+      <c r="I82" s="19"/>
+      <c r="J82" s="19"/>
+      <c r="K82" s="19"/>
+      <c r="L82" s="10">
+        <v>80</v>
       </c>
       <c r="M82" s="8" t="b">
         <v>1</v>
@@ -6159,186 +6294,150 @@
     </row>
     <row r="83" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="7" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="C83" s="8">
-        <v>360</v>
+        <v>230</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E83" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="F83" s="9" t="s">
-        <v>18</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="E83" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F83" s="8"/>
       <c r="G83" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="H83" s="18" t="s">
-        <v>442</v>
-      </c>
-      <c r="I83" s="18" t="s">
-        <v>443</v>
-      </c>
-      <c r="J83" s="18" t="s">
-        <v>444</v>
-      </c>
-      <c r="K83" s="18" t="s">
-        <v>308</v>
-      </c>
-      <c r="L83" s="10"/>
+        <v>333</v>
+      </c>
+      <c r="H83" s="19"/>
+      <c r="I83" s="19"/>
+      <c r="J83" s="19"/>
+      <c r="K83" s="19"/>
+      <c r="L83" s="10">
+        <v>80</v>
+      </c>
       <c r="M83" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="7" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>524</v>
+        <v>548</v>
       </c>
       <c r="C84" s="8">
-        <v>445</v>
+        <v>210</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E84" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="F84" s="9" t="s">
-        <v>18</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="E84" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="F84" s="8"/>
       <c r="G84" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="H84" s="18" t="s">
-        <v>445</v>
-      </c>
-      <c r="I84" s="18" t="s">
-        <v>446</v>
-      </c>
-      <c r="J84" s="18" t="s">
-        <v>447</v>
-      </c>
-      <c r="K84" s="18" t="s">
-        <v>310</v>
-      </c>
-      <c r="L84" s="10"/>
+        <v>328</v>
+      </c>
+      <c r="H84" s="19"/>
+      <c r="I84" s="19"/>
+      <c r="J84" s="19"/>
+      <c r="K84" s="19"/>
+      <c r="L84" s="10">
+        <v>100</v>
+      </c>
       <c r="M84" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="7" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="C85" s="8">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E85" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F85" s="9" t="s">
-        <v>15</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="E85" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F85" s="8"/>
       <c r="G85" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="H85" s="18" t="s">
-        <v>448</v>
-      </c>
-      <c r="I85" s="18" t="s">
-        <v>449</v>
-      </c>
-      <c r="J85" s="18" t="s">
-        <v>450</v>
-      </c>
-      <c r="K85" s="18" t="s">
-        <v>451</v>
-      </c>
-      <c r="L85" s="10"/>
+        <v>334</v>
+      </c>
+      <c r="H85" s="19"/>
+      <c r="I85" s="19"/>
+      <c r="J85" s="19"/>
+      <c r="K85" s="19"/>
+      <c r="L85" s="10">
+        <v>80</v>
+      </c>
       <c r="M85" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="7" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="C86" s="8">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E86" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F86" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G86" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="H86" s="10"/>
-      <c r="I86" s="10"/>
-      <c r="J86" s="10"/>
-      <c r="K86" s="10"/>
-      <c r="L86" s="10"/>
+        <v>81</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F86" s="24"/>
+      <c r="G86" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="10">
+        <v>80</v>
+      </c>
       <c r="M86" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="7" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>547</v>
+        <v>526</v>
       </c>
       <c r="C87" s="8">
-        <v>480</v>
+        <v>250</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E87" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F87" s="13" t="s">
-        <v>41</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E87" s="8"/>
+      <c r="F87" s="22"/>
       <c r="G87" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="H87" s="18" t="s">
-        <v>452</v>
-      </c>
-      <c r="I87" s="18" t="s">
-        <v>453</v>
-      </c>
-      <c r="J87" s="18" t="s">
-        <v>454</v>
-      </c>
-      <c r="K87" s="18" t="s">
-        <v>141</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="H87" s="22"/>
+      <c r="I87" s="22"/>
+      <c r="J87" s="22"/>
+      <c r="K87" s="22"/>
       <c r="L87" s="9" t="s">
         <v>10</v>
       </c>
@@ -6348,40 +6447,30 @@
     </row>
     <row r="88" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="7" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>548</v>
+        <v>529</v>
       </c>
       <c r="C88" s="8">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F88" s="13" t="s">
-        <v>124</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="F88" s="24"/>
       <c r="G88" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="H88" s="18" t="s">
-        <v>455</v>
-      </c>
-      <c r="I88" s="18" t="s">
-        <v>456</v>
-      </c>
-      <c r="J88" s="18" t="s">
-        <v>457</v>
-      </c>
-      <c r="K88" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="L88" s="9" t="s">
-        <v>10</v>
+        <v>332</v>
+      </c>
+      <c r="H88" s="19"/>
+      <c r="I88" s="19"/>
+      <c r="J88" s="19"/>
+      <c r="K88" s="19"/>
+      <c r="L88" s="10">
+        <v>80</v>
       </c>
       <c r="M88" s="8" t="b">
         <v>1</v>
@@ -6389,180 +6478,143 @@
     </row>
     <row r="89" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="7" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="C89" s="8">
-        <v>490</v>
+        <v>250</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F89" s="13" t="s">
-        <v>18</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="F89" s="24"/>
       <c r="G89" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="H89" s="18" t="s">
-        <v>458</v>
-      </c>
-      <c r="I89" s="18" t="s">
-        <v>459</v>
-      </c>
-      <c r="J89" s="18" t="s">
-        <v>460</v>
-      </c>
-      <c r="K89" s="18" t="s">
-        <v>461</v>
-      </c>
-      <c r="L89" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="M89" s="8" t="b">
-        <v>0</v>
+        <v>466</v>
+      </c>
+      <c r="H89" s="19"/>
+      <c r="I89" s="19"/>
+      <c r="J89" s="19"/>
+      <c r="K89" s="19"/>
+      <c r="L89" s="10">
+        <v>80</v>
+      </c>
+      <c r="M89" s="16" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="7" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="C90" s="8">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E90" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F90" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G90" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="H90" s="18" t="s">
-        <v>462</v>
-      </c>
-      <c r="I90" s="18" t="s">
-        <v>313</v>
-      </c>
-      <c r="J90" s="18" t="s">
-        <v>463</v>
-      </c>
-      <c r="K90" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="L90" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="E90" s="8"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="H90" s="22"/>
+      <c r="I90" s="22"/>
+      <c r="J90" s="22"/>
+      <c r="K90" s="22"/>
+      <c r="L90" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="M90" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="7" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="C91" s="8">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E91" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F91" s="9" t="s">
-        <v>15</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="E91" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F91" s="8"/>
       <c r="G91" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="H91" s="18" t="s">
-        <v>464</v>
-      </c>
-      <c r="I91" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="J91" s="18" t="s">
-        <v>465</v>
-      </c>
-      <c r="K91" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="L91" s="10"/>
+        <v>331</v>
+      </c>
+      <c r="H91" s="19"/>
+      <c r="I91" s="19"/>
+      <c r="J91" s="19"/>
+      <c r="K91" s="19"/>
+      <c r="L91" s="10">
+        <v>80</v>
+      </c>
       <c r="M91" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="7" t="s">
-        <v>117</v>
+        <v>8</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="C92" s="8">
-        <v>390</v>
+        <v>250</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E92" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F92" s="9" t="s">
-        <v>18</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E92" s="8"/>
+      <c r="F92" s="10"/>
       <c r="G92" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="H92" s="18" t="s">
-        <v>439</v>
-      </c>
-      <c r="I92" s="18" t="s">
-        <v>440</v>
-      </c>
-      <c r="J92" s="18" t="s">
-        <v>441</v>
-      </c>
-      <c r="K92" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="L92" s="10"/>
+        <v>339</v>
+      </c>
+      <c r="H92" s="22"/>
+      <c r="I92" s="22"/>
+      <c r="J92" s="22"/>
+      <c r="K92" s="22"/>
+      <c r="L92" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="M92" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="7" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="C93" s="8">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>81</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>98</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="F93" s="24"/>
       <c r="G93" s="9" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="H93" s="9"/>
       <c r="I93" s="9"/>
@@ -6577,29 +6629,30 @@
     </row>
     <row r="94" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="7" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="C94" s="8">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>81</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>93</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="F94" s="24"/>
       <c r="G94" s="9" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="H94" s="9"/>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c r="L94" s="10">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M94" s="8" t="b">
         <v>1</v>
@@ -6607,42 +6660,48 @@
     </row>
     <row r="95" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="7" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="C95" s="8">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="D95" s="9" t="s">
         <v>81</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>93</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="F95" s="24"/>
       <c r="G95" s="9" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H95" s="9"/>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c r="L95" s="10">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M95" s="8" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:M95" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:M95" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:M95">
+      <sortCondition descending="1" ref="B2:B95"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G59" r:id="rId1" xr:uid="{D2F1E056-574E-2348-A7CC-BEE77F56585D}"/>
-    <hyperlink ref="G80" r:id="rId2" xr:uid="{41696CAC-9DCE-E340-9C0B-3555AC05CD1A}"/>
+    <hyperlink ref="G16" r:id="rId1" xr:uid="{D2F1E056-574E-2348-A7CC-BEE77F56585D}"/>
+    <hyperlink ref="G21" r:id="rId2" xr:uid="{41696CAC-9DCE-E340-9C0B-3555AC05CD1A}"/>
+    <hyperlink ref="G39" r:id="rId3" xr:uid="{CC854377-6A89-ED4D-B4F2-211CB5902185}"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
